--- a/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
+++ b/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="126">
   <si>
     <t>室の仕様</t>
   </si>
@@ -593,6 +593,12 @@
       <t>セイギョ</t>
     </rPh>
     <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>給気</t>
+  </si>
+  <si>
+    <t>排気</t>
   </si>
 </sst>
 </file>
@@ -1404,18 +1410,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1433,6 +1427,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1782,16 +1788,16 @@
   <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R14" sqref="R14"/>
+      <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.125" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="9" style="25"/>
+    <col min="3" max="3" width="11.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="19.125" style="25" customWidth="1"/>
+    <col min="6" max="6" width="9" style="21"/>
     <col min="7" max="7" width="25.625" customWidth="1"/>
     <col min="8" max="8" width="8.25" customWidth="1"/>
     <col min="17" max="19" width="11.25" customWidth="1"/>
@@ -1803,45 +1809,45 @@
       <c r="A1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="F1" s="24"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="21" t="s">
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="21" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="23"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="29"/>
       <c r="U2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="20" t="s">
+      <c r="V2" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="20"/>
-      <c r="X2" s="20"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="26"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -1859,7 +1865,7 @@
       <c r="E3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="F3" s="26" t="s">
+      <c r="F3" s="22" t="s">
         <v>118</v>
       </c>
       <c r="G3" s="5" t="s">
@@ -1933,7 +1939,7 @@
       <c r="E4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="26" t="s">
+      <c r="F4" s="22" t="s">
         <v>69</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1999,7 +2005,7 @@
       <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="27"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
@@ -2052,10 +2058,10 @@
       <c r="B6" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E6" s="6">
@@ -2068,10 +2074,10 @@
         <v>77</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I6" s="6">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="J6" s="6">
         <v>0.75</v>
@@ -2115,8 +2121,8 @@
     <row r="7" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="24"/>
       <c r="E7" s="6"/>
       <c r="F7" s="17" t="s">
         <v>70</v>
@@ -2128,7 +2134,7 @@
         <v>88</v>
       </c>
       <c r="I7" s="6">
-        <v>0</v>
+        <v>2190</v>
       </c>
       <c r="J7" s="6">
         <v>0.75</v>
@@ -2164,8 +2170,8 @@
     <row r="8" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="6"/>
       <c r="B8" s="6"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
       <c r="E8" s="6"/>
       <c r="F8" s="17" t="s">
         <v>71</v>
@@ -2207,8 +2213,8 @@
     <row r="9" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6"/>
       <c r="B9" s="6"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
       <c r="E9" s="6"/>
       <c r="F9" s="17" t="s">
         <v>71</v>
@@ -2254,10 +2260,10 @@
       <c r="B10" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="6">
@@ -2270,7 +2276,7 @@
         <v>79</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I10" s="6">
         <v>1650</v>
@@ -2317,8 +2323,8 @@
     <row r="11" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
       <c r="E11" s="6"/>
       <c r="F11" s="17" t="s">
         <v>70</v>
@@ -2370,10 +2376,10 @@
       <c r="B12" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="6">
@@ -2386,10 +2392,10 @@
         <v>80</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="J12" s="6">
         <v>1.5</v>
@@ -2433,8 +2439,8 @@
     <row r="13" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
       <c r="E13" s="6"/>
       <c r="F13" s="17" t="s">
         <v>70</v>
@@ -2446,7 +2452,7 @@
         <v>88</v>
       </c>
       <c r="I13" s="6">
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="J13" s="6">
         <v>0.75</v>
@@ -2486,10 +2492,10 @@
       <c r="B14" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="6">
@@ -2502,10 +2508,10 @@
         <v>80</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="J14" s="6">
         <v>1.5</v>
@@ -2549,8 +2555,8 @@
     <row r="15" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
       <c r="E15" s="6"/>
       <c r="F15" s="17" t="s">
         <v>70</v>
@@ -2562,7 +2568,7 @@
         <v>88</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>3110</v>
       </c>
       <c r="J15" s="6">
         <v>0.75</v>
@@ -2602,10 +2608,10 @@
       <c r="B16" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="24" t="s">
         <v>31</v>
       </c>
       <c r="E16" s="6">
@@ -2618,10 +2624,10 @@
         <v>81</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="J16" s="6">
         <v>0.4</v>
@@ -2665,8 +2671,8 @@
     <row r="17" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
       <c r="E17" s="6"/>
       <c r="F17" s="17" t="s">
         <v>70</v>
@@ -2678,7 +2684,7 @@
         <v>88</v>
       </c>
       <c r="I17" s="6">
-        <v>0</v>
+        <v>650</v>
       </c>
       <c r="J17" s="6">
         <v>0.15</v>
@@ -2714,8 +2720,8 @@
     <row r="18" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
       <c r="E18" s="6"/>
       <c r="F18" s="17" t="s">
         <v>71</v>
@@ -2761,10 +2767,10 @@
       <c r="B19" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="28" t="s">
+      <c r="C19" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="6">
@@ -2777,10 +2783,10 @@
         <v>82</v>
       </c>
       <c r="H19" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I19" s="6">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J19" s="6">
         <v>0.1</v>
@@ -2824,8 +2830,8 @@
     <row r="20" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
       <c r="E20" s="6"/>
       <c r="F20" s="17" t="s">
         <v>70</v>
@@ -2837,7 +2843,7 @@
         <v>88</v>
       </c>
       <c r="I20" s="6">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="J20" s="6">
         <v>0.1</v>
@@ -2877,10 +2883,10 @@
       <c r="B21" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E21" s="6">
@@ -2893,10 +2899,10 @@
         <v>84</v>
       </c>
       <c r="H21" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I21" s="6">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J21" s="6">
         <v>1.5</v>
@@ -2940,8 +2946,8 @@
     <row r="22" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
       <c r="E22" s="6"/>
       <c r="F22" s="17" t="s">
         <v>70</v>
@@ -2953,7 +2959,7 @@
         <v>88</v>
       </c>
       <c r="I22" s="6">
-        <v>0</v>
+        <v>2100</v>
       </c>
       <c r="J22" s="6">
         <v>0.4</v>
@@ -2993,10 +2999,10 @@
       <c r="B23" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C23" s="28" t="s">
+      <c r="C23" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="24" t="s">
         <v>27</v>
       </c>
       <c r="E23" s="6">
@@ -3009,7 +3015,7 @@
         <v>85</v>
       </c>
       <c r="H23" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I23" s="6">
         <v>6200</v>
@@ -3056,8 +3062,8 @@
     <row r="24" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
       <c r="E24" s="6"/>
       <c r="F24" s="17" t="s">
         <v>70</v>
@@ -3109,10 +3115,10 @@
       <c r="B25" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="28" t="s">
+      <c r="C25" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D25" s="28" t="s">
+      <c r="D25" s="24" t="s">
         <v>58</v>
       </c>
       <c r="E25" s="6">
@@ -3125,7 +3131,7 @@
         <v>86</v>
       </c>
       <c r="H25" s="17" t="s">
-        <v>78</v>
+        <v>124</v>
       </c>
       <c r="I25" s="6">
         <v>11400</v>
@@ -3172,8 +3178,8 @@
     <row r="26" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
       <c r="E26" s="6"/>
       <c r="F26" s="17" t="s">
         <v>70</v>
@@ -3185,7 +3191,7 @@
         <v>78</v>
       </c>
       <c r="I26" s="6">
-        <v>0</v>
+        <v>1920</v>
       </c>
       <c r="J26" s="6">
         <v>0.16</v>
@@ -3221,8 +3227,8 @@
     <row r="27" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
       <c r="E27" s="6"/>
       <c r="F27" s="17" t="s">
         <v>70</v>
@@ -3234,7 +3240,7 @@
         <v>88</v>
       </c>
       <c r="I27" s="6">
-        <v>0</v>
+        <v>11400</v>
       </c>
       <c r="J27" s="6">
         <v>3.7</v>
@@ -3274,10 +3280,10 @@
       <c r="B28" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C28" s="28" t="s">
+      <c r="C28" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D28" s="28" t="s">
+      <c r="D28" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E28" s="6">
@@ -3290,7 +3296,7 @@
         <v>87</v>
       </c>
       <c r="H28" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I28" s="6">
         <v>580</v>
@@ -3341,10 +3347,10 @@
       <c r="B29" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="28" t="s">
+      <c r="C29" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D29" s="28" t="s">
+      <c r="D29" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="6">
@@ -3357,7 +3363,7 @@
         <v>87</v>
       </c>
       <c r="H29" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I29" s="6">
         <v>580</v>
@@ -3408,10 +3414,10 @@
       <c r="B30" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="28" t="s">
+      <c r="C30" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D30" s="28" t="s">
+      <c r="D30" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E30" s="6">
@@ -3424,7 +3430,7 @@
         <v>87</v>
       </c>
       <c r="H30" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I30" s="6">
         <v>580</v>
@@ -3475,10 +3481,10 @@
       <c r="B31" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C31" s="28" t="s">
+      <c r="C31" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D31" s="28" t="s">
+      <c r="D31" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E31" s="6">
@@ -3491,7 +3497,7 @@
         <v>87</v>
       </c>
       <c r="H31" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I31" s="6">
         <v>580</v>
@@ -3542,10 +3548,10 @@
       <c r="B32" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C32" s="28" t="s">
+      <c r="C32" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="28" t="s">
+      <c r="D32" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E32" s="6">
@@ -3558,7 +3564,7 @@
         <v>87</v>
       </c>
       <c r="H32" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I32" s="6">
         <v>580</v>
@@ -3609,10 +3615,10 @@
       <c r="B33" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="28" t="s">
+      <c r="C33" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D33" s="28" t="s">
+      <c r="D33" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E33" s="6">
@@ -3625,7 +3631,7 @@
         <v>87</v>
       </c>
       <c r="H33" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I33" s="6">
         <v>580</v>
@@ -3676,10 +3682,10 @@
       <c r="B34" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C34" s="28" t="s">
+      <c r="C34" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="28" t="s">
+      <c r="D34" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E34" s="6">
@@ -3692,7 +3698,7 @@
         <v>87</v>
       </c>
       <c r="H34" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I34" s="6">
         <v>580</v>
@@ -3743,10 +3749,10 @@
       <c r="B35" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="28" t="s">
+      <c r="C35" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D35" s="28" t="s">
+      <c r="D35" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E35" s="6">
@@ -3759,7 +3765,7 @@
         <v>87</v>
       </c>
       <c r="H35" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I35" s="6">
         <v>580</v>
@@ -3810,10 +3816,10 @@
       <c r="B36" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="28" t="s">
+      <c r="C36" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E36" s="6">
@@ -3826,7 +3832,7 @@
         <v>89</v>
       </c>
       <c r="H36" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I36" s="6">
         <v>680</v>
@@ -3877,10 +3883,10 @@
       <c r="B37" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="28" t="s">
+      <c r="C37" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D37" s="28" t="s">
+      <c r="D37" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E37" s="6">
@@ -3893,7 +3899,7 @@
         <v>89</v>
       </c>
       <c r="H37" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I37" s="6">
         <v>680</v>
@@ -3944,10 +3950,10 @@
       <c r="B38" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C38" s="28" t="s">
+      <c r="C38" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D38" s="28" t="s">
+      <c r="D38" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E38" s="6">
@@ -3960,7 +3966,7 @@
         <v>89</v>
       </c>
       <c r="H38" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I38" s="6">
         <v>680</v>
@@ -4011,10 +4017,10 @@
       <c r="B39" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C39" s="28" t="s">
+      <c r="C39" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="28" t="s">
+      <c r="D39" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E39" s="6">
@@ -4027,7 +4033,7 @@
         <v>89</v>
       </c>
       <c r="H39" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I39" s="6">
         <v>680</v>
@@ -4078,10 +4084,10 @@
       <c r="B40" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="28" t="s">
+      <c r="C40" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D40" s="28" t="s">
+      <c r="D40" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E40" s="6">
@@ -4094,7 +4100,7 @@
         <v>89</v>
       </c>
       <c r="H40" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I40" s="6">
         <v>680</v>
@@ -4145,10 +4151,10 @@
       <c r="B41" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C41" s="28" t="s">
+      <c r="C41" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="28" t="s">
+      <c r="D41" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E41" s="6">
@@ -4161,7 +4167,7 @@
         <v>89</v>
       </c>
       <c r="H41" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I41" s="6">
         <v>680</v>
@@ -4212,10 +4218,10 @@
       <c r="B42" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C42" s="28" t="s">
+      <c r="C42" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D42" s="28" t="s">
+      <c r="D42" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E42" s="6">
@@ -4228,7 +4234,7 @@
         <v>89</v>
       </c>
       <c r="H42" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I42" s="6">
         <v>680</v>
@@ -4279,10 +4285,10 @@
       <c r="B43" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="28" t="s">
+      <c r="C43" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D43" s="28" t="s">
+      <c r="D43" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E43" s="6">
@@ -4295,7 +4301,7 @@
         <v>89</v>
       </c>
       <c r="H43" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I43" s="6">
         <v>680</v>
@@ -4346,10 +4352,10 @@
       <c r="B44" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D44" s="28" t="s">
+      <c r="D44" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E44" s="6">
@@ -4362,7 +4368,7 @@
         <v>89</v>
       </c>
       <c r="H44" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I44" s="6">
         <v>680</v>
@@ -4413,10 +4419,10 @@
       <c r="B45" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C45" s="28" t="s">
+      <c r="C45" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D45" s="28" t="s">
+      <c r="D45" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E45" s="6">
@@ -4429,7 +4435,7 @@
         <v>89</v>
       </c>
       <c r="H45" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I45" s="6">
         <v>680</v>
@@ -4480,10 +4486,10 @@
       <c r="B46" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C46" s="28" t="s">
+      <c r="C46" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D46" s="28" t="s">
+      <c r="D46" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E46" s="6">
@@ -4496,7 +4502,7 @@
         <v>89</v>
       </c>
       <c r="H46" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I46" s="6">
         <v>680</v>
@@ -4547,10 +4553,10 @@
       <c r="B47" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="28" t="s">
+      <c r="C47" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="28" t="s">
+      <c r="D47" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E47" s="6">
@@ -4563,7 +4569,7 @@
         <v>89</v>
       </c>
       <c r="H47" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I47" s="6">
         <v>680</v>
@@ -4614,10 +4620,10 @@
       <c r="B48" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E48" s="6">
@@ -4630,7 +4636,7 @@
         <v>89</v>
       </c>
       <c r="H48" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I48" s="6">
         <v>680</v>
@@ -4681,10 +4687,10 @@
       <c r="B49" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C49" s="28" t="s">
+      <c r="C49" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D49" s="28" t="s">
+      <c r="D49" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E49" s="6">
@@ -4697,7 +4703,7 @@
         <v>89</v>
       </c>
       <c r="H49" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I49" s="6">
         <v>680</v>
@@ -4748,10 +4754,10 @@
       <c r="B50" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C50" s="28" t="s">
+      <c r="C50" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D50" s="28" t="s">
+      <c r="D50" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="6">
@@ -4764,7 +4770,7 @@
         <v>89</v>
       </c>
       <c r="H50" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I50" s="6">
         <v>680</v>
@@ -4815,10 +4821,10 @@
       <c r="B51" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="C51" s="28" t="s">
+      <c r="C51" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D51" s="28" t="s">
+      <c r="D51" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="6">
@@ -4831,7 +4837,7 @@
         <v>89</v>
       </c>
       <c r="H51" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I51" s="6">
         <v>680</v>
@@ -4882,10 +4888,10 @@
       <c r="B52" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C52" s="28" t="s">
+      <c r="C52" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D52" s="28" t="s">
+      <c r="D52" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E52" s="6">
@@ -4898,7 +4904,7 @@
         <v>90</v>
       </c>
       <c r="H52" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I52" s="6">
         <v>60</v>
@@ -4949,10 +4955,10 @@
       <c r="B53" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C53" s="28" t="s">
+      <c r="C53" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D53" s="28" t="s">
+      <c r="D53" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E53" s="6">
@@ -4965,7 +4971,7 @@
         <v>90</v>
       </c>
       <c r="H53" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I53" s="6">
         <v>60</v>
@@ -5016,10 +5022,10 @@
       <c r="B54" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D54" s="28" t="s">
+      <c r="D54" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E54" s="6">
@@ -5032,7 +5038,7 @@
         <v>90</v>
       </c>
       <c r="H54" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I54" s="6">
         <v>60</v>
@@ -5083,10 +5089,10 @@
       <c r="B55" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C55" s="28" t="s">
+      <c r="C55" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D55" s="28" t="s">
+      <c r="D55" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E55" s="6">
@@ -5099,7 +5105,7 @@
         <v>90</v>
       </c>
       <c r="H55" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I55" s="6">
         <v>60</v>
@@ -5150,10 +5156,10 @@
       <c r="B56" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C56" s="28" t="s">
+      <c r="C56" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="28" t="s">
+      <c r="D56" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E56" s="6">
@@ -5166,7 +5172,7 @@
         <v>90</v>
       </c>
       <c r="H56" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I56" s="6">
         <v>60</v>
@@ -5217,10 +5223,10 @@
       <c r="B57" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C57" s="28" t="s">
+      <c r="C57" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D57" s="28" t="s">
+      <c r="D57" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E57" s="6">
@@ -5233,7 +5239,7 @@
         <v>90</v>
       </c>
       <c r="H57" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I57" s="6">
         <v>60</v>
@@ -5284,10 +5290,10 @@
       <c r="B58" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C58" s="28" t="s">
+      <c r="C58" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="28" t="s">
+      <c r="D58" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E58" s="6">
@@ -5300,7 +5306,7 @@
         <v>90</v>
       </c>
       <c r="H58" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I58" s="6">
         <v>60</v>
@@ -5351,10 +5357,10 @@
       <c r="B59" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C59" s="28" t="s">
+      <c r="C59" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D59" s="28" t="s">
+      <c r="D59" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E59" s="6">
@@ -5367,7 +5373,7 @@
         <v>90</v>
       </c>
       <c r="H59" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I59" s="6">
         <v>60</v>
@@ -5418,10 +5424,10 @@
       <c r="B60" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C60" s="28" t="s">
+      <c r="C60" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="28" t="s">
+      <c r="D60" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E60" s="6">
@@ -5434,10 +5440,10 @@
         <v>91</v>
       </c>
       <c r="H60" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I60" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J60" s="6">
         <v>0.05</v>
@@ -5485,10 +5491,10 @@
       <c r="B61" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C61" s="28" t="s">
+      <c r="C61" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D61" s="28" t="s">
+      <c r="D61" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E61" s="6">
@@ -5501,10 +5507,10 @@
         <v>91</v>
       </c>
       <c r="H61" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I61" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J61" s="6">
         <v>0.05</v>
@@ -5552,10 +5558,10 @@
       <c r="B62" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C62" s="28" t="s">
+      <c r="C62" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D62" s="28" t="s">
+      <c r="D62" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E62" s="6">
@@ -5568,10 +5574,10 @@
         <v>91</v>
       </c>
       <c r="H62" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I62" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J62" s="6">
         <v>0.05</v>
@@ -5619,10 +5625,10 @@
       <c r="B63" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C63" s="28" t="s">
+      <c r="C63" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E63" s="6">
@@ -5635,10 +5641,10 @@
         <v>91</v>
       </c>
       <c r="H63" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I63" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J63" s="6">
         <v>0.05</v>
@@ -5686,10 +5692,10 @@
       <c r="B64" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C64" s="28" t="s">
+      <c r="C64" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D64" s="28" t="s">
+      <c r="D64" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E64" s="6">
@@ -5702,10 +5708,10 @@
         <v>91</v>
       </c>
       <c r="H64" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I64" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J64" s="6">
         <v>0.05</v>
@@ -5753,10 +5759,10 @@
       <c r="B65" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C65" s="28" t="s">
+      <c r="C65" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D65" s="28" t="s">
+      <c r="D65" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E65" s="6">
@@ -5769,10 +5775,10 @@
         <v>91</v>
       </c>
       <c r="H65" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I65" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J65" s="6">
         <v>0.05</v>
@@ -5820,10 +5826,10 @@
       <c r="B66" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C66" s="28" t="s">
+      <c r="C66" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D66" s="28" t="s">
+      <c r="D66" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E66" s="6">
@@ -5836,10 +5842,10 @@
         <v>91</v>
       </c>
       <c r="H66" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I66" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J66" s="6">
         <v>0.05</v>
@@ -5887,10 +5893,10 @@
       <c r="B67" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C67" s="28" t="s">
+      <c r="C67" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D67" s="28" t="s">
+      <c r="D67" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E67" s="6">
@@ -5903,10 +5909,10 @@
         <v>91</v>
       </c>
       <c r="H67" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I67" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="J67" s="6">
         <v>0.05</v>
@@ -5954,10 +5960,10 @@
       <c r="B68" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="C68" s="28" t="s">
+      <c r="C68" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D68" s="28" t="s">
+      <c r="D68" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E68" s="6">
@@ -5970,10 +5976,10 @@
         <v>92</v>
       </c>
       <c r="H68" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I68" s="6">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="J68" s="6">
         <v>0.1</v>
@@ -6021,10 +6027,10 @@
       <c r="B69" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C69" s="28" t="s">
+      <c r="C69" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D69" s="28" t="s">
+      <c r="D69" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E69" s="6">
@@ -6037,7 +6043,7 @@
         <v>93</v>
       </c>
       <c r="H69" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I69" s="6">
         <v>680</v>
@@ -6088,10 +6094,10 @@
       <c r="B70" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C70" s="28" t="s">
+      <c r="C70" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D70" s="28" t="s">
+      <c r="D70" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E70" s="6">
@@ -6104,7 +6110,7 @@
         <v>94</v>
       </c>
       <c r="H70" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I70" s="6">
         <v>60</v>
@@ -6155,10 +6161,10 @@
       <c r="B71" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C71" s="28" t="s">
+      <c r="C71" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D71" s="28" t="s">
+      <c r="D71" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E71" s="6">
@@ -6171,7 +6177,7 @@
         <v>95</v>
       </c>
       <c r="H71" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I71" s="6">
         <v>60</v>
@@ -6222,10 +6228,10 @@
       <c r="B72" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C72" s="28" t="s">
+      <c r="C72" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D72" s="28" t="s">
+      <c r="D72" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E72" s="6">
@@ -6238,10 +6244,10 @@
         <v>96</v>
       </c>
       <c r="H72" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I72" s="6">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="J72" s="6">
         <v>0.4</v>
@@ -6289,10 +6295,10 @@
       <c r="B73" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="C73" s="28" t="s">
+      <c r="C73" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D73" s="28" t="s">
+      <c r="D73" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E73" s="6">
@@ -6305,10 +6311,10 @@
         <v>96</v>
       </c>
       <c r="H73" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I73" s="6">
-        <v>0</v>
+        <v>1680</v>
       </c>
       <c r="J73" s="6">
         <v>0.4</v>
@@ -6356,10 +6362,10 @@
       <c r="B74" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C74" s="28" t="s">
+      <c r="C74" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D74" s="28" t="s">
+      <c r="D74" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E74" s="6">
@@ -6372,10 +6378,10 @@
         <v>97</v>
       </c>
       <c r="H74" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I74" s="6">
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="J74" s="6">
         <v>0.1</v>
@@ -6423,10 +6429,10 @@
       <c r="B75" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="C75" s="28" t="s">
+      <c r="C75" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D75" s="28" t="s">
+      <c r="D75" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E75" s="6">
@@ -6439,10 +6445,10 @@
         <v>98</v>
       </c>
       <c r="H75" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I75" s="6">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="J75" s="6">
         <v>0.1</v>
@@ -6490,10 +6496,10 @@
       <c r="B76" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C76" s="28" t="s">
+      <c r="C76" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D76" s="28" t="s">
+      <c r="D76" s="24" t="s">
         <v>38</v>
       </c>
       <c r="E76" s="6">
@@ -6506,10 +6512,10 @@
         <v>99</v>
       </c>
       <c r="H76" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I76" s="6">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J76" s="6">
         <v>0.1</v>
@@ -6557,10 +6563,10 @@
       <c r="B77" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="C77" s="28" t="s">
+      <c r="C77" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D77" s="28" t="s">
+      <c r="D77" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E77" s="6">
@@ -6573,10 +6579,10 @@
         <v>100</v>
       </c>
       <c r="H77" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I77" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J77" s="6">
         <v>0.1</v>
@@ -6624,10 +6630,10 @@
       <c r="B78" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="C78" s="28" t="s">
+      <c r="C78" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D78" s="28" t="s">
+      <c r="D78" s="24" t="s">
         <v>40</v>
       </c>
       <c r="E78" s="6">
@@ -6640,10 +6646,10 @@
         <v>100</v>
       </c>
       <c r="H78" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I78" s="6">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J78" s="6">
         <v>0.1</v>
@@ -6691,10 +6697,10 @@
       <c r="B79" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C79" s="28" t="s">
+      <c r="C79" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D79" s="28" t="s">
+      <c r="D79" s="24" t="s">
         <v>33</v>
       </c>
       <c r="E79" s="6">
@@ -6707,10 +6713,10 @@
         <v>101</v>
       </c>
       <c r="H79" s="17" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="I79" s="6">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="J79" s="6">
         <v>0.1</v>
@@ -6754,8 +6760,8 @@
     <row r="80" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="6"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
       <c r="E80" s="6"/>
       <c r="F80" s="17"/>
       <c r="G80" s="17"/>
@@ -6781,8 +6787,8 @@
     <row r="81" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="6"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
       <c r="E81" s="6"/>
       <c r="F81" s="17"/>
       <c r="G81" s="17"/>
@@ -6808,8 +6814,8 @@
     <row r="82" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="6"/>
-      <c r="C82" s="28"/>
-      <c r="D82" s="28"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
       <c r="E82" s="6"/>
       <c r="F82" s="17"/>
       <c r="G82" s="17"/>
@@ -6835,8 +6841,8 @@
     <row r="83" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="6"/>
-      <c r="C83" s="28"/>
-      <c r="D83" s="28"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
       <c r="E83" s="6"/>
       <c r="F83" s="17"/>
       <c r="G83" s="17"/>
@@ -6862,8 +6868,8 @@
     <row r="84" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="28"/>
-      <c r="D84" s="28"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
       <c r="E84" s="6"/>
       <c r="F84" s="17"/>
       <c r="G84" s="17"/>
@@ -6889,8 +6895,8 @@
     <row r="85" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="6"/>
-      <c r="C85" s="28"/>
-      <c r="D85" s="28"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
       <c r="E85" s="6"/>
       <c r="F85" s="17"/>
       <c r="G85" s="17"/>
@@ -6916,8 +6922,8 @@
     <row r="86" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A86" s="6"/>
       <c r="B86" s="6"/>
-      <c r="C86" s="28"/>
-      <c r="D86" s="28"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
       <c r="E86" s="6"/>
       <c r="F86" s="17"/>
       <c r="G86" s="17"/>
@@ -6943,8 +6949,8 @@
     <row r="87" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A87" s="6"/>
       <c r="B87" s="6"/>
-      <c r="C87" s="28"/>
-      <c r="D87" s="28"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
       <c r="E87" s="6"/>
       <c r="F87" s="17"/>
       <c r="G87" s="17"/>
@@ -6970,8 +6976,8 @@
     <row r="88" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="6"/>
       <c r="B88" s="6"/>
-      <c r="C88" s="28"/>
-      <c r="D88" s="28"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
       <c r="E88" s="6"/>
       <c r="F88" s="17"/>
       <c r="G88" s="17"/>
@@ -6997,8 +7003,8 @@
     <row r="89" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A89" s="6"/>
       <c r="B89" s="6"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="28"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
       <c r="E89" s="6"/>
       <c r="F89" s="17"/>
       <c r="G89" s="17"/>
@@ -7024,8 +7030,8 @@
     <row r="90" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A90" s="6"/>
       <c r="B90" s="6"/>
-      <c r="C90" s="28"/>
-      <c r="D90" s="28"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
       <c r="E90" s="6"/>
       <c r="F90" s="17"/>
       <c r="G90" s="17"/>
@@ -7051,8 +7057,8 @@
     <row r="91" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A91" s="6"/>
       <c r="B91" s="6"/>
-      <c r="C91" s="28"/>
-      <c r="D91" s="28"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
       <c r="E91" s="6"/>
       <c r="F91" s="17"/>
       <c r="G91" s="17"/>
@@ -7078,8 +7084,8 @@
     <row r="92" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A92" s="6"/>
       <c r="B92" s="6"/>
-      <c r="C92" s="28"/>
-      <c r="D92" s="28"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
       <c r="E92" s="6"/>
       <c r="F92" s="17"/>
       <c r="G92" s="17"/>
@@ -7105,8 +7111,8 @@
     <row r="93" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A93" s="6"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="28"/>
-      <c r="D93" s="28"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
       <c r="E93" s="6"/>
       <c r="F93" s="17"/>
       <c r="G93" s="17"/>
@@ -7132,8 +7138,8 @@
     <row r="94" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="6"/>
       <c r="B94" s="6"/>
-      <c r="C94" s="28"/>
-      <c r="D94" s="28"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
       <c r="E94" s="6"/>
       <c r="F94" s="17"/>
       <c r="G94" s="17"/>
@@ -7159,8 +7165,8 @@
     <row r="95" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A95" s="6"/>
       <c r="B95" s="6"/>
-      <c r="C95" s="28"/>
-      <c r="D95" s="28"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
       <c r="E95" s="6"/>
       <c r="F95" s="17"/>
       <c r="G95" s="17"/>
@@ -7186,8 +7192,8 @@
     <row r="96" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A96" s="6"/>
       <c r="B96" s="6"/>
-      <c r="C96" s="28"/>
-      <c r="D96" s="28"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
       <c r="E96" s="6"/>
       <c r="F96" s="17"/>
       <c r="G96" s="17"/>
@@ -7213,8 +7219,8 @@
     <row r="97" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A97" s="6"/>
       <c r="B97" s="6"/>
-      <c r="C97" s="28"/>
-      <c r="D97" s="28"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
       <c r="E97" s="6"/>
       <c r="F97" s="17"/>
       <c r="G97" s="17"/>
@@ -7240,8 +7246,8 @@
     <row r="98" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A98" s="6"/>
       <c r="B98" s="6"/>
-      <c r="C98" s="28"/>
-      <c r="D98" s="28"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
       <c r="E98" s="6"/>
       <c r="F98" s="17"/>
       <c r="G98" s="17"/>
@@ -7267,8 +7273,8 @@
     <row r="99" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A99" s="6"/>
       <c r="B99" s="6"/>
-      <c r="C99" s="28"/>
-      <c r="D99" s="28"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
       <c r="E99" s="6"/>
       <c r="F99" s="17"/>
       <c r="G99" s="17"/>
@@ -7294,8 +7300,8 @@
     <row r="100" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A100" s="6"/>
       <c r="B100" s="6"/>
-      <c r="C100" s="28"/>
-      <c r="D100" s="28"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
       <c r="E100" s="6"/>
       <c r="F100" s="17"/>
       <c r="G100" s="17"/>
@@ -7321,8 +7327,8 @@
     <row r="101" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A101" s="6"/>
       <c r="B101" s="6"/>
-      <c r="C101" s="28"/>
-      <c r="D101" s="28"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
       <c r="E101" s="6"/>
       <c r="F101" s="17"/>
       <c r="G101" s="17"/>
@@ -7348,8 +7354,8 @@
     <row r="102" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A102" s="6"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="28"/>
-      <c r="D102" s="28"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
       <c r="E102" s="6"/>
       <c r="F102" s="17"/>
       <c r="G102" s="17"/>
@@ -7375,8 +7381,8 @@
     <row r="103" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A103" s="6"/>
       <c r="B103" s="6"/>
-      <c r="C103" s="28"/>
-      <c r="D103" s="28"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
       <c r="E103" s="6"/>
       <c r="F103" s="17"/>
       <c r="G103" s="17"/>
@@ -7402,8 +7408,8 @@
     <row r="104" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A104" s="6"/>
       <c r="B104" s="6"/>
-      <c r="C104" s="28"/>
-      <c r="D104" s="28"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
       <c r="E104" s="6"/>
       <c r="F104" s="17"/>
       <c r="G104" s="17"/>
@@ -7429,8 +7435,8 @@
     <row r="105" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A105" s="6"/>
       <c r="B105" s="6"/>
-      <c r="C105" s="28"/>
-      <c r="D105" s="28"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
       <c r="E105" s="6"/>
       <c r="F105" s="17"/>
       <c r="G105" s="17"/>
@@ -7456,8 +7462,8 @@
     <row r="106" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A106" s="6"/>
       <c r="B106" s="6"/>
-      <c r="C106" s="28"/>
-      <c r="D106" s="28"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
       <c r="E106" s="6"/>
       <c r="F106" s="17"/>
       <c r="G106" s="17"/>
@@ -7483,8 +7489,8 @@
     <row r="107" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A107" s="6"/>
       <c r="B107" s="6"/>
-      <c r="C107" s="28"/>
-      <c r="D107" s="28"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
       <c r="E107" s="6"/>
       <c r="F107" s="17"/>
       <c r="G107" s="17"/>
@@ -7510,8 +7516,8 @@
     <row r="108" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A108" s="6"/>
       <c r="B108" s="6"/>
-      <c r="C108" s="28"/>
-      <c r="D108" s="28"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
       <c r="E108" s="6"/>
       <c r="F108" s="17"/>
       <c r="G108" s="17"/>
@@ -7537,8 +7543,8 @@
     <row r="109" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A109" s="6"/>
       <c r="B109" s="6"/>
-      <c r="C109" s="28"/>
-      <c r="D109" s="28"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
       <c r="E109" s="6"/>
       <c r="F109" s="17"/>
       <c r="G109" s="17"/>
@@ -7564,8 +7570,8 @@
     <row r="110" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A110" s="6"/>
       <c r="B110" s="6"/>
-      <c r="C110" s="28"/>
-      <c r="D110" s="28"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
       <c r="E110" s="6"/>
       <c r="F110" s="17"/>
       <c r="G110" s="17"/>
@@ -7591,8 +7597,8 @@
     <row r="111" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A111" s="6"/>
       <c r="B111" s="6"/>
-      <c r="C111" s="28"/>
-      <c r="D111" s="28"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
       <c r="E111" s="6"/>
       <c r="F111" s="17"/>
       <c r="G111" s="17"/>
@@ -7618,8 +7624,8 @@
     <row r="112" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A112" s="6"/>
       <c r="B112" s="6"/>
-      <c r="C112" s="28"/>
-      <c r="D112" s="28"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
       <c r="E112" s="6"/>
       <c r="F112" s="17"/>
       <c r="G112" s="17"/>
@@ -7645,8 +7651,8 @@
     <row r="113" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A113" s="6"/>
       <c r="B113" s="6"/>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
       <c r="E113" s="6"/>
       <c r="F113" s="17"/>
       <c r="G113" s="17"/>
@@ -7672,8 +7678,8 @@
     <row r="114" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A114" s="6"/>
       <c r="B114" s="6"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
       <c r="E114" s="6"/>
       <c r="F114" s="17"/>
       <c r="G114" s="17"/>
@@ -7699,8 +7705,8 @@
     <row r="115" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A115" s="6"/>
       <c r="B115" s="6"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
       <c r="E115" s="6"/>
       <c r="F115" s="17"/>
       <c r="G115" s="17"/>
@@ -7726,8 +7732,8 @@
     <row r="116" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A116" s="6"/>
       <c r="B116" s="6"/>
-      <c r="C116" s="28"/>
-      <c r="D116" s="28"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
       <c r="E116" s="6"/>
       <c r="F116" s="17"/>
       <c r="G116" s="17"/>
@@ -7753,8 +7759,8 @@
     <row r="117" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A117" s="6"/>
       <c r="B117" s="6"/>
-      <c r="C117" s="28"/>
-      <c r="D117" s="28"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
       <c r="E117" s="6"/>
       <c r="F117" s="17"/>
       <c r="G117" s="17"/>
@@ -7780,8 +7786,8 @@
     <row r="118" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A118" s="6"/>
       <c r="B118" s="6"/>
-      <c r="C118" s="28"/>
-      <c r="D118" s="28"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
       <c r="E118" s="6"/>
       <c r="F118" s="17"/>
       <c r="G118" s="17"/>
@@ -7807,8 +7813,8 @@
     <row r="119" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A119" s="6"/>
       <c r="B119" s="6"/>
-      <c r="C119" s="28"/>
-      <c r="D119" s="28"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
       <c r="E119" s="6"/>
       <c r="F119" s="17"/>
       <c r="G119" s="17"/>
@@ -7834,8 +7840,8 @@
     <row r="120" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A120" s="6"/>
       <c r="B120" s="6"/>
-      <c r="C120" s="28"/>
-      <c r="D120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
       <c r="E120" s="6"/>
       <c r="F120" s="17"/>
       <c r="G120" s="17"/>
@@ -7861,8 +7867,8 @@
     <row r="121" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A121" s="6"/>
       <c r="B121" s="6"/>
-      <c r="C121" s="28"/>
-      <c r="D121" s="28"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
       <c r="E121" s="6"/>
       <c r="F121" s="17"/>
       <c r="G121" s="17"/>
@@ -7888,8 +7894,8 @@
     <row r="122" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A122" s="6"/>
       <c r="B122" s="6"/>
-      <c r="C122" s="28"/>
-      <c r="D122" s="28"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
       <c r="E122" s="6"/>
       <c r="F122" s="17"/>
       <c r="G122" s="17"/>
@@ -7915,8 +7921,8 @@
     <row r="123" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A123" s="6"/>
       <c r="B123" s="6"/>
-      <c r="C123" s="28"/>
-      <c r="D123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
       <c r="E123" s="6"/>
       <c r="F123" s="17"/>
       <c r="G123" s="17"/>
@@ -7942,8 +7948,8 @@
     <row r="124" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A124" s="6"/>
       <c r="B124" s="6"/>
-      <c r="C124" s="28"/>
-      <c r="D124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
       <c r="E124" s="6"/>
       <c r="F124" s="17"/>
       <c r="G124" s="17"/>
@@ -7969,8 +7975,8 @@
     <row r="125" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A125" s="6"/>
       <c r="B125" s="6"/>
-      <c r="C125" s="28"/>
-      <c r="D125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
       <c r="E125" s="6"/>
       <c r="F125" s="17"/>
       <c r="G125" s="17"/>
@@ -7996,8 +8002,8 @@
     <row r="126" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A126" s="6"/>
       <c r="B126" s="6"/>
-      <c r="C126" s="28"/>
-      <c r="D126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
       <c r="E126" s="6"/>
       <c r="F126" s="17"/>
       <c r="G126" s="17"/>
@@ -8023,8 +8029,8 @@
     <row r="127" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A127" s="6"/>
       <c r="B127" s="6"/>
-      <c r="C127" s="28"/>
-      <c r="D127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
       <c r="E127" s="6"/>
       <c r="F127" s="17"/>
       <c r="G127" s="17"/>
@@ -8050,8 +8056,8 @@
     <row r="128" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A128" s="6"/>
       <c r="B128" s="6"/>
-      <c r="C128" s="28"/>
-      <c r="D128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
       <c r="E128" s="6"/>
       <c r="F128" s="17"/>
       <c r="G128" s="17"/>
@@ -8077,8 +8083,8 @@
     <row r="129" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A129" s="6"/>
       <c r="B129" s="6"/>
-      <c r="C129" s="28"/>
-      <c r="D129" s="28"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
       <c r="E129" s="6"/>
       <c r="F129" s="17"/>
       <c r="G129" s="17"/>
@@ -8104,8 +8110,8 @@
     <row r="130" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A130" s="6"/>
       <c r="B130" s="6"/>
-      <c r="C130" s="28"/>
-      <c r="D130" s="28"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
       <c r="E130" s="6"/>
       <c r="F130" s="17"/>
       <c r="G130" s="17"/>
@@ -8131,8 +8137,8 @@
     <row r="131" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A131" s="6"/>
       <c r="B131" s="6"/>
-      <c r="C131" s="28"/>
-      <c r="D131" s="28"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
       <c r="E131" s="6"/>
       <c r="F131" s="17"/>
       <c r="G131" s="17"/>
@@ -8158,8 +8164,8 @@
     <row r="132" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A132" s="6"/>
       <c r="B132" s="6"/>
-      <c r="C132" s="28"/>
-      <c r="D132" s="28"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
       <c r="E132" s="6"/>
       <c r="F132" s="17"/>
       <c r="G132" s="17"/>
@@ -8185,8 +8191,8 @@
     <row r="133" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A133" s="6"/>
       <c r="B133" s="6"/>
-      <c r="C133" s="28"/>
-      <c r="D133" s="28"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
       <c r="E133" s="6"/>
       <c r="F133" s="17"/>
       <c r="G133" s="17"/>
@@ -8212,8 +8218,8 @@
     <row r="134" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A134" s="6"/>
       <c r="B134" s="6"/>
-      <c r="C134" s="28"/>
-      <c r="D134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24"/>
       <c r="E134" s="6"/>
       <c r="F134" s="17"/>
       <c r="G134" s="17"/>
@@ -8239,8 +8245,8 @@
     <row r="135" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A135" s="6"/>
       <c r="B135" s="6"/>
-      <c r="C135" s="28"/>
-      <c r="D135" s="28"/>
+      <c r="C135" s="24"/>
+      <c r="D135" s="24"/>
       <c r="E135" s="6"/>
       <c r="F135" s="17"/>
       <c r="G135" s="17"/>
@@ -8266,8 +8272,8 @@
     <row r="136" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A136" s="6"/>
       <c r="B136" s="6"/>
-      <c r="C136" s="28"/>
-      <c r="D136" s="28"/>
+      <c r="C136" s="24"/>
+      <c r="D136" s="24"/>
       <c r="E136" s="6"/>
       <c r="F136" s="17"/>
       <c r="G136" s="17"/>
@@ -8293,8 +8299,8 @@
     <row r="137" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A137" s="6"/>
       <c r="B137" s="6"/>
-      <c r="C137" s="28"/>
-      <c r="D137" s="28"/>
+      <c r="C137" s="24"/>
+      <c r="D137" s="24"/>
       <c r="E137" s="6"/>
       <c r="F137" s="17"/>
       <c r="G137" s="17"/>
@@ -8320,8 +8326,8 @@
     <row r="138" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A138" s="6"/>
       <c r="B138" s="6"/>
-      <c r="C138" s="28"/>
-      <c r="D138" s="28"/>
+      <c r="C138" s="24"/>
+      <c r="D138" s="24"/>
       <c r="E138" s="6"/>
       <c r="F138" s="17"/>
       <c r="G138" s="17"/>
@@ -8347,8 +8353,8 @@
     <row r="139" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A139" s="6"/>
       <c r="B139" s="6"/>
-      <c r="C139" s="28"/>
-      <c r="D139" s="28"/>
+      <c r="C139" s="24"/>
+      <c r="D139" s="24"/>
       <c r="E139" s="6"/>
       <c r="F139" s="17"/>
       <c r="G139" s="17"/>
@@ -8374,8 +8380,8 @@
     <row r="140" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A140" s="6"/>
       <c r="B140" s="6"/>
-      <c r="C140" s="28"/>
-      <c r="D140" s="28"/>
+      <c r="C140" s="24"/>
+      <c r="D140" s="24"/>
       <c r="E140" s="6"/>
       <c r="F140" s="17"/>
       <c r="G140" s="17"/>
@@ -8401,8 +8407,8 @@
     <row r="141" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A141" s="6"/>
       <c r="B141" s="6"/>
-      <c r="C141" s="28"/>
-      <c r="D141" s="28"/>
+      <c r="C141" s="24"/>
+      <c r="D141" s="24"/>
       <c r="E141" s="6"/>
       <c r="F141" s="17"/>
       <c r="G141" s="17"/>
@@ -8428,8 +8434,8 @@
     <row r="142" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A142" s="6"/>
       <c r="B142" s="6"/>
-      <c r="C142" s="28"/>
-      <c r="D142" s="28"/>
+      <c r="C142" s="24"/>
+      <c r="D142" s="24"/>
       <c r="E142" s="6"/>
       <c r="F142" s="17"/>
       <c r="G142" s="17"/>
@@ -8455,8 +8461,8 @@
     <row r="143" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A143" s="6"/>
       <c r="B143" s="6"/>
-      <c r="C143" s="28"/>
-      <c r="D143" s="28"/>
+      <c r="C143" s="24"/>
+      <c r="D143" s="24"/>
       <c r="E143" s="6"/>
       <c r="F143" s="17"/>
       <c r="G143" s="17"/>
@@ -8482,8 +8488,8 @@
     <row r="144" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A144" s="6"/>
       <c r="B144" s="6"/>
-      <c r="C144" s="28"/>
-      <c r="D144" s="28"/>
+      <c r="C144" s="24"/>
+      <c r="D144" s="24"/>
       <c r="E144" s="6"/>
       <c r="F144" s="17"/>
       <c r="G144" s="17"/>
@@ -8509,8 +8515,8 @@
     <row r="145" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A145" s="6"/>
       <c r="B145" s="6"/>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
+      <c r="C145" s="24"/>
+      <c r="D145" s="24"/>
       <c r="E145" s="6"/>
       <c r="F145" s="17"/>
       <c r="G145" s="17"/>
@@ -8536,8 +8542,8 @@
     <row r="146" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A146" s="6"/>
       <c r="B146" s="6"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
+      <c r="C146" s="24"/>
+      <c r="D146" s="24"/>
       <c r="E146" s="6"/>
       <c r="F146" s="17"/>
       <c r="G146" s="17"/>
@@ -8563,8 +8569,8 @@
     <row r="147" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A147" s="6"/>
       <c r="B147" s="6"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
+      <c r="C147" s="24"/>
+      <c r="D147" s="24"/>
       <c r="E147" s="6"/>
       <c r="F147" s="17"/>
       <c r="G147" s="17"/>
@@ -8590,8 +8596,8 @@
     <row r="148" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A148" s="6"/>
       <c r="B148" s="6"/>
-      <c r="C148" s="28"/>
-      <c r="D148" s="28"/>
+      <c r="C148" s="24"/>
+      <c r="D148" s="24"/>
       <c r="E148" s="6"/>
       <c r="F148" s="17"/>
       <c r="G148" s="17"/>
@@ -8617,8 +8623,8 @@
     <row r="149" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A149" s="6"/>
       <c r="B149" s="6"/>
-      <c r="C149" s="28"/>
-      <c r="D149" s="28"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
       <c r="E149" s="6"/>
       <c r="F149" s="17"/>
       <c r="G149" s="17"/>
@@ -8644,8 +8650,8 @@
     <row r="150" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A150" s="6"/>
       <c r="B150" s="6"/>
-      <c r="C150" s="28"/>
-      <c r="D150" s="28"/>
+      <c r="C150" s="24"/>
+      <c r="D150" s="24"/>
       <c r="E150" s="6"/>
       <c r="F150" s="17"/>
       <c r="G150" s="17"/>
@@ -8671,8 +8677,8 @@
     <row r="151" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A151" s="6"/>
       <c r="B151" s="6"/>
-      <c r="C151" s="28"/>
-      <c r="D151" s="28"/>
+      <c r="C151" s="24"/>
+      <c r="D151" s="24"/>
       <c r="E151" s="6"/>
       <c r="F151" s="17"/>
       <c r="G151" s="17"/>
@@ -8698,8 +8704,8 @@
     <row r="152" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A152" s="6"/>
       <c r="B152" s="6"/>
-      <c r="C152" s="28"/>
-      <c r="D152" s="28"/>
+      <c r="C152" s="24"/>
+      <c r="D152" s="24"/>
       <c r="E152" s="6"/>
       <c r="F152" s="17"/>
       <c r="G152" s="17"/>
@@ -8725,8 +8731,8 @@
     <row r="153" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A153" s="6"/>
       <c r="B153" s="6"/>
-      <c r="C153" s="28"/>
-      <c r="D153" s="28"/>
+      <c r="C153" s="24"/>
+      <c r="D153" s="24"/>
       <c r="E153" s="6"/>
       <c r="F153" s="17"/>
       <c r="G153" s="17"/>
@@ -8752,8 +8758,8 @@
     <row r="154" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A154" s="6"/>
       <c r="B154" s="6"/>
-      <c r="C154" s="28"/>
-      <c r="D154" s="28"/>
+      <c r="C154" s="24"/>
+      <c r="D154" s="24"/>
       <c r="E154" s="6"/>
       <c r="F154" s="17"/>
       <c r="G154" s="17"/>
@@ -8779,8 +8785,8 @@
     <row r="155" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A155" s="6"/>
       <c r="B155" s="6"/>
-      <c r="C155" s="28"/>
-      <c r="D155" s="28"/>
+      <c r="C155" s="24"/>
+      <c r="D155" s="24"/>
       <c r="E155" s="6"/>
       <c r="F155" s="17"/>
       <c r="G155" s="17"/>
@@ -8806,8 +8812,8 @@
     <row r="156" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A156" s="6"/>
       <c r="B156" s="6"/>
-      <c r="C156" s="28"/>
-      <c r="D156" s="28"/>
+      <c r="C156" s="24"/>
+      <c r="D156" s="24"/>
       <c r="E156" s="6"/>
       <c r="F156" s="17"/>
       <c r="G156" s="17"/>
@@ -8833,8 +8839,8 @@
     <row r="157" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A157" s="6"/>
       <c r="B157" s="6"/>
-      <c r="C157" s="28"/>
-      <c r="D157" s="28"/>
+      <c r="C157" s="24"/>
+      <c r="D157" s="24"/>
       <c r="E157" s="6"/>
       <c r="F157" s="17"/>
       <c r="G157" s="17"/>
@@ -8860,8 +8866,8 @@
     <row r="158" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A158" s="6"/>
       <c r="B158" s="6"/>
-      <c r="C158" s="28"/>
-      <c r="D158" s="28"/>
+      <c r="C158" s="24"/>
+      <c r="D158" s="24"/>
       <c r="E158" s="6"/>
       <c r="F158" s="17"/>
       <c r="G158" s="17"/>
@@ -8887,8 +8893,8 @@
     <row r="159" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A159" s="6"/>
       <c r="B159" s="6"/>
-      <c r="C159" s="28"/>
-      <c r="D159" s="28"/>
+      <c r="C159" s="24"/>
+      <c r="D159" s="24"/>
       <c r="E159" s="6"/>
       <c r="F159" s="17"/>
       <c r="G159" s="17"/>
@@ -8914,8 +8920,8 @@
     <row r="160" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A160" s="6"/>
       <c r="B160" s="6"/>
-      <c r="C160" s="28"/>
-      <c r="D160" s="28"/>
+      <c r="C160" s="24"/>
+      <c r="D160" s="24"/>
       <c r="E160" s="6"/>
       <c r="F160" s="17"/>
       <c r="G160" s="17"/>
@@ -8941,8 +8947,8 @@
     <row r="161" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A161" s="6"/>
       <c r="B161" s="6"/>
-      <c r="C161" s="28"/>
-      <c r="D161" s="28"/>
+      <c r="C161" s="24"/>
+      <c r="D161" s="24"/>
       <c r="E161" s="6"/>
       <c r="F161" s="17"/>
       <c r="G161" s="17"/>
@@ -8968,8 +8974,8 @@
     <row r="162" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A162" s="6"/>
       <c r="B162" s="6"/>
-      <c r="C162" s="28"/>
-      <c r="D162" s="28"/>
+      <c r="C162" s="24"/>
+      <c r="D162" s="24"/>
       <c r="E162" s="6"/>
       <c r="F162" s="17"/>
       <c r="G162" s="17"/>
@@ -8995,8 +9001,8 @@
     <row r="163" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A163" s="6"/>
       <c r="B163" s="6"/>
-      <c r="C163" s="28"/>
-      <c r="D163" s="28"/>
+      <c r="C163" s="24"/>
+      <c r="D163" s="24"/>
       <c r="E163" s="6"/>
       <c r="F163" s="17"/>
       <c r="G163" s="17"/>
@@ -9022,8 +9028,8 @@
     <row r="164" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A164" s="6"/>
       <c r="B164" s="6"/>
-      <c r="C164" s="28"/>
-      <c r="D164" s="28"/>
+      <c r="C164" s="24"/>
+      <c r="D164" s="24"/>
       <c r="E164" s="6"/>
       <c r="F164" s="17"/>
       <c r="G164" s="17"/>
@@ -9049,8 +9055,8 @@
     <row r="165" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A165" s="6"/>
       <c r="B165" s="6"/>
-      <c r="C165" s="28"/>
-      <c r="D165" s="28"/>
+      <c r="C165" s="24"/>
+      <c r="D165" s="24"/>
       <c r="E165" s="6"/>
       <c r="F165" s="17"/>
       <c r="G165" s="17"/>
@@ -9076,8 +9082,8 @@
     <row r="166" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A166" s="6"/>
       <c r="B166" s="6"/>
-      <c r="C166" s="28"/>
-      <c r="D166" s="28"/>
+      <c r="C166" s="24"/>
+      <c r="D166" s="24"/>
       <c r="E166" s="6"/>
       <c r="F166" s="17"/>
       <c r="G166" s="17"/>
@@ -9103,8 +9109,8 @@
     <row r="167" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A167" s="6"/>
       <c r="B167" s="6"/>
-      <c r="C167" s="28"/>
-      <c r="D167" s="28"/>
+      <c r="C167" s="24"/>
+      <c r="D167" s="24"/>
       <c r="E167" s="6"/>
       <c r="F167" s="17"/>
       <c r="G167" s="17"/>
@@ -9130,8 +9136,8 @@
     <row r="168" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A168" s="6"/>
       <c r="B168" s="6"/>
-      <c r="C168" s="28"/>
-      <c r="D168" s="28"/>
+      <c r="C168" s="24"/>
+      <c r="D168" s="24"/>
       <c r="E168" s="6"/>
       <c r="F168" s="17"/>
       <c r="G168" s="17"/>
@@ -9157,8 +9163,8 @@
     <row r="169" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A169" s="6"/>
       <c r="B169" s="6"/>
-      <c r="C169" s="28"/>
-      <c r="D169" s="28"/>
+      <c r="C169" s="24"/>
+      <c r="D169" s="24"/>
       <c r="E169" s="6"/>
       <c r="F169" s="17"/>
       <c r="G169" s="17"/>
@@ -9184,8 +9190,8 @@
     <row r="170" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A170" s="6"/>
       <c r="B170" s="6"/>
-      <c r="C170" s="28"/>
-      <c r="D170" s="28"/>
+      <c r="C170" s="24"/>
+      <c r="D170" s="24"/>
       <c r="E170" s="6"/>
       <c r="F170" s="17"/>
       <c r="G170" s="17"/>
@@ -9211,8 +9217,8 @@
     <row r="171" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A171" s="6"/>
       <c r="B171" s="6"/>
-      <c r="C171" s="28"/>
-      <c r="D171" s="28"/>
+      <c r="C171" s="24"/>
+      <c r="D171" s="24"/>
       <c r="E171" s="6"/>
       <c r="F171" s="17"/>
       <c r="G171" s="17"/>
@@ -9238,8 +9244,8 @@
     <row r="172" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A172" s="6"/>
       <c r="B172" s="6"/>
-      <c r="C172" s="28"/>
-      <c r="D172" s="28"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
       <c r="E172" s="6"/>
       <c r="F172" s="17"/>
       <c r="G172" s="17"/>
@@ -9265,8 +9271,8 @@
     <row r="173" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A173" s="6"/>
       <c r="B173" s="6"/>
-      <c r="C173" s="28"/>
-      <c r="D173" s="28"/>
+      <c r="C173" s="24"/>
+      <c r="D173" s="24"/>
       <c r="E173" s="6"/>
       <c r="F173" s="17"/>
       <c r="G173" s="17"/>
@@ -9292,8 +9298,8 @@
     <row r="174" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A174" s="6"/>
       <c r="B174" s="6"/>
-      <c r="C174" s="28"/>
-      <c r="D174" s="28"/>
+      <c r="C174" s="24"/>
+      <c r="D174" s="24"/>
       <c r="E174" s="6"/>
       <c r="F174" s="17"/>
       <c r="G174" s="17"/>
@@ -9319,8 +9325,8 @@
     <row r="175" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A175" s="6"/>
       <c r="B175" s="6"/>
-      <c r="C175" s="28"/>
-      <c r="D175" s="28"/>
+      <c r="C175" s="24"/>
+      <c r="D175" s="24"/>
       <c r="E175" s="6"/>
       <c r="F175" s="17"/>
       <c r="G175" s="17"/>
@@ -9346,8 +9352,8 @@
     <row r="176" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A176" s="6"/>
       <c r="B176" s="6"/>
-      <c r="C176" s="28"/>
-      <c r="D176" s="28"/>
+      <c r="C176" s="24"/>
+      <c r="D176" s="24"/>
       <c r="E176" s="6"/>
       <c r="F176" s="17"/>
       <c r="G176" s="17"/>
@@ -9373,8 +9379,8 @@
     <row r="177" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A177" s="6"/>
       <c r="B177" s="6"/>
-      <c r="C177" s="28"/>
-      <c r="D177" s="28"/>
+      <c r="C177" s="24"/>
+      <c r="D177" s="24"/>
       <c r="E177" s="6"/>
       <c r="F177" s="17"/>
       <c r="G177" s="17"/>
@@ -9400,8 +9406,8 @@
     <row r="178" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A178" s="6"/>
       <c r="B178" s="6"/>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
+      <c r="C178" s="24"/>
+      <c r="D178" s="24"/>
       <c r="E178" s="6"/>
       <c r="F178" s="17"/>
       <c r="G178" s="17"/>
@@ -9427,8 +9433,8 @@
     <row r="179" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A179" s="6"/>
       <c r="B179" s="6"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
+      <c r="C179" s="24"/>
+      <c r="D179" s="24"/>
       <c r="E179" s="6"/>
       <c r="F179" s="17"/>
       <c r="G179" s="17"/>
@@ -9454,8 +9460,8 @@
     <row r="180" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A180" s="6"/>
       <c r="B180" s="6"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
+      <c r="C180" s="24"/>
+      <c r="D180" s="24"/>
       <c r="E180" s="6"/>
       <c r="F180" s="17"/>
       <c r="G180" s="17"/>
@@ -9481,8 +9487,8 @@
     <row r="181" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A181" s="6"/>
       <c r="B181" s="6"/>
-      <c r="C181" s="28"/>
-      <c r="D181" s="28"/>
+      <c r="C181" s="24"/>
+      <c r="D181" s="24"/>
       <c r="E181" s="6"/>
       <c r="F181" s="17"/>
       <c r="G181" s="17"/>
@@ -9508,8 +9514,8 @@
     <row r="182" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A182" s="6"/>
       <c r="B182" s="6"/>
-      <c r="C182" s="28"/>
-      <c r="D182" s="28"/>
+      <c r="C182" s="24"/>
+      <c r="D182" s="24"/>
       <c r="E182" s="6"/>
       <c r="F182" s="17"/>
       <c r="G182" s="17"/>
@@ -9535,8 +9541,8 @@
     <row r="183" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A183" s="6"/>
       <c r="B183" s="6"/>
-      <c r="C183" s="28"/>
-      <c r="D183" s="28"/>
+      <c r="C183" s="24"/>
+      <c r="D183" s="24"/>
       <c r="E183" s="6"/>
       <c r="F183" s="17"/>
       <c r="G183" s="17"/>
@@ -9562,8 +9568,8 @@
     <row r="184" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A184" s="6"/>
       <c r="B184" s="6"/>
-      <c r="C184" s="28"/>
-      <c r="D184" s="28"/>
+      <c r="C184" s="24"/>
+      <c r="D184" s="24"/>
       <c r="E184" s="6"/>
       <c r="F184" s="17"/>
       <c r="G184" s="17"/>
@@ -9589,8 +9595,8 @@
     <row r="185" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A185" s="6"/>
       <c r="B185" s="6"/>
-      <c r="C185" s="28"/>
-      <c r="D185" s="28"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
       <c r="E185" s="6"/>
       <c r="F185" s="17"/>
       <c r="G185" s="17"/>
@@ -9616,8 +9622,8 @@
     <row r="186" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A186" s="6"/>
       <c r="B186" s="6"/>
-      <c r="C186" s="28"/>
-      <c r="D186" s="28"/>
+      <c r="C186" s="24"/>
+      <c r="D186" s="24"/>
       <c r="E186" s="6"/>
       <c r="F186" s="17"/>
       <c r="G186" s="17"/>
@@ -9643,8 +9649,8 @@
     <row r="187" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A187" s="6"/>
       <c r="B187" s="6"/>
-      <c r="C187" s="28"/>
-      <c r="D187" s="28"/>
+      <c r="C187" s="24"/>
+      <c r="D187" s="24"/>
       <c r="E187" s="6"/>
       <c r="F187" s="17"/>
       <c r="G187" s="17"/>
@@ -9670,8 +9676,8 @@
     <row r="188" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A188" s="6"/>
       <c r="B188" s="6"/>
-      <c r="C188" s="28"/>
-      <c r="D188" s="28"/>
+      <c r="C188" s="24"/>
+      <c r="D188" s="24"/>
       <c r="E188" s="6"/>
       <c r="F188" s="17"/>
       <c r="G188" s="17"/>
@@ -9697,8 +9703,8 @@
     <row r="189" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
-      <c r="C189" s="28"/>
-      <c r="D189" s="28"/>
+      <c r="C189" s="24"/>
+      <c r="D189" s="24"/>
       <c r="E189" s="6"/>
       <c r="F189" s="17"/>
       <c r="G189" s="17"/>
@@ -9724,8 +9730,8 @@
     <row r="190" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A190" s="6"/>
       <c r="B190" s="6"/>
-      <c r="C190" s="28"/>
-      <c r="D190" s="28"/>
+      <c r="C190" s="24"/>
+      <c r="D190" s="24"/>
       <c r="E190" s="6"/>
       <c r="F190" s="17"/>
       <c r="G190" s="17"/>
@@ -9751,8 +9757,8 @@
     <row r="191" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A191" s="6"/>
       <c r="B191" s="6"/>
-      <c r="C191" s="28"/>
-      <c r="D191" s="28"/>
+      <c r="C191" s="24"/>
+      <c r="D191" s="24"/>
       <c r="E191" s="6"/>
       <c r="F191" s="17"/>
       <c r="G191" s="17"/>
@@ -9778,8 +9784,8 @@
     <row r="192" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A192" s="6"/>
       <c r="B192" s="6"/>
-      <c r="C192" s="28"/>
-      <c r="D192" s="28"/>
+      <c r="C192" s="24"/>
+      <c r="D192" s="24"/>
       <c r="E192" s="6"/>
       <c r="F192" s="17"/>
       <c r="G192" s="17"/>
@@ -9805,8 +9811,8 @@
     <row r="193" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A193" s="6"/>
       <c r="B193" s="6"/>
-      <c r="C193" s="28"/>
-      <c r="D193" s="28"/>
+      <c r="C193" s="24"/>
+      <c r="D193" s="24"/>
       <c r="E193" s="6"/>
       <c r="F193" s="17"/>
       <c r="G193" s="17"/>
@@ -9832,8 +9838,8 @@
     <row r="194" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A194" s="6"/>
       <c r="B194" s="6"/>
-      <c r="C194" s="28"/>
-      <c r="D194" s="28"/>
+      <c r="C194" s="24"/>
+      <c r="D194" s="24"/>
       <c r="E194" s="6"/>
       <c r="F194" s="17"/>
       <c r="G194" s="17"/>
@@ -9859,8 +9865,8 @@
     <row r="195" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A195" s="6"/>
       <c r="B195" s="6"/>
-      <c r="C195" s="28"/>
-      <c r="D195" s="28"/>
+      <c r="C195" s="24"/>
+      <c r="D195" s="24"/>
       <c r="E195" s="6"/>
       <c r="F195" s="17"/>
       <c r="G195" s="17"/>
@@ -9886,8 +9892,8 @@
     <row r="196" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A196" s="6"/>
       <c r="B196" s="6"/>
-      <c r="C196" s="28"/>
-      <c r="D196" s="28"/>
+      <c r="C196" s="24"/>
+      <c r="D196" s="24"/>
       <c r="E196" s="6"/>
       <c r="F196" s="17"/>
       <c r="G196" s="17"/>
@@ -9913,8 +9919,8 @@
     <row r="197" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A197" s="6"/>
       <c r="B197" s="6"/>
-      <c r="C197" s="28"/>
-      <c r="D197" s="28"/>
+      <c r="C197" s="24"/>
+      <c r="D197" s="24"/>
       <c r="E197" s="6"/>
       <c r="F197" s="17"/>
       <c r="G197" s="17"/>
@@ -9940,8 +9946,8 @@
     <row r="198" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A198" s="6"/>
       <c r="B198" s="6"/>
-      <c r="C198" s="28"/>
-      <c r="D198" s="28"/>
+      <c r="C198" s="24"/>
+      <c r="D198" s="24"/>
       <c r="E198" s="6"/>
       <c r="F198" s="17"/>
       <c r="G198" s="17"/>
@@ -9967,8 +9973,8 @@
     <row r="199" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="6"/>
       <c r="B199" s="6"/>
-      <c r="C199" s="28"/>
-      <c r="D199" s="28"/>
+      <c r="C199" s="24"/>
+      <c r="D199" s="24"/>
       <c r="E199" s="6"/>
       <c r="F199" s="17"/>
       <c r="G199" s="17"/>
@@ -9994,8 +10000,8 @@
     <row r="200" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="6"/>
       <c r="B200" s="6"/>
-      <c r="C200" s="28"/>
-      <c r="D200" s="28"/>
+      <c r="C200" s="24"/>
+      <c r="D200" s="24"/>
       <c r="E200" s="6"/>
       <c r="F200" s="17"/>
       <c r="G200" s="17"/>
@@ -10021,8 +10027,8 @@
     <row r="201" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="6"/>
       <c r="B201" s="6"/>
-      <c r="C201" s="28"/>
-      <c r="D201" s="28"/>
+      <c r="C201" s="24"/>
+      <c r="D201" s="24"/>
       <c r="E201" s="6"/>
       <c r="F201" s="17"/>
       <c r="G201" s="17"/>
@@ -10048,8 +10054,8 @@
     <row r="202" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A202" s="6"/>
       <c r="B202" s="6"/>
-      <c r="C202" s="28"/>
-      <c r="D202" s="28"/>
+      <c r="C202" s="24"/>
+      <c r="D202" s="24"/>
       <c r="E202" s="6"/>
       <c r="F202" s="17"/>
       <c r="G202" s="17"/>
@@ -10075,8 +10081,8 @@
     <row r="203" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A203" s="6"/>
       <c r="B203" s="6"/>
-      <c r="C203" s="28"/>
-      <c r="D203" s="28"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
       <c r="E203" s="6"/>
       <c r="F203" s="17"/>
       <c r="G203" s="17"/>
@@ -10102,8 +10108,8 @@
     <row r="204" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A204" s="6"/>
       <c r="B204" s="6"/>
-      <c r="C204" s="28"/>
-      <c r="D204" s="28"/>
+      <c r="C204" s="24"/>
+      <c r="D204" s="24"/>
       <c r="E204" s="6"/>
       <c r="F204" s="17"/>
       <c r="G204" s="17"/>
@@ -10129,8 +10135,8 @@
     <row r="205" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A205" s="6"/>
       <c r="B205" s="6"/>
-      <c r="C205" s="28"/>
-      <c r="D205" s="28"/>
+      <c r="C205" s="24"/>
+      <c r="D205" s="24"/>
       <c r="E205" s="6"/>
       <c r="F205" s="17"/>
       <c r="G205" s="17"/>
@@ -10156,8 +10162,8 @@
     <row r="206" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A206" s="6"/>
       <c r="B206" s="6"/>
-      <c r="C206" s="28"/>
-      <c r="D206" s="28"/>
+      <c r="C206" s="24"/>
+      <c r="D206" s="24"/>
       <c r="E206" s="6"/>
       <c r="F206" s="17"/>
       <c r="G206" s="17"/>
@@ -10183,8 +10189,8 @@
     <row r="207" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A207" s="6"/>
       <c r="B207" s="6"/>
-      <c r="C207" s="28"/>
-      <c r="D207" s="28"/>
+      <c r="C207" s="24"/>
+      <c r="D207" s="24"/>
       <c r="E207" s="6"/>
       <c r="F207" s="17"/>
       <c r="G207" s="17"/>
@@ -10210,8 +10216,8 @@
     <row r="208" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A208" s="6"/>
       <c r="B208" s="6"/>
-      <c r="C208" s="28"/>
-      <c r="D208" s="28"/>
+      <c r="C208" s="24"/>
+      <c r="D208" s="24"/>
       <c r="E208" s="6"/>
       <c r="F208" s="17"/>
       <c r="G208" s="17"/>
@@ -10237,8 +10243,8 @@
     <row r="209" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A209" s="6"/>
       <c r="B209" s="6"/>
-      <c r="C209" s="28"/>
-      <c r="D209" s="28"/>
+      <c r="C209" s="24"/>
+      <c r="D209" s="24"/>
       <c r="E209" s="6"/>
       <c r="F209" s="17"/>
       <c r="G209" s="17"/>
@@ -10264,8 +10270,8 @@
     <row r="210" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A210" s="6"/>
       <c r="B210" s="6"/>
-      <c r="C210" s="28"/>
-      <c r="D210" s="28"/>
+      <c r="C210" s="24"/>
+      <c r="D210" s="24"/>
       <c r="E210" s="6"/>
       <c r="F210" s="17"/>
       <c r="G210" s="17"/>
@@ -10291,8 +10297,8 @@
     <row r="211" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A211" s="6"/>
       <c r="B211" s="6"/>
-      <c r="C211" s="28"/>
-      <c r="D211" s="28"/>
+      <c r="C211" s="24"/>
+      <c r="D211" s="24"/>
       <c r="E211" s="6"/>
       <c r="F211" s="17"/>
       <c r="G211" s="17"/>
@@ -10318,8 +10324,8 @@
     <row r="212" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A212" s="6"/>
       <c r="B212" s="6"/>
-      <c r="C212" s="28"/>
-      <c r="D212" s="28"/>
+      <c r="C212" s="24"/>
+      <c r="D212" s="24"/>
       <c r="E212" s="6"/>
       <c r="F212" s="17"/>
       <c r="G212" s="17"/>
@@ -10345,8 +10351,8 @@
     <row r="213" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A213" s="6"/>
       <c r="B213" s="6"/>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
+      <c r="C213" s="24"/>
+      <c r="D213" s="24"/>
       <c r="E213" s="6"/>
       <c r="F213" s="17"/>
       <c r="G213" s="17"/>
@@ -10372,8 +10378,8 @@
     <row r="214" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A214" s="6"/>
       <c r="B214" s="6"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
+      <c r="C214" s="24"/>
+      <c r="D214" s="24"/>
       <c r="E214" s="6"/>
       <c r="F214" s="17"/>
       <c r="G214" s="17"/>
@@ -10399,8 +10405,8 @@
     <row r="215" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A215" s="6"/>
       <c r="B215" s="6"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
+      <c r="C215" s="24"/>
+      <c r="D215" s="24"/>
       <c r="E215" s="6"/>
       <c r="F215" s="17"/>
       <c r="G215" s="17"/>
@@ -10426,8 +10432,8 @@
     <row r="216" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A216" s="6"/>
       <c r="B216" s="6"/>
-      <c r="C216" s="28"/>
-      <c r="D216" s="28"/>
+      <c r="C216" s="24"/>
+      <c r="D216" s="24"/>
       <c r="E216" s="6"/>
       <c r="F216" s="17"/>
       <c r="G216" s="17"/>
@@ -10453,8 +10459,8 @@
     <row r="217" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A217" s="6"/>
       <c r="B217" s="6"/>
-      <c r="C217" s="28"/>
-      <c r="D217" s="28"/>
+      <c r="C217" s="24"/>
+      <c r="D217" s="24"/>
       <c r="E217" s="6"/>
       <c r="F217" s="17"/>
       <c r="G217" s="17"/>
@@ -10480,8 +10486,8 @@
     <row r="218" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A218" s="6"/>
       <c r="B218" s="6"/>
-      <c r="C218" s="28"/>
-      <c r="D218" s="28"/>
+      <c r="C218" s="24"/>
+      <c r="D218" s="24"/>
       <c r="E218" s="6"/>
       <c r="F218" s="17"/>
       <c r="G218" s="17"/>
@@ -10507,8 +10513,8 @@
     <row r="219" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A219" s="6"/>
       <c r="B219" s="6"/>
-      <c r="C219" s="28"/>
-      <c r="D219" s="28"/>
+      <c r="C219" s="24"/>
+      <c r="D219" s="24"/>
       <c r="E219" s="6"/>
       <c r="F219" s="17"/>
       <c r="G219" s="17"/>
@@ -10534,8 +10540,8 @@
     <row r="220" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A220" s="6"/>
       <c r="B220" s="6"/>
-      <c r="C220" s="28"/>
-      <c r="D220" s="28"/>
+      <c r="C220" s="24"/>
+      <c r="D220" s="24"/>
       <c r="E220" s="6"/>
       <c r="F220" s="17"/>
       <c r="G220" s="17"/>
@@ -10561,8 +10567,8 @@
     <row r="221" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A221" s="6"/>
       <c r="B221" s="6"/>
-      <c r="C221" s="28"/>
-      <c r="D221" s="28"/>
+      <c r="C221" s="24"/>
+      <c r="D221" s="24"/>
       <c r="E221" s="6"/>
       <c r="F221" s="17"/>
       <c r="G221" s="17"/>
@@ -10588,8 +10594,8 @@
     <row r="222" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A222" s="6"/>
       <c r="B222" s="6"/>
-      <c r="C222" s="28"/>
-      <c r="D222" s="28"/>
+      <c r="C222" s="24"/>
+      <c r="D222" s="24"/>
       <c r="E222" s="6"/>
       <c r="F222" s="17"/>
       <c r="G222" s="17"/>
@@ -10615,8 +10621,8 @@
     <row r="223" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A223" s="6"/>
       <c r="B223" s="6"/>
-      <c r="C223" s="28"/>
-      <c r="D223" s="28"/>
+      <c r="C223" s="24"/>
+      <c r="D223" s="24"/>
       <c r="E223" s="6"/>
       <c r="F223" s="17"/>
       <c r="G223" s="17"/>
@@ -10642,8 +10648,8 @@
     <row r="224" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A224" s="6"/>
       <c r="B224" s="6"/>
-      <c r="C224" s="28"/>
-      <c r="D224" s="28"/>
+      <c r="C224" s="24"/>
+      <c r="D224" s="24"/>
       <c r="E224" s="6"/>
       <c r="F224" s="17"/>
       <c r="G224" s="17"/>
@@ -10669,8 +10675,8 @@
     <row r="225" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A225" s="6"/>
       <c r="B225" s="6"/>
-      <c r="C225" s="28"/>
-      <c r="D225" s="28"/>
+      <c r="C225" s="24"/>
+      <c r="D225" s="24"/>
       <c r="E225" s="6"/>
       <c r="F225" s="17"/>
       <c r="G225" s="17"/>
@@ -10696,8 +10702,8 @@
     <row r="226" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A226" s="6"/>
       <c r="B226" s="6"/>
-      <c r="C226" s="28"/>
-      <c r="D226" s="28"/>
+      <c r="C226" s="24"/>
+      <c r="D226" s="24"/>
       <c r="E226" s="6"/>
       <c r="F226" s="17"/>
       <c r="G226" s="17"/>
@@ -10723,8 +10729,8 @@
     <row r="227" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A227" s="6"/>
       <c r="B227" s="6"/>
-      <c r="C227" s="28"/>
-      <c r="D227" s="28"/>
+      <c r="C227" s="24"/>
+      <c r="D227" s="24"/>
       <c r="E227" s="6"/>
       <c r="F227" s="17"/>
       <c r="G227" s="17"/>
@@ -10750,8 +10756,8 @@
     <row r="228" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A228" s="6"/>
       <c r="B228" s="6"/>
-      <c r="C228" s="28"/>
-      <c r="D228" s="28"/>
+      <c r="C228" s="24"/>
+      <c r="D228" s="24"/>
       <c r="E228" s="6"/>
       <c r="F228" s="17"/>
       <c r="G228" s="17"/>
@@ -10777,8 +10783,8 @@
     <row r="229" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A229" s="6"/>
       <c r="B229" s="6"/>
-      <c r="C229" s="28"/>
-      <c r="D229" s="28"/>
+      <c r="C229" s="24"/>
+      <c r="D229" s="24"/>
       <c r="E229" s="6"/>
       <c r="F229" s="17"/>
       <c r="G229" s="17"/>
@@ -10804,8 +10810,8 @@
     <row r="230" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A230" s="6"/>
       <c r="B230" s="6"/>
-      <c r="C230" s="28"/>
-      <c r="D230" s="28"/>
+      <c r="C230" s="24"/>
+      <c r="D230" s="24"/>
       <c r="E230" s="6"/>
       <c r="F230" s="17"/>
       <c r="G230" s="17"/>
@@ -10831,8 +10837,8 @@
     <row r="231" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A231" s="6"/>
       <c r="B231" s="6"/>
-      <c r="C231" s="28"/>
-      <c r="D231" s="28"/>
+      <c r="C231" s="24"/>
+      <c r="D231" s="24"/>
       <c r="E231" s="6"/>
       <c r="F231" s="17"/>
       <c r="G231" s="17"/>
@@ -10858,8 +10864,8 @@
     <row r="232" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A232" s="6"/>
       <c r="B232" s="6"/>
-      <c r="C232" s="28"/>
-      <c r="D232" s="28"/>
+      <c r="C232" s="24"/>
+      <c r="D232" s="24"/>
       <c r="E232" s="6"/>
       <c r="F232" s="17"/>
       <c r="G232" s="17"/>
@@ -10885,8 +10891,8 @@
     <row r="233" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A233" s="6"/>
       <c r="B233" s="6"/>
-      <c r="C233" s="28"/>
-      <c r="D233" s="28"/>
+      <c r="C233" s="24"/>
+      <c r="D233" s="24"/>
       <c r="E233" s="6"/>
       <c r="F233" s="17"/>
       <c r="G233" s="17"/>
@@ -10912,8 +10918,8 @@
     <row r="234" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A234" s="6"/>
       <c r="B234" s="6"/>
-      <c r="C234" s="28"/>
-      <c r="D234" s="28"/>
+      <c r="C234" s="24"/>
+      <c r="D234" s="24"/>
       <c r="E234" s="6"/>
       <c r="F234" s="17"/>
       <c r="G234" s="17"/>
@@ -10939,8 +10945,8 @@
     <row r="235" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A235" s="6"/>
       <c r="B235" s="6"/>
-      <c r="C235" s="28"/>
-      <c r="D235" s="28"/>
+      <c r="C235" s="24"/>
+      <c r="D235" s="24"/>
       <c r="E235" s="6"/>
       <c r="F235" s="17"/>
       <c r="G235" s="17"/>
@@ -10966,8 +10972,8 @@
     <row r="236" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A236" s="6"/>
       <c r="B236" s="6"/>
-      <c r="C236" s="28"/>
-      <c r="D236" s="28"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
       <c r="E236" s="6"/>
       <c r="F236" s="17"/>
       <c r="G236" s="17"/>
@@ -10993,8 +10999,8 @@
     <row r="237" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A237" s="6"/>
       <c r="B237" s="6"/>
-      <c r="C237" s="28"/>
-      <c r="D237" s="28"/>
+      <c r="C237" s="24"/>
+      <c r="D237" s="24"/>
       <c r="E237" s="6"/>
       <c r="F237" s="17"/>
       <c r="G237" s="17"/>
@@ -11020,8 +11026,8 @@
     <row r="238" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A238" s="6"/>
       <c r="B238" s="6"/>
-      <c r="C238" s="28"/>
-      <c r="D238" s="28"/>
+      <c r="C238" s="24"/>
+      <c r="D238" s="24"/>
       <c r="E238" s="6"/>
       <c r="F238" s="17"/>
       <c r="G238" s="17"/>
@@ -11047,8 +11053,8 @@
     <row r="239" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A239" s="6"/>
       <c r="B239" s="6"/>
-      <c r="C239" s="28"/>
-      <c r="D239" s="28"/>
+      <c r="C239" s="24"/>
+      <c r="D239" s="24"/>
       <c r="E239" s="6"/>
       <c r="F239" s="17"/>
       <c r="G239" s="17"/>
@@ -11074,8 +11080,8 @@
     <row r="240" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A240" s="6"/>
       <c r="B240" s="6"/>
-      <c r="C240" s="28"/>
-      <c r="D240" s="28"/>
+      <c r="C240" s="24"/>
+      <c r="D240" s="24"/>
       <c r="E240" s="6"/>
       <c r="F240" s="17"/>
       <c r="G240" s="17"/>
@@ -11101,8 +11107,8 @@
     <row r="241" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A241" s="6"/>
       <c r="B241" s="6"/>
-      <c r="C241" s="28"/>
-      <c r="D241" s="28"/>
+      <c r="C241" s="24"/>
+      <c r="D241" s="24"/>
       <c r="E241" s="6"/>
       <c r="F241" s="17"/>
       <c r="G241" s="17"/>
@@ -11128,8 +11134,8 @@
     <row r="242" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A242" s="6"/>
       <c r="B242" s="6"/>
-      <c r="C242" s="28"/>
-      <c r="D242" s="28"/>
+      <c r="C242" s="24"/>
+      <c r="D242" s="24"/>
       <c r="E242" s="6"/>
       <c r="F242" s="17"/>
       <c r="G242" s="17"/>
@@ -11155,8 +11161,8 @@
     <row r="243" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A243" s="6"/>
       <c r="B243" s="6"/>
-      <c r="C243" s="28"/>
-      <c r="D243" s="28"/>
+      <c r="C243" s="24"/>
+      <c r="D243" s="24"/>
       <c r="E243" s="6"/>
       <c r="F243" s="17"/>
       <c r="G243" s="17"/>
@@ -11182,8 +11188,8 @@
     <row r="244" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A244" s="6"/>
       <c r="B244" s="6"/>
-      <c r="C244" s="28"/>
-      <c r="D244" s="28"/>
+      <c r="C244" s="24"/>
+      <c r="D244" s="24"/>
       <c r="E244" s="6"/>
       <c r="F244" s="17"/>
       <c r="G244" s="17"/>
@@ -11209,8 +11215,8 @@
     <row r="245" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A245" s="6"/>
       <c r="B245" s="6"/>
-      <c r="C245" s="28"/>
-      <c r="D245" s="28"/>
+      <c r="C245" s="24"/>
+      <c r="D245" s="24"/>
       <c r="E245" s="6"/>
       <c r="F245" s="17"/>
       <c r="G245" s="17"/>
@@ -11236,8 +11242,8 @@
     <row r="246" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A246" s="6"/>
       <c r="B246" s="6"/>
-      <c r="C246" s="28"/>
-      <c r="D246" s="28"/>
+      <c r="C246" s="24"/>
+      <c r="D246" s="24"/>
       <c r="E246" s="6"/>
       <c r="F246" s="17"/>
       <c r="G246" s="17"/>
@@ -11263,8 +11269,8 @@
     <row r="247" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A247" s="6"/>
       <c r="B247" s="6"/>
-      <c r="C247" s="28"/>
-      <c r="D247" s="28"/>
+      <c r="C247" s="24"/>
+      <c r="D247" s="24"/>
       <c r="E247" s="6"/>
       <c r="F247" s="17"/>
       <c r="G247" s="17"/>
@@ -11290,8 +11296,8 @@
     <row r="248" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A248" s="6"/>
       <c r="B248" s="6"/>
-      <c r="C248" s="28"/>
-      <c r="D248" s="28"/>
+      <c r="C248" s="24"/>
+      <c r="D248" s="24"/>
       <c r="E248" s="6"/>
       <c r="F248" s="17"/>
       <c r="G248" s="17"/>
@@ -11317,8 +11323,8 @@
     <row r="249" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A249" s="6"/>
       <c r="B249" s="6"/>
-      <c r="C249" s="28"/>
-      <c r="D249" s="28"/>
+      <c r="C249" s="24"/>
+      <c r="D249" s="24"/>
       <c r="E249" s="6"/>
       <c r="F249" s="17"/>
       <c r="G249" s="17"/>
@@ -11344,8 +11350,8 @@
     <row r="250" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A250" s="6"/>
       <c r="B250" s="6"/>
-      <c r="C250" s="28"/>
-      <c r="D250" s="28"/>
+      <c r="C250" s="24"/>
+      <c r="D250" s="24"/>
       <c r="E250" s="6"/>
       <c r="F250" s="17"/>
       <c r="G250" s="17"/>
@@ -11371,8 +11377,8 @@
     <row r="251" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A251" s="6"/>
       <c r="B251" s="6"/>
-      <c r="C251" s="28"/>
-      <c r="D251" s="28"/>
+      <c r="C251" s="24"/>
+      <c r="D251" s="24"/>
       <c r="E251" s="6"/>
       <c r="F251" s="17"/>
       <c r="G251" s="17"/>
@@ -11398,8 +11404,8 @@
     <row r="252" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A252" s="6"/>
       <c r="B252" s="6"/>
-      <c r="C252" s="28"/>
-      <c r="D252" s="28"/>
+      <c r="C252" s="24"/>
+      <c r="D252" s="24"/>
       <c r="E252" s="6"/>
       <c r="F252" s="17"/>
       <c r="G252" s="17"/>
@@ -11425,8 +11431,8 @@
     <row r="253" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A253" s="6"/>
       <c r="B253" s="6"/>
-      <c r="C253" s="28"/>
-      <c r="D253" s="28"/>
+      <c r="C253" s="24"/>
+      <c r="D253" s="24"/>
       <c r="E253" s="6"/>
       <c r="F253" s="17"/>
       <c r="G253" s="17"/>
@@ -11452,8 +11458,8 @@
     <row r="254" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A254" s="6"/>
       <c r="B254" s="6"/>
-      <c r="C254" s="28"/>
-      <c r="D254" s="28"/>
+      <c r="C254" s="24"/>
+      <c r="D254" s="24"/>
       <c r="E254" s="6"/>
       <c r="F254" s="17"/>
       <c r="G254" s="17"/>
@@ -11479,8 +11485,8 @@
     <row r="255" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A255" s="6"/>
       <c r="B255" s="6"/>
-      <c r="C255" s="28"/>
-      <c r="D255" s="28"/>
+      <c r="C255" s="24"/>
+      <c r="D255" s="24"/>
       <c r="E255" s="6"/>
       <c r="F255" s="17"/>
       <c r="G255" s="17"/>
@@ -11506,8 +11512,8 @@
     <row r="256" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A256" s="6"/>
       <c r="B256" s="6"/>
-      <c r="C256" s="28"/>
-      <c r="D256" s="28"/>
+      <c r="C256" s="24"/>
+      <c r="D256" s="24"/>
       <c r="E256" s="6"/>
       <c r="F256" s="17"/>
       <c r="G256" s="17"/>
@@ -11533,8 +11539,8 @@
     <row r="257" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A257" s="6"/>
       <c r="B257" s="6"/>
-      <c r="C257" s="28"/>
-      <c r="D257" s="28"/>
+      <c r="C257" s="24"/>
+      <c r="D257" s="24"/>
       <c r="E257" s="6"/>
       <c r="F257" s="17"/>
       <c r="G257" s="17"/>
@@ -11560,8 +11566,8 @@
     <row r="258" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A258" s="6"/>
       <c r="B258" s="6"/>
-      <c r="C258" s="28"/>
-      <c r="D258" s="28"/>
+      <c r="C258" s="24"/>
+      <c r="D258" s="24"/>
       <c r="E258" s="6"/>
       <c r="F258" s="17"/>
       <c r="G258" s="17"/>
@@ -11587,8 +11593,8 @@
     <row r="259" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A259" s="6"/>
       <c r="B259" s="6"/>
-      <c r="C259" s="28"/>
-      <c r="D259" s="28"/>
+      <c r="C259" s="24"/>
+      <c r="D259" s="24"/>
       <c r="E259" s="6"/>
       <c r="F259" s="17"/>
       <c r="G259" s="17"/>
@@ -11614,8 +11620,8 @@
     <row r="260" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A260" s="6"/>
       <c r="B260" s="6"/>
-      <c r="C260" s="28"/>
-      <c r="D260" s="28"/>
+      <c r="C260" s="24"/>
+      <c r="D260" s="24"/>
       <c r="E260" s="6"/>
       <c r="F260" s="17"/>
       <c r="G260" s="17"/>
@@ -11641,8 +11647,8 @@
     <row r="261" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A261" s="6"/>
       <c r="B261" s="6"/>
-      <c r="C261" s="28"/>
-      <c r="D261" s="28"/>
+      <c r="C261" s="24"/>
+      <c r="D261" s="24"/>
       <c r="E261" s="6"/>
       <c r="F261" s="17"/>
       <c r="G261" s="17"/>
@@ -11668,8 +11674,8 @@
     <row r="262" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A262" s="6"/>
       <c r="B262" s="6"/>
-      <c r="C262" s="28"/>
-      <c r="D262" s="28"/>
+      <c r="C262" s="24"/>
+      <c r="D262" s="24"/>
       <c r="E262" s="6"/>
       <c r="F262" s="17"/>
       <c r="G262" s="17"/>
@@ -11695,8 +11701,8 @@
     <row r="263" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A263" s="6"/>
       <c r="B263" s="6"/>
-      <c r="C263" s="28"/>
-      <c r="D263" s="28"/>
+      <c r="C263" s="24"/>
+      <c r="D263" s="24"/>
       <c r="E263" s="6"/>
       <c r="F263" s="17"/>
       <c r="G263" s="17"/>
@@ -11722,8 +11728,8 @@
     <row r="264" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A264" s="6"/>
       <c r="B264" s="6"/>
-      <c r="C264" s="28"/>
-      <c r="D264" s="28"/>
+      <c r="C264" s="24"/>
+      <c r="D264" s="24"/>
       <c r="E264" s="6"/>
       <c r="F264" s="17"/>
       <c r="G264" s="17"/>
@@ -11749,8 +11755,8 @@
     <row r="265" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A265" s="6"/>
       <c r="B265" s="6"/>
-      <c r="C265" s="28"/>
-      <c r="D265" s="28"/>
+      <c r="C265" s="24"/>
+      <c r="D265" s="24"/>
       <c r="E265" s="6"/>
       <c r="F265" s="17"/>
       <c r="G265" s="17"/>
@@ -11776,8 +11782,8 @@
     <row r="266" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A266" s="6"/>
       <c r="B266" s="6"/>
-      <c r="C266" s="28"/>
-      <c r="D266" s="28"/>
+      <c r="C266" s="24"/>
+      <c r="D266" s="24"/>
       <c r="E266" s="6"/>
       <c r="F266" s="17"/>
       <c r="G266" s="17"/>
@@ -11803,8 +11809,8 @@
     <row r="267" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A267" s="6"/>
       <c r="B267" s="6"/>
-      <c r="C267" s="28"/>
-      <c r="D267" s="28"/>
+      <c r="C267" s="24"/>
+      <c r="D267" s="24"/>
       <c r="E267" s="6"/>
       <c r="F267" s="17"/>
       <c r="G267" s="17"/>
@@ -11830,8 +11836,8 @@
     <row r="268" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A268" s="6"/>
       <c r="B268" s="6"/>
-      <c r="C268" s="28"/>
-      <c r="D268" s="28"/>
+      <c r="C268" s="24"/>
+      <c r="D268" s="24"/>
       <c r="E268" s="6"/>
       <c r="F268" s="17"/>
       <c r="G268" s="17"/>
@@ -11857,8 +11863,8 @@
     <row r="269" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A269" s="6"/>
       <c r="B269" s="6"/>
-      <c r="C269" s="28"/>
-      <c r="D269" s="28"/>
+      <c r="C269" s="24"/>
+      <c r="D269" s="24"/>
       <c r="E269" s="6"/>
       <c r="F269" s="17"/>
       <c r="G269" s="17"/>
@@ -11884,8 +11890,8 @@
     <row r="270" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A270" s="6"/>
       <c r="B270" s="6"/>
-      <c r="C270" s="28"/>
-      <c r="D270" s="28"/>
+      <c r="C270" s="24"/>
+      <c r="D270" s="24"/>
       <c r="E270" s="6"/>
       <c r="F270" s="17"/>
       <c r="G270" s="17"/>
@@ -11911,8 +11917,8 @@
     <row r="271" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A271" s="6"/>
       <c r="B271" s="6"/>
-      <c r="C271" s="28"/>
-      <c r="D271" s="28"/>
+      <c r="C271" s="24"/>
+      <c r="D271" s="24"/>
       <c r="E271" s="6"/>
       <c r="F271" s="17"/>
       <c r="G271" s="17"/>
@@ -11938,8 +11944,8 @@
     <row r="272" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A272" s="6"/>
       <c r="B272" s="6"/>
-      <c r="C272" s="28"/>
-      <c r="D272" s="28"/>
+      <c r="C272" s="24"/>
+      <c r="D272" s="24"/>
       <c r="E272" s="6"/>
       <c r="F272" s="17"/>
       <c r="G272" s="17"/>
@@ -11965,8 +11971,8 @@
     <row r="273" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A273" s="6"/>
       <c r="B273" s="6"/>
-      <c r="C273" s="28"/>
-      <c r="D273" s="28"/>
+      <c r="C273" s="24"/>
+      <c r="D273" s="24"/>
       <c r="E273" s="6"/>
       <c r="F273" s="17"/>
       <c r="G273" s="17"/>
@@ -11992,8 +11998,8 @@
     <row r="274" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A274" s="6"/>
       <c r="B274" s="6"/>
-      <c r="C274" s="28"/>
-      <c r="D274" s="28"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
       <c r="E274" s="6"/>
       <c r="F274" s="17"/>
       <c r="G274" s="17"/>
@@ -12019,8 +12025,8 @@
     <row r="275" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A275" s="6"/>
       <c r="B275" s="6"/>
-      <c r="C275" s="28"/>
-      <c r="D275" s="28"/>
+      <c r="C275" s="24"/>
+      <c r="D275" s="24"/>
       <c r="E275" s="6"/>
       <c r="F275" s="17"/>
       <c r="G275" s="17"/>
@@ -12046,8 +12052,8 @@
     <row r="276" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A276" s="6"/>
       <c r="B276" s="6"/>
-      <c r="C276" s="28"/>
-      <c r="D276" s="28"/>
+      <c r="C276" s="24"/>
+      <c r="D276" s="24"/>
       <c r="E276" s="6"/>
       <c r="F276" s="17"/>
       <c r="G276" s="17"/>
@@ -12073,8 +12079,8 @@
     <row r="277" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A277" s="6"/>
       <c r="B277" s="6"/>
-      <c r="C277" s="28"/>
-      <c r="D277" s="28"/>
+      <c r="C277" s="24"/>
+      <c r="D277" s="24"/>
       <c r="E277" s="6"/>
       <c r="F277" s="17"/>
       <c r="G277" s="17"/>
@@ -12100,8 +12106,8 @@
     <row r="278" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A278" s="6"/>
       <c r="B278" s="6"/>
-      <c r="C278" s="28"/>
-      <c r="D278" s="28"/>
+      <c r="C278" s="24"/>
+      <c r="D278" s="24"/>
       <c r="E278" s="6"/>
       <c r="F278" s="17"/>
       <c r="G278" s="17"/>
@@ -12127,8 +12133,8 @@
     <row r="279" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A279" s="6"/>
       <c r="B279" s="6"/>
-      <c r="C279" s="28"/>
-      <c r="D279" s="28"/>
+      <c r="C279" s="24"/>
+      <c r="D279" s="24"/>
       <c r="E279" s="6"/>
       <c r="F279" s="17"/>
       <c r="G279" s="17"/>
@@ -12154,8 +12160,8 @@
     <row r="280" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A280" s="6"/>
       <c r="B280" s="6"/>
-      <c r="C280" s="28"/>
-      <c r="D280" s="28"/>
+      <c r="C280" s="24"/>
+      <c r="D280" s="24"/>
       <c r="E280" s="6"/>
       <c r="F280" s="17"/>
       <c r="G280" s="17"/>
@@ -12181,8 +12187,8 @@
     <row r="281" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A281" s="6"/>
       <c r="B281" s="6"/>
-      <c r="C281" s="28"/>
-      <c r="D281" s="28"/>
+      <c r="C281" s="24"/>
+      <c r="D281" s="24"/>
       <c r="E281" s="6"/>
       <c r="F281" s="17"/>
       <c r="G281" s="17"/>
@@ -12208,8 +12214,8 @@
     <row r="282" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A282" s="6"/>
       <c r="B282" s="6"/>
-      <c r="C282" s="28"/>
-      <c r="D282" s="28"/>
+      <c r="C282" s="24"/>
+      <c r="D282" s="24"/>
       <c r="E282" s="6"/>
       <c r="F282" s="17"/>
       <c r="G282" s="17"/>
@@ -12235,8 +12241,8 @@
     <row r="283" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A283" s="6"/>
       <c r="B283" s="6"/>
-      <c r="C283" s="28"/>
-      <c r="D283" s="28"/>
+      <c r="C283" s="24"/>
+      <c r="D283" s="24"/>
       <c r="E283" s="6"/>
       <c r="F283" s="17"/>
       <c r="G283" s="17"/>
@@ -12262,8 +12268,8 @@
     <row r="284" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A284" s="6"/>
       <c r="B284" s="6"/>
-      <c r="C284" s="28"/>
-      <c r="D284" s="28"/>
+      <c r="C284" s="24"/>
+      <c r="D284" s="24"/>
       <c r="E284" s="6"/>
       <c r="F284" s="17"/>
       <c r="G284" s="17"/>
@@ -12289,8 +12295,8 @@
     <row r="285" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A285" s="6"/>
       <c r="B285" s="6"/>
-      <c r="C285" s="28"/>
-      <c r="D285" s="28"/>
+      <c r="C285" s="24"/>
+      <c r="D285" s="24"/>
       <c r="E285" s="6"/>
       <c r="F285" s="17"/>
       <c r="G285" s="17"/>
@@ -12316,8 +12322,8 @@
     <row r="286" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A286" s="6"/>
       <c r="B286" s="6"/>
-      <c r="C286" s="28"/>
-      <c r="D286" s="28"/>
+      <c r="C286" s="24"/>
+      <c r="D286" s="24"/>
       <c r="E286" s="6"/>
       <c r="F286" s="17"/>
       <c r="G286" s="17"/>
@@ -12343,8 +12349,8 @@
     <row r="287" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A287" s="6"/>
       <c r="B287" s="6"/>
-      <c r="C287" s="28"/>
-      <c r="D287" s="28"/>
+      <c r="C287" s="24"/>
+      <c r="D287" s="24"/>
       <c r="E287" s="6"/>
       <c r="F287" s="17"/>
       <c r="G287" s="17"/>
@@ -12370,8 +12376,8 @@
     <row r="288" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A288" s="6"/>
       <c r="B288" s="6"/>
-      <c r="C288" s="28"/>
-      <c r="D288" s="28"/>
+      <c r="C288" s="24"/>
+      <c r="D288" s="24"/>
       <c r="E288" s="6"/>
       <c r="F288" s="17"/>
       <c r="G288" s="17"/>
@@ -12397,8 +12403,8 @@
     <row r="289" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A289" s="6"/>
       <c r="B289" s="6"/>
-      <c r="C289" s="28"/>
-      <c r="D289" s="28"/>
+      <c r="C289" s="24"/>
+      <c r="D289" s="24"/>
       <c r="E289" s="6"/>
       <c r="F289" s="17"/>
       <c r="G289" s="17"/>
@@ -12424,8 +12430,8 @@
     <row r="290" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A290" s="6"/>
       <c r="B290" s="6"/>
-      <c r="C290" s="28"/>
-      <c r="D290" s="28"/>
+      <c r="C290" s="24"/>
+      <c r="D290" s="24"/>
       <c r="E290" s="6"/>
       <c r="F290" s="17"/>
       <c r="G290" s="17"/>
@@ -12451,8 +12457,8 @@
     <row r="291" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A291" s="6"/>
       <c r="B291" s="6"/>
-      <c r="C291" s="28"/>
-      <c r="D291" s="28"/>
+      <c r="C291" s="24"/>
+      <c r="D291" s="24"/>
       <c r="E291" s="6"/>
       <c r="F291" s="17"/>
       <c r="G291" s="17"/>
@@ -12478,8 +12484,8 @@
     <row r="292" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A292" s="6"/>
       <c r="B292" s="6"/>
-      <c r="C292" s="28"/>
-      <c r="D292" s="28"/>
+      <c r="C292" s="24"/>
+      <c r="D292" s="24"/>
       <c r="E292" s="6"/>
       <c r="F292" s="17"/>
       <c r="G292" s="17"/>
@@ -12505,8 +12511,8 @@
     <row r="293" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A293" s="6"/>
       <c r="B293" s="6"/>
-      <c r="C293" s="28"/>
-      <c r="D293" s="28"/>
+      <c r="C293" s="24"/>
+      <c r="D293" s="24"/>
       <c r="E293" s="6"/>
       <c r="F293" s="17"/>
       <c r="G293" s="17"/>
@@ -12532,8 +12538,8 @@
     <row r="294" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A294" s="6"/>
       <c r="B294" s="6"/>
-      <c r="C294" s="28"/>
-      <c r="D294" s="28"/>
+      <c r="C294" s="24"/>
+      <c r="D294" s="24"/>
       <c r="E294" s="6"/>
       <c r="F294" s="17"/>
       <c r="G294" s="17"/>
@@ -12559,8 +12565,8 @@
     <row r="295" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A295" s="6"/>
       <c r="B295" s="6"/>
-      <c r="C295" s="28"/>
-      <c r="D295" s="28"/>
+      <c r="C295" s="24"/>
+      <c r="D295" s="24"/>
       <c r="E295" s="6"/>
       <c r="F295" s="17"/>
       <c r="G295" s="17"/>
@@ -12586,8 +12592,8 @@
     <row r="296" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A296" s="6"/>
       <c r="B296" s="6"/>
-      <c r="C296" s="28"/>
-      <c r="D296" s="28"/>
+      <c r="C296" s="24"/>
+      <c r="D296" s="24"/>
       <c r="E296" s="6"/>
       <c r="F296" s="17"/>
       <c r="G296" s="17"/>
@@ -12613,8 +12619,8 @@
     <row r="297" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A297" s="6"/>
       <c r="B297" s="6"/>
-      <c r="C297" s="28"/>
-      <c r="D297" s="28"/>
+      <c r="C297" s="24"/>
+      <c r="D297" s="24"/>
       <c r="E297" s="6"/>
       <c r="F297" s="17"/>
       <c r="G297" s="17"/>
@@ -12640,8 +12646,8 @@
     <row r="298" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A298" s="6"/>
       <c r="B298" s="6"/>
-      <c r="C298" s="28"/>
-      <c r="D298" s="28"/>
+      <c r="C298" s="24"/>
+      <c r="D298" s="24"/>
       <c r="E298" s="6"/>
       <c r="F298" s="17"/>
       <c r="G298" s="17"/>
@@ -12667,8 +12673,8 @@
     <row r="299" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A299" s="6"/>
       <c r="B299" s="6"/>
-      <c r="C299" s="28"/>
-      <c r="D299" s="28"/>
+      <c r="C299" s="24"/>
+      <c r="D299" s="24"/>
       <c r="E299" s="6"/>
       <c r="F299" s="17"/>
       <c r="G299" s="17"/>
@@ -12694,8 +12700,8 @@
     <row r="300" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A300" s="6"/>
       <c r="B300" s="6"/>
-      <c r="C300" s="28"/>
-      <c r="D300" s="28"/>
+      <c r="C300" s="24"/>
+      <c r="D300" s="24"/>
       <c r="E300" s="6"/>
       <c r="F300" s="17"/>
       <c r="G300" s="17"/>
@@ -12721,8 +12727,8 @@
     <row r="301" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A301" s="6"/>
       <c r="B301" s="6"/>
-      <c r="C301" s="28"/>
-      <c r="D301" s="28"/>
+      <c r="C301" s="24"/>
+      <c r="D301" s="24"/>
       <c r="E301" s="6"/>
       <c r="F301" s="17"/>
       <c r="G301" s="17"/>
@@ -12748,8 +12754,8 @@
     <row r="302" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A302" s="6"/>
       <c r="B302" s="6"/>
-      <c r="C302" s="28"/>
-      <c r="D302" s="28"/>
+      <c r="C302" s="24"/>
+      <c r="D302" s="24"/>
       <c r="E302" s="6"/>
       <c r="F302" s="17"/>
       <c r="G302" s="17"/>
@@ -12775,8 +12781,8 @@
     <row r="303" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A303" s="6"/>
       <c r="B303" s="6"/>
-      <c r="C303" s="28"/>
-      <c r="D303" s="28"/>
+      <c r="C303" s="24"/>
+      <c r="D303" s="24"/>
       <c r="E303" s="6"/>
       <c r="F303" s="17"/>
       <c r="G303" s="17"/>
@@ -12802,8 +12808,8 @@
     <row r="304" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A304" s="6"/>
       <c r="B304" s="6"/>
-      <c r="C304" s="28"/>
-      <c r="D304" s="28"/>
+      <c r="C304" s="24"/>
+      <c r="D304" s="24"/>
       <c r="E304" s="6"/>
       <c r="F304" s="17"/>
       <c r="G304" s="17"/>
@@ -12829,8 +12835,8 @@
     <row r="305" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A305" s="6"/>
       <c r="B305" s="6"/>
-      <c r="C305" s="28"/>
-      <c r="D305" s="28"/>
+      <c r="C305" s="24"/>
+      <c r="D305" s="24"/>
       <c r="E305" s="6"/>
       <c r="F305" s="17"/>
       <c r="G305" s="17"/>
@@ -12856,8 +12862,8 @@
     <row r="306" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A306" s="6"/>
       <c r="B306" s="6"/>
-      <c r="C306" s="28"/>
-      <c r="D306" s="28"/>
+      <c r="C306" s="24"/>
+      <c r="D306" s="24"/>
       <c r="E306" s="6"/>
       <c r="F306" s="17"/>
       <c r="G306" s="17"/>
@@ -12883,8 +12889,8 @@
     <row r="307" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A307" s="6"/>
       <c r="B307" s="6"/>
-      <c r="C307" s="28"/>
-      <c r="D307" s="28"/>
+      <c r="C307" s="24"/>
+      <c r="D307" s="24"/>
       <c r="E307" s="6"/>
       <c r="F307" s="17"/>
       <c r="G307" s="17"/>
@@ -12910,8 +12916,8 @@
     <row r="308" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A308" s="6"/>
       <c r="B308" s="6"/>
-      <c r="C308" s="28"/>
-      <c r="D308" s="28"/>
+      <c r="C308" s="24"/>
+      <c r="D308" s="24"/>
       <c r="E308" s="6"/>
       <c r="F308" s="17"/>
       <c r="G308" s="17"/>
@@ -12937,8 +12943,8 @@
     <row r="309" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A309" s="6"/>
       <c r="B309" s="6"/>
-      <c r="C309" s="28"/>
-      <c r="D309" s="28"/>
+      <c r="C309" s="24"/>
+      <c r="D309" s="24"/>
       <c r="E309" s="6"/>
       <c r="F309" s="17"/>
       <c r="G309" s="17"/>
@@ -12964,8 +12970,8 @@
     <row r="310" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A310" s="6"/>
       <c r="B310" s="6"/>
-      <c r="C310" s="28"/>
-      <c r="D310" s="28"/>
+      <c r="C310" s="24"/>
+      <c r="D310" s="24"/>
       <c r="E310" s="6"/>
       <c r="F310" s="17"/>
       <c r="G310" s="17"/>
@@ -12991,8 +12997,8 @@
     <row r="311" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A311" s="6"/>
       <c r="B311" s="6"/>
-      <c r="C311" s="28"/>
-      <c r="D311" s="28"/>
+      <c r="C311" s="24"/>
+      <c r="D311" s="24"/>
       <c r="E311" s="6"/>
       <c r="F311" s="17"/>
       <c r="G311" s="17"/>
@@ -13018,8 +13024,8 @@
     <row r="312" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A312" s="6"/>
       <c r="B312" s="6"/>
-      <c r="C312" s="28"/>
-      <c r="D312" s="28"/>
+      <c r="C312" s="24"/>
+      <c r="D312" s="24"/>
       <c r="E312" s="6"/>
       <c r="F312" s="17"/>
       <c r="G312" s="17"/>
@@ -13045,8 +13051,8 @@
     <row r="313" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A313" s="6"/>
       <c r="B313" s="6"/>
-      <c r="C313" s="28"/>
-      <c r="D313" s="28"/>
+      <c r="C313" s="24"/>
+      <c r="D313" s="24"/>
       <c r="E313" s="6"/>
       <c r="F313" s="17"/>
       <c r="G313" s="17"/>
@@ -13072,8 +13078,8 @@
     <row r="314" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A314" s="6"/>
       <c r="B314" s="6"/>
-      <c r="C314" s="28"/>
-      <c r="D314" s="28"/>
+      <c r="C314" s="24"/>
+      <c r="D314" s="24"/>
       <c r="E314" s="6"/>
       <c r="F314" s="17"/>
       <c r="G314" s="17"/>
@@ -13099,8 +13105,8 @@
     <row r="315" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A315" s="6"/>
       <c r="B315" s="6"/>
-      <c r="C315" s="28"/>
-      <c r="D315" s="28"/>
+      <c r="C315" s="24"/>
+      <c r="D315" s="24"/>
       <c r="E315" s="6"/>
       <c r="F315" s="17"/>
       <c r="G315" s="17"/>
@@ -13126,8 +13132,8 @@
     <row r="316" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A316" s="6"/>
       <c r="B316" s="6"/>
-      <c r="C316" s="28"/>
-      <c r="D316" s="28"/>
+      <c r="C316" s="24"/>
+      <c r="D316" s="24"/>
       <c r="E316" s="6"/>
       <c r="F316" s="17"/>
       <c r="G316" s="17"/>
@@ -13153,8 +13159,8 @@
     <row r="317" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A317" s="6"/>
       <c r="B317" s="6"/>
-      <c r="C317" s="28"/>
-      <c r="D317" s="28"/>
+      <c r="C317" s="24"/>
+      <c r="D317" s="24"/>
       <c r="E317" s="6"/>
       <c r="F317" s="17"/>
       <c r="G317" s="17"/>
@@ -13180,8 +13186,8 @@
     <row r="318" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A318" s="6"/>
       <c r="B318" s="6"/>
-      <c r="C318" s="28"/>
-      <c r="D318" s="28"/>
+      <c r="C318" s="24"/>
+      <c r="D318" s="24"/>
       <c r="E318" s="6"/>
       <c r="F318" s="17"/>
       <c r="G318" s="17"/>
@@ -13207,8 +13213,8 @@
     <row r="319" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A319" s="6"/>
       <c r="B319" s="6"/>
-      <c r="C319" s="28"/>
-      <c r="D319" s="28"/>
+      <c r="C319" s="24"/>
+      <c r="D319" s="24"/>
       <c r="E319" s="6"/>
       <c r="F319" s="17"/>
       <c r="G319" s="17"/>
@@ -13234,8 +13240,8 @@
     <row r="320" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A320" s="6"/>
       <c r="B320" s="6"/>
-      <c r="C320" s="28"/>
-      <c r="D320" s="28"/>
+      <c r="C320" s="24"/>
+      <c r="D320" s="24"/>
       <c r="E320" s="6"/>
       <c r="F320" s="17"/>
       <c r="G320" s="17"/>
@@ -13261,8 +13267,8 @@
     <row r="321" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A321" s="6"/>
       <c r="B321" s="6"/>
-      <c r="C321" s="28"/>
-      <c r="D321" s="28"/>
+      <c r="C321" s="24"/>
+      <c r="D321" s="24"/>
       <c r="E321" s="6"/>
       <c r="F321" s="17"/>
       <c r="G321" s="17"/>
@@ -13288,8 +13294,8 @@
     <row r="322" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A322" s="6"/>
       <c r="B322" s="6"/>
-      <c r="C322" s="28"/>
-      <c r="D322" s="28"/>
+      <c r="C322" s="24"/>
+      <c r="D322" s="24"/>
       <c r="E322" s="6"/>
       <c r="F322" s="17"/>
       <c r="G322" s="17"/>
@@ -13315,8 +13321,8 @@
     <row r="323" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A323" s="6"/>
       <c r="B323" s="6"/>
-      <c r="C323" s="28"/>
-      <c r="D323" s="28"/>
+      <c r="C323" s="24"/>
+      <c r="D323" s="24"/>
       <c r="E323" s="6"/>
       <c r="F323" s="17"/>
       <c r="G323" s="17"/>
@@ -13342,8 +13348,8 @@
     <row r="324" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A324" s="6"/>
       <c r="B324" s="6"/>
-      <c r="C324" s="28"/>
-      <c r="D324" s="28"/>
+      <c r="C324" s="24"/>
+      <c r="D324" s="24"/>
       <c r="E324" s="6"/>
       <c r="F324" s="17"/>
       <c r="G324" s="17"/>
@@ -13369,8 +13375,8 @@
     <row r="325" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A325" s="6"/>
       <c r="B325" s="6"/>
-      <c r="C325" s="28"/>
-      <c r="D325" s="28"/>
+      <c r="C325" s="24"/>
+      <c r="D325" s="24"/>
       <c r="E325" s="6"/>
       <c r="F325" s="17"/>
       <c r="G325" s="17"/>
@@ -13396,8 +13402,8 @@
     <row r="326" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A326" s="6"/>
       <c r="B326" s="6"/>
-      <c r="C326" s="28"/>
-      <c r="D326" s="28"/>
+      <c r="C326" s="24"/>
+      <c r="D326" s="24"/>
       <c r="E326" s="6"/>
       <c r="F326" s="17"/>
       <c r="G326" s="17"/>
@@ -13423,8 +13429,8 @@
     <row r="327" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A327" s="6"/>
       <c r="B327" s="6"/>
-      <c r="C327" s="28"/>
-      <c r="D327" s="28"/>
+      <c r="C327" s="24"/>
+      <c r="D327" s="24"/>
       <c r="E327" s="6"/>
       <c r="F327" s="17"/>
       <c r="G327" s="17"/>
@@ -13450,8 +13456,8 @@
     <row r="328" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A328" s="6"/>
       <c r="B328" s="6"/>
-      <c r="C328" s="28"/>
-      <c r="D328" s="28"/>
+      <c r="C328" s="24"/>
+      <c r="D328" s="24"/>
       <c r="E328" s="6"/>
       <c r="F328" s="17"/>
       <c r="G328" s="17"/>
@@ -13477,8 +13483,8 @@
     <row r="329" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A329" s="6"/>
       <c r="B329" s="6"/>
-      <c r="C329" s="28"/>
-      <c r="D329" s="28"/>
+      <c r="C329" s="24"/>
+      <c r="D329" s="24"/>
       <c r="E329" s="6"/>
       <c r="F329" s="17"/>
       <c r="G329" s="17"/>
@@ -13504,8 +13510,8 @@
     <row r="330" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A330" s="6"/>
       <c r="B330" s="6"/>
-      <c r="C330" s="28"/>
-      <c r="D330" s="28"/>
+      <c r="C330" s="24"/>
+      <c r="D330" s="24"/>
       <c r="E330" s="6"/>
       <c r="F330" s="17"/>
       <c r="G330" s="17"/>
@@ -13531,8 +13537,8 @@
     <row r="331" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A331" s="6"/>
       <c r="B331" s="6"/>
-      <c r="C331" s="28"/>
-      <c r="D331" s="28"/>
+      <c r="C331" s="24"/>
+      <c r="D331" s="24"/>
       <c r="E331" s="6"/>
       <c r="F331" s="17"/>
       <c r="G331" s="17"/>
@@ -13558,8 +13564,8 @@
     <row r="332" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A332" s="6"/>
       <c r="B332" s="6"/>
-      <c r="C332" s="28"/>
-      <c r="D332" s="28"/>
+      <c r="C332" s="24"/>
+      <c r="D332" s="24"/>
       <c r="E332" s="6"/>
       <c r="F332" s="17"/>
       <c r="G332" s="17"/>
@@ -13585,8 +13591,8 @@
     <row r="333" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A333" s="6"/>
       <c r="B333" s="6"/>
-      <c r="C333" s="28"/>
-      <c r="D333" s="28"/>
+      <c r="C333" s="24"/>
+      <c r="D333" s="24"/>
       <c r="E333" s="6"/>
       <c r="F333" s="17"/>
       <c r="G333" s="17"/>
@@ -13612,8 +13618,8 @@
     <row r="334" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A334" s="6"/>
       <c r="B334" s="6"/>
-      <c r="C334" s="28"/>
-      <c r="D334" s="28"/>
+      <c r="C334" s="24"/>
+      <c r="D334" s="24"/>
       <c r="E334" s="6"/>
       <c r="F334" s="17"/>
       <c r="G334" s="17"/>
@@ -13639,8 +13645,8 @@
     <row r="335" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A335" s="6"/>
       <c r="B335" s="6"/>
-      <c r="C335" s="28"/>
-      <c r="D335" s="28"/>
+      <c r="C335" s="24"/>
+      <c r="D335" s="24"/>
       <c r="E335" s="6"/>
       <c r="F335" s="17"/>
       <c r="G335" s="17"/>
@@ -13666,8 +13672,8 @@
     <row r="336" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A336" s="6"/>
       <c r="B336" s="6"/>
-      <c r="C336" s="28"/>
-      <c r="D336" s="28"/>
+      <c r="C336" s="24"/>
+      <c r="D336" s="24"/>
       <c r="E336" s="6"/>
       <c r="F336" s="17"/>
       <c r="G336" s="17"/>
@@ -13693,8 +13699,8 @@
     <row r="337" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A337" s="6"/>
       <c r="B337" s="6"/>
-      <c r="C337" s="28"/>
-      <c r="D337" s="28"/>
+      <c r="C337" s="24"/>
+      <c r="D337" s="24"/>
       <c r="E337" s="6"/>
       <c r="F337" s="17"/>
       <c r="G337" s="17"/>
@@ -13720,8 +13726,8 @@
     <row r="338" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A338" s="6"/>
       <c r="B338" s="6"/>
-      <c r="C338" s="28"/>
-      <c r="D338" s="28"/>
+      <c r="C338" s="24"/>
+      <c r="D338" s="24"/>
       <c r="E338" s="6"/>
       <c r="F338" s="17"/>
       <c r="G338" s="17"/>
@@ -13747,8 +13753,8 @@
     <row r="339" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A339" s="6"/>
       <c r="B339" s="6"/>
-      <c r="C339" s="28"/>
-      <c r="D339" s="28"/>
+      <c r="C339" s="24"/>
+      <c r="D339" s="24"/>
       <c r="E339" s="6"/>
       <c r="F339" s="17"/>
       <c r="G339" s="17"/>
@@ -13774,8 +13780,8 @@
     <row r="340" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A340" s="6"/>
       <c r="B340" s="6"/>
-      <c r="C340" s="28"/>
-      <c r="D340" s="28"/>
+      <c r="C340" s="24"/>
+      <c r="D340" s="24"/>
       <c r="E340" s="6"/>
       <c r="F340" s="17"/>
       <c r="G340" s="17"/>
@@ -13801,8 +13807,8 @@
     <row r="341" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A341" s="6"/>
       <c r="B341" s="6"/>
-      <c r="C341" s="28"/>
-      <c r="D341" s="28"/>
+      <c r="C341" s="24"/>
+      <c r="D341" s="24"/>
       <c r="E341" s="6"/>
       <c r="F341" s="17"/>
       <c r="G341" s="17"/>
@@ -13828,8 +13834,8 @@
     <row r="342" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A342" s="6"/>
       <c r="B342" s="6"/>
-      <c r="C342" s="28"/>
-      <c r="D342" s="28"/>
+      <c r="C342" s="24"/>
+      <c r="D342" s="24"/>
       <c r="E342" s="6"/>
       <c r="F342" s="17"/>
       <c r="G342" s="17"/>
@@ -13855,8 +13861,8 @@
     <row r="343" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A343" s="6"/>
       <c r="B343" s="6"/>
-      <c r="C343" s="28"/>
-      <c r="D343" s="28"/>
+      <c r="C343" s="24"/>
+      <c r="D343" s="24"/>
       <c r="E343" s="6"/>
       <c r="F343" s="17"/>
       <c r="G343" s="17"/>
@@ -13882,8 +13888,8 @@
     <row r="344" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A344" s="6"/>
       <c r="B344" s="6"/>
-      <c r="C344" s="28"/>
-      <c r="D344" s="28"/>
+      <c r="C344" s="24"/>
+      <c r="D344" s="24"/>
       <c r="E344" s="6"/>
       <c r="F344" s="17"/>
       <c r="G344" s="17"/>
@@ -13909,8 +13915,8 @@
     <row r="345" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A345" s="6"/>
       <c r="B345" s="6"/>
-      <c r="C345" s="28"/>
-      <c r="D345" s="28"/>
+      <c r="C345" s="24"/>
+      <c r="D345" s="24"/>
       <c r="E345" s="6"/>
       <c r="F345" s="17"/>
       <c r="G345" s="17"/>
@@ -13936,8 +13942,8 @@
     <row r="346" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A346" s="6"/>
       <c r="B346" s="6"/>
-      <c r="C346" s="28"/>
-      <c r="D346" s="28"/>
+      <c r="C346" s="24"/>
+      <c r="D346" s="24"/>
       <c r="E346" s="6"/>
       <c r="F346" s="17"/>
       <c r="G346" s="17"/>
@@ -13963,8 +13969,8 @@
     <row r="347" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A347" s="6"/>
       <c r="B347" s="6"/>
-      <c r="C347" s="28"/>
-      <c r="D347" s="28"/>
+      <c r="C347" s="24"/>
+      <c r="D347" s="24"/>
       <c r="E347" s="6"/>
       <c r="F347" s="17"/>
       <c r="G347" s="17"/>
@@ -13990,8 +13996,8 @@
     <row r="348" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A348" s="6"/>
       <c r="B348" s="6"/>
-      <c r="C348" s="28"/>
-      <c r="D348" s="28"/>
+      <c r="C348" s="24"/>
+      <c r="D348" s="24"/>
       <c r="E348" s="6"/>
       <c r="F348" s="17"/>
       <c r="G348" s="17"/>
@@ -14017,8 +14023,8 @@
     <row r="349" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A349" s="6"/>
       <c r="B349" s="6"/>
-      <c r="C349" s="28"/>
-      <c r="D349" s="28"/>
+      <c r="C349" s="24"/>
+      <c r="D349" s="24"/>
       <c r="E349" s="6"/>
       <c r="F349" s="17"/>
       <c r="G349" s="17"/>
@@ -14044,8 +14050,8 @@
     <row r="350" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A350" s="6"/>
       <c r="B350" s="6"/>
-      <c r="C350" s="28"/>
-      <c r="D350" s="28"/>
+      <c r="C350" s="24"/>
+      <c r="D350" s="24"/>
       <c r="E350" s="6"/>
       <c r="F350" s="17"/>
       <c r="G350" s="17"/>
@@ -14071,8 +14077,8 @@
     <row r="351" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A351" s="6"/>
       <c r="B351" s="6"/>
-      <c r="C351" s="28"/>
-      <c r="D351" s="28"/>
+      <c r="C351" s="24"/>
+      <c r="D351" s="24"/>
       <c r="E351" s="6"/>
       <c r="F351" s="17"/>
       <c r="G351" s="17"/>
@@ -14098,8 +14104,8 @@
     <row r="352" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A352" s="6"/>
       <c r="B352" s="6"/>
-      <c r="C352" s="28"/>
-      <c r="D352" s="28"/>
+      <c r="C352" s="24"/>
+      <c r="D352" s="24"/>
       <c r="E352" s="6"/>
       <c r="F352" s="17"/>
       <c r="G352" s="17"/>
@@ -14125,8 +14131,8 @@
     <row r="353" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A353" s="6"/>
       <c r="B353" s="6"/>
-      <c r="C353" s="28"/>
-      <c r="D353" s="28"/>
+      <c r="C353" s="24"/>
+      <c r="D353" s="24"/>
       <c r="E353" s="6"/>
       <c r="F353" s="17"/>
       <c r="G353" s="17"/>
@@ -14152,8 +14158,8 @@
     <row r="354" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A354" s="6"/>
       <c r="B354" s="6"/>
-      <c r="C354" s="28"/>
-      <c r="D354" s="28"/>
+      <c r="C354" s="24"/>
+      <c r="D354" s="24"/>
       <c r="E354" s="6"/>
       <c r="F354" s="17"/>
       <c r="G354" s="17"/>
@@ -14179,8 +14185,8 @@
     <row r="355" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A355" s="6"/>
       <c r="B355" s="6"/>
-      <c r="C355" s="28"/>
-      <c r="D355" s="28"/>
+      <c r="C355" s="24"/>
+      <c r="D355" s="24"/>
       <c r="E355" s="6"/>
       <c r="F355" s="17"/>
       <c r="G355" s="17"/>
@@ -14206,8 +14212,8 @@
     <row r="356" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A356" s="6"/>
       <c r="B356" s="6"/>
-      <c r="C356" s="28"/>
-      <c r="D356" s="28"/>
+      <c r="C356" s="24"/>
+      <c r="D356" s="24"/>
       <c r="E356" s="6"/>
       <c r="F356" s="17"/>
       <c r="G356" s="17"/>
@@ -14233,8 +14239,8 @@
     <row r="357" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A357" s="6"/>
       <c r="B357" s="6"/>
-      <c r="C357" s="28"/>
-      <c r="D357" s="28"/>
+      <c r="C357" s="24"/>
+      <c r="D357" s="24"/>
       <c r="E357" s="6"/>
       <c r="F357" s="17"/>
       <c r="G357" s="17"/>
@@ -14260,8 +14266,8 @@
     <row r="358" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A358" s="6"/>
       <c r="B358" s="6"/>
-      <c r="C358" s="28"/>
-      <c r="D358" s="28"/>
+      <c r="C358" s="24"/>
+      <c r="D358" s="24"/>
       <c r="E358" s="6"/>
       <c r="F358" s="17"/>
       <c r="G358" s="17"/>
@@ -14287,8 +14293,8 @@
     <row r="359" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A359" s="6"/>
       <c r="B359" s="6"/>
-      <c r="C359" s="28"/>
-      <c r="D359" s="28"/>
+      <c r="C359" s="24"/>
+      <c r="D359" s="24"/>
       <c r="E359" s="6"/>
       <c r="F359" s="17"/>
       <c r="G359" s="17"/>
@@ -14314,8 +14320,8 @@
     <row r="360" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A360" s="6"/>
       <c r="B360" s="6"/>
-      <c r="C360" s="28"/>
-      <c r="D360" s="28"/>
+      <c r="C360" s="24"/>
+      <c r="D360" s="24"/>
       <c r="E360" s="6"/>
       <c r="F360" s="17"/>
       <c r="G360" s="17"/>
@@ -14341,8 +14347,8 @@
     <row r="361" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A361" s="6"/>
       <c r="B361" s="6"/>
-      <c r="C361" s="28"/>
-      <c r="D361" s="28"/>
+      <c r="C361" s="24"/>
+      <c r="D361" s="24"/>
       <c r="E361" s="6"/>
       <c r="F361" s="17"/>
       <c r="G361" s="17"/>
@@ -14368,8 +14374,8 @@
     <row r="362" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A362" s="6"/>
       <c r="B362" s="6"/>
-      <c r="C362" s="28"/>
-      <c r="D362" s="28"/>
+      <c r="C362" s="24"/>
+      <c r="D362" s="24"/>
       <c r="E362" s="6"/>
       <c r="F362" s="17"/>
       <c r="G362" s="17"/>
@@ -14395,8 +14401,8 @@
     <row r="363" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A363" s="6"/>
       <c r="B363" s="6"/>
-      <c r="C363" s="28"/>
-      <c r="D363" s="28"/>
+      <c r="C363" s="24"/>
+      <c r="D363" s="24"/>
       <c r="E363" s="6"/>
       <c r="F363" s="17"/>
       <c r="G363" s="17"/>
@@ -14422,8 +14428,8 @@
     <row r="364" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A364" s="6"/>
       <c r="B364" s="6"/>
-      <c r="C364" s="28"/>
-      <c r="D364" s="28"/>
+      <c r="C364" s="24"/>
+      <c r="D364" s="24"/>
       <c r="E364" s="6"/>
       <c r="F364" s="17"/>
       <c r="G364" s="17"/>
@@ -14449,8 +14455,8 @@
     <row r="365" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A365" s="6"/>
       <c r="B365" s="6"/>
-      <c r="C365" s="28"/>
-      <c r="D365" s="28"/>
+      <c r="C365" s="24"/>
+      <c r="D365" s="24"/>
       <c r="E365" s="6"/>
       <c r="F365" s="17"/>
       <c r="G365" s="17"/>
@@ -14476,8 +14482,8 @@
     <row r="366" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A366" s="6"/>
       <c r="B366" s="6"/>
-      <c r="C366" s="28"/>
-      <c r="D366" s="28"/>
+      <c r="C366" s="24"/>
+      <c r="D366" s="24"/>
       <c r="E366" s="6"/>
       <c r="F366" s="17"/>
       <c r="G366" s="17"/>
@@ -14503,8 +14509,8 @@
     <row r="367" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A367" s="6"/>
       <c r="B367" s="6"/>
-      <c r="C367" s="28"/>
-      <c r="D367" s="28"/>
+      <c r="C367" s="24"/>
+      <c r="D367" s="24"/>
       <c r="E367" s="6"/>
       <c r="F367" s="17"/>
       <c r="G367" s="17"/>
@@ -14530,8 +14536,8 @@
     <row r="368" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A368" s="6"/>
       <c r="B368" s="6"/>
-      <c r="C368" s="28"/>
-      <c r="D368" s="28"/>
+      <c r="C368" s="24"/>
+      <c r="D368" s="24"/>
       <c r="E368" s="6"/>
       <c r="F368" s="17"/>
       <c r="G368" s="17"/>
@@ -14557,8 +14563,8 @@
     <row r="369" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A369" s="6"/>
       <c r="B369" s="6"/>
-      <c r="C369" s="28"/>
-      <c r="D369" s="28"/>
+      <c r="C369" s="24"/>
+      <c r="D369" s="24"/>
       <c r="E369" s="6"/>
       <c r="F369" s="17"/>
       <c r="G369" s="17"/>
@@ -14584,8 +14590,8 @@
     <row r="370" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A370" s="6"/>
       <c r="B370" s="6"/>
-      <c r="C370" s="28"/>
-      <c r="D370" s="28"/>
+      <c r="C370" s="24"/>
+      <c r="D370" s="24"/>
       <c r="E370" s="6"/>
       <c r="F370" s="17"/>
       <c r="G370" s="17"/>
@@ -14611,8 +14617,8 @@
     <row r="371" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A371" s="6"/>
       <c r="B371" s="6"/>
-      <c r="C371" s="28"/>
-      <c r="D371" s="28"/>
+      <c r="C371" s="24"/>
+      <c r="D371" s="24"/>
       <c r="E371" s="6"/>
       <c r="F371" s="17"/>
       <c r="G371" s="17"/>
@@ -14638,8 +14644,8 @@
     <row r="372" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A372" s="6"/>
       <c r="B372" s="6"/>
-      <c r="C372" s="28"/>
-      <c r="D372" s="28"/>
+      <c r="C372" s="24"/>
+      <c r="D372" s="24"/>
       <c r="E372" s="6"/>
       <c r="F372" s="17"/>
       <c r="G372" s="17"/>
@@ -14665,8 +14671,8 @@
     <row r="373" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A373" s="6"/>
       <c r="B373" s="6"/>
-      <c r="C373" s="28"/>
-      <c r="D373" s="28"/>
+      <c r="C373" s="24"/>
+      <c r="D373" s="24"/>
       <c r="E373" s="6"/>
       <c r="F373" s="17"/>
       <c r="G373" s="17"/>
@@ -14692,8 +14698,8 @@
     <row r="374" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A374" s="6"/>
       <c r="B374" s="6"/>
-      <c r="C374" s="28"/>
-      <c r="D374" s="28"/>
+      <c r="C374" s="24"/>
+      <c r="D374" s="24"/>
       <c r="E374" s="6"/>
       <c r="F374" s="17"/>
       <c r="G374" s="17"/>
@@ -14719,8 +14725,8 @@
     <row r="375" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A375" s="6"/>
       <c r="B375" s="6"/>
-      <c r="C375" s="28"/>
-      <c r="D375" s="28"/>
+      <c r="C375" s="24"/>
+      <c r="D375" s="24"/>
       <c r="E375" s="6"/>
       <c r="F375" s="17"/>
       <c r="G375" s="17"/>
@@ -14746,8 +14752,8 @@
     <row r="376" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A376" s="6"/>
       <c r="B376" s="6"/>
-      <c r="C376" s="28"/>
-      <c r="D376" s="28"/>
+      <c r="C376" s="24"/>
+      <c r="D376" s="24"/>
       <c r="E376" s="6"/>
       <c r="F376" s="17"/>
       <c r="G376" s="17"/>
@@ -14773,8 +14779,8 @@
     <row r="377" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A377" s="6"/>
       <c r="B377" s="6"/>
-      <c r="C377" s="28"/>
-      <c r="D377" s="28"/>
+      <c r="C377" s="24"/>
+      <c r="D377" s="24"/>
       <c r="E377" s="6"/>
       <c r="F377" s="17"/>
       <c r="G377" s="17"/>
@@ -14800,8 +14806,8 @@
     <row r="378" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A378" s="6"/>
       <c r="B378" s="6"/>
-      <c r="C378" s="28"/>
-      <c r="D378" s="28"/>
+      <c r="C378" s="24"/>
+      <c r="D378" s="24"/>
       <c r="E378" s="6"/>
       <c r="F378" s="17"/>
       <c r="G378" s="17"/>
@@ -14827,8 +14833,8 @@
     <row r="379" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A379" s="6"/>
       <c r="B379" s="6"/>
-      <c r="C379" s="28"/>
-      <c r="D379" s="28"/>
+      <c r="C379" s="24"/>
+      <c r="D379" s="24"/>
       <c r="E379" s="6"/>
       <c r="F379" s="17"/>
       <c r="G379" s="17"/>
@@ -14854,8 +14860,8 @@
     <row r="380" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A380" s="6"/>
       <c r="B380" s="6"/>
-      <c r="C380" s="28"/>
-      <c r="D380" s="28"/>
+      <c r="C380" s="24"/>
+      <c r="D380" s="24"/>
       <c r="E380" s="6"/>
       <c r="F380" s="17"/>
       <c r="G380" s="17"/>
@@ -14881,8 +14887,8 @@
     <row r="381" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A381" s="6"/>
       <c r="B381" s="6"/>
-      <c r="C381" s="28"/>
-      <c r="D381" s="28"/>
+      <c r="C381" s="24"/>
+      <c r="D381" s="24"/>
       <c r="E381" s="6"/>
       <c r="F381" s="17"/>
       <c r="G381" s="17"/>
@@ -14908,8 +14914,8 @@
     <row r="382" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A382" s="6"/>
       <c r="B382" s="6"/>
-      <c r="C382" s="28"/>
-      <c r="D382" s="28"/>
+      <c r="C382" s="24"/>
+      <c r="D382" s="24"/>
       <c r="E382" s="6"/>
       <c r="F382" s="17"/>
       <c r="G382" s="17"/>
@@ -14935,8 +14941,8 @@
     <row r="383" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A383" s="6"/>
       <c r="B383" s="6"/>
-      <c r="C383" s="28"/>
-      <c r="D383" s="28"/>
+      <c r="C383" s="24"/>
+      <c r="D383" s="24"/>
       <c r="E383" s="6"/>
       <c r="F383" s="17"/>
       <c r="G383" s="17"/>
@@ -14962,8 +14968,8 @@
     <row r="384" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A384" s="6"/>
       <c r="B384" s="6"/>
-      <c r="C384" s="28"/>
-      <c r="D384" s="28"/>
+      <c r="C384" s="24"/>
+      <c r="D384" s="24"/>
       <c r="E384" s="6"/>
       <c r="F384" s="17"/>
       <c r="G384" s="17"/>
@@ -14989,8 +14995,8 @@
     <row r="385" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A385" s="6"/>
       <c r="B385" s="6"/>
-      <c r="C385" s="28"/>
-      <c r="D385" s="28"/>
+      <c r="C385" s="24"/>
+      <c r="D385" s="24"/>
       <c r="E385" s="6"/>
       <c r="F385" s="17"/>
       <c r="G385" s="17"/>
@@ -15016,8 +15022,8 @@
     <row r="386" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A386" s="6"/>
       <c r="B386" s="6"/>
-      <c r="C386" s="28"/>
-      <c r="D386" s="28"/>
+      <c r="C386" s="24"/>
+      <c r="D386" s="24"/>
       <c r="E386" s="6"/>
       <c r="F386" s="17"/>
       <c r="G386" s="17"/>
@@ -15043,8 +15049,8 @@
     <row r="387" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A387" s="6"/>
       <c r="B387" s="6"/>
-      <c r="C387" s="28"/>
-      <c r="D387" s="28"/>
+      <c r="C387" s="24"/>
+      <c r="D387" s="24"/>
       <c r="E387" s="6"/>
       <c r="F387" s="17"/>
       <c r="G387" s="17"/>
@@ -15070,8 +15076,8 @@
     <row r="388" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A388" s="6"/>
       <c r="B388" s="6"/>
-      <c r="C388" s="28"/>
-      <c r="D388" s="28"/>
+      <c r="C388" s="24"/>
+      <c r="D388" s="24"/>
       <c r="E388" s="6"/>
       <c r="F388" s="17"/>
       <c r="G388" s="17"/>
@@ -15097,8 +15103,8 @@
     <row r="389" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A389" s="6"/>
       <c r="B389" s="6"/>
-      <c r="C389" s="28"/>
-      <c r="D389" s="28"/>
+      <c r="C389" s="24"/>
+      <c r="D389" s="24"/>
       <c r="E389" s="6"/>
       <c r="F389" s="17"/>
       <c r="G389" s="17"/>
@@ -15124,8 +15130,8 @@
     <row r="390" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A390" s="6"/>
       <c r="B390" s="6"/>
-      <c r="C390" s="28"/>
-      <c r="D390" s="28"/>
+      <c r="C390" s="24"/>
+      <c r="D390" s="24"/>
       <c r="E390" s="6"/>
       <c r="F390" s="17"/>
       <c r="G390" s="17"/>
@@ -15151,8 +15157,8 @@
     <row r="391" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A391" s="6"/>
       <c r="B391" s="6"/>
-      <c r="C391" s="28"/>
-      <c r="D391" s="28"/>
+      <c r="C391" s="24"/>
+      <c r="D391" s="24"/>
       <c r="E391" s="6"/>
       <c r="F391" s="17"/>
       <c r="G391" s="17"/>
@@ -15178,8 +15184,8 @@
     <row r="392" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A392" s="6"/>
       <c r="B392" s="6"/>
-      <c r="C392" s="28"/>
-      <c r="D392" s="28"/>
+      <c r="C392" s="24"/>
+      <c r="D392" s="24"/>
       <c r="E392" s="6"/>
       <c r="F392" s="17"/>
       <c r="G392" s="17"/>
@@ -15205,8 +15211,8 @@
     <row r="393" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A393" s="6"/>
       <c r="B393" s="6"/>
-      <c r="C393" s="28"/>
-      <c r="D393" s="28"/>
+      <c r="C393" s="24"/>
+      <c r="D393" s="24"/>
       <c r="E393" s="6"/>
       <c r="F393" s="17"/>
       <c r="G393" s="17"/>
@@ -15232,8 +15238,8 @@
     <row r="394" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A394" s="6"/>
       <c r="B394" s="6"/>
-      <c r="C394" s="28"/>
-      <c r="D394" s="28"/>
+      <c r="C394" s="24"/>
+      <c r="D394" s="24"/>
       <c r="E394" s="6"/>
       <c r="F394" s="17"/>
       <c r="G394" s="17"/>
@@ -15259,8 +15265,8 @@
     <row r="395" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A395" s="6"/>
       <c r="B395" s="6"/>
-      <c r="C395" s="28"/>
-      <c r="D395" s="28"/>
+      <c r="C395" s="24"/>
+      <c r="D395" s="24"/>
       <c r="E395" s="6"/>
       <c r="F395" s="17"/>
       <c r="G395" s="17"/>
@@ -15286,8 +15292,8 @@
     <row r="396" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A396" s="6"/>
       <c r="B396" s="6"/>
-      <c r="C396" s="28"/>
-      <c r="D396" s="28"/>
+      <c r="C396" s="24"/>
+      <c r="D396" s="24"/>
       <c r="E396" s="6"/>
       <c r="F396" s="17"/>
       <c r="G396" s="17"/>
@@ -15313,8 +15319,8 @@
     <row r="397" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A397" s="6"/>
       <c r="B397" s="6"/>
-      <c r="C397" s="28"/>
-      <c r="D397" s="28"/>
+      <c r="C397" s="24"/>
+      <c r="D397" s="24"/>
       <c r="E397" s="6"/>
       <c r="F397" s="17"/>
       <c r="G397" s="17"/>
@@ -15340,8 +15346,8 @@
     <row r="398" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A398" s="6"/>
       <c r="B398" s="6"/>
-      <c r="C398" s="28"/>
-      <c r="D398" s="28"/>
+      <c r="C398" s="24"/>
+      <c r="D398" s="24"/>
       <c r="E398" s="6"/>
       <c r="F398" s="17"/>
       <c r="G398" s="17"/>
@@ -15367,8 +15373,8 @@
     <row r="399" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A399" s="6"/>
       <c r="B399" s="6"/>
-      <c r="C399" s="28"/>
-      <c r="D399" s="28"/>
+      <c r="C399" s="24"/>
+      <c r="D399" s="24"/>
       <c r="E399" s="6"/>
       <c r="F399" s="17"/>
       <c r="G399" s="17"/>
@@ -15394,8 +15400,8 @@
     <row r="400" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A400" s="6"/>
       <c r="B400" s="6"/>
-      <c r="C400" s="28"/>
-      <c r="D400" s="28"/>
+      <c r="C400" s="24"/>
+      <c r="D400" s="24"/>
       <c r="E400" s="6"/>
       <c r="F400" s="17"/>
       <c r="G400" s="17"/>
@@ -15421,8 +15427,8 @@
     <row r="401" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A401" s="6"/>
       <c r="B401" s="6"/>
-      <c r="C401" s="28"/>
-      <c r="D401" s="28"/>
+      <c r="C401" s="24"/>
+      <c r="D401" s="24"/>
       <c r="E401" s="6"/>
       <c r="F401" s="17"/>
       <c r="G401" s="17"/>
@@ -15448,8 +15454,8 @@
     <row r="402" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A402" s="6"/>
       <c r="B402" s="6"/>
-      <c r="C402" s="28"/>
-      <c r="D402" s="28"/>
+      <c r="C402" s="24"/>
+      <c r="D402" s="24"/>
       <c r="E402" s="6"/>
       <c r="F402" s="17"/>
       <c r="G402" s="17"/>
@@ -15475,8 +15481,8 @@
     <row r="403" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A403" s="6"/>
       <c r="B403" s="6"/>
-      <c r="C403" s="28"/>
-      <c r="D403" s="28"/>
+      <c r="C403" s="24"/>
+      <c r="D403" s="24"/>
       <c r="E403" s="6"/>
       <c r="F403" s="17"/>
       <c r="G403" s="17"/>
@@ -15502,8 +15508,8 @@
     <row r="404" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A404" s="6"/>
       <c r="B404" s="6"/>
-      <c r="C404" s="28"/>
-      <c r="D404" s="28"/>
+      <c r="C404" s="24"/>
+      <c r="D404" s="24"/>
       <c r="E404" s="6"/>
       <c r="F404" s="17"/>
       <c r="G404" s="17"/>
@@ -15529,8 +15535,8 @@
     <row r="405" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A405" s="6"/>
       <c r="B405" s="6"/>
-      <c r="C405" s="28"/>
-      <c r="D405" s="28"/>
+      <c r="C405" s="24"/>
+      <c r="D405" s="24"/>
       <c r="E405" s="6"/>
       <c r="F405" s="17"/>
       <c r="G405" s="17"/>
@@ -15556,8 +15562,8 @@
     <row r="406" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A406" s="6"/>
       <c r="B406" s="6"/>
-      <c r="C406" s="28"/>
-      <c r="D406" s="28"/>
+      <c r="C406" s="24"/>
+      <c r="D406" s="24"/>
       <c r="E406" s="6"/>
       <c r="F406" s="17"/>
       <c r="G406" s="17"/>
@@ -15583,8 +15589,8 @@
     <row r="407" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A407" s="6"/>
       <c r="B407" s="6"/>
-      <c r="C407" s="28"/>
-      <c r="D407" s="28"/>
+      <c r="C407" s="24"/>
+      <c r="D407" s="24"/>
       <c r="E407" s="6"/>
       <c r="F407" s="17"/>
       <c r="G407" s="17"/>
@@ -15610,8 +15616,8 @@
     <row r="408" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A408" s="6"/>
       <c r="B408" s="6"/>
-      <c r="C408" s="28"/>
-      <c r="D408" s="28"/>
+      <c r="C408" s="24"/>
+      <c r="D408" s="24"/>
       <c r="E408" s="6"/>
       <c r="F408" s="17"/>
       <c r="G408" s="17"/>
@@ -15637,8 +15643,8 @@
     <row r="409" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A409" s="6"/>
       <c r="B409" s="6"/>
-      <c r="C409" s="28"/>
-      <c r="D409" s="28"/>
+      <c r="C409" s="24"/>
+      <c r="D409" s="24"/>
       <c r="E409" s="6"/>
       <c r="F409" s="17"/>
       <c r="G409" s="17"/>
@@ -15664,8 +15670,8 @@
     <row r="410" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A410" s="6"/>
       <c r="B410" s="6"/>
-      <c r="C410" s="28"/>
-      <c r="D410" s="28"/>
+      <c r="C410" s="24"/>
+      <c r="D410" s="24"/>
       <c r="E410" s="6"/>
       <c r="F410" s="17"/>
       <c r="G410" s="17"/>
@@ -15691,8 +15697,8 @@
     <row r="411" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A411" s="6"/>
       <c r="B411" s="6"/>
-      <c r="C411" s="28"/>
-      <c r="D411" s="28"/>
+      <c r="C411" s="24"/>
+      <c r="D411" s="24"/>
       <c r="E411" s="6"/>
       <c r="F411" s="17"/>
       <c r="G411" s="17"/>
@@ -15718,8 +15724,8 @@
     <row r="412" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A412" s="6"/>
       <c r="B412" s="6"/>
-      <c r="C412" s="28"/>
-      <c r="D412" s="28"/>
+      <c r="C412" s="24"/>
+      <c r="D412" s="24"/>
       <c r="E412" s="6"/>
       <c r="F412" s="17"/>
       <c r="G412" s="17"/>
@@ -15745,8 +15751,8 @@
     <row r="413" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A413" s="6"/>
       <c r="B413" s="6"/>
-      <c r="C413" s="28"/>
-      <c r="D413" s="28"/>
+      <c r="C413" s="24"/>
+      <c r="D413" s="24"/>
       <c r="E413" s="6"/>
       <c r="F413" s="17"/>
       <c r="G413" s="17"/>
@@ -15772,8 +15778,8 @@
     <row r="414" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A414" s="6"/>
       <c r="B414" s="6"/>
-      <c r="C414" s="28"/>
-      <c r="D414" s="28"/>
+      <c r="C414" s="24"/>
+      <c r="D414" s="24"/>
       <c r="E414" s="6"/>
       <c r="F414" s="17"/>
       <c r="G414" s="17"/>
@@ -15799,8 +15805,8 @@
     <row r="415" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A415" s="6"/>
       <c r="B415" s="6"/>
-      <c r="C415" s="28"/>
-      <c r="D415" s="28"/>
+      <c r="C415" s="24"/>
+      <c r="D415" s="24"/>
       <c r="E415" s="6"/>
       <c r="F415" s="17"/>
       <c r="G415" s="17"/>
@@ -15826,8 +15832,8 @@
     <row r="416" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A416" s="6"/>
       <c r="B416" s="6"/>
-      <c r="C416" s="28"/>
-      <c r="D416" s="28"/>
+      <c r="C416" s="24"/>
+      <c r="D416" s="24"/>
       <c r="E416" s="6"/>
       <c r="F416" s="17"/>
       <c r="G416" s="17"/>
@@ -15853,8 +15859,8 @@
     <row r="417" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A417" s="6"/>
       <c r="B417" s="6"/>
-      <c r="C417" s="28"/>
-      <c r="D417" s="28"/>
+      <c r="C417" s="24"/>
+      <c r="D417" s="24"/>
       <c r="E417" s="6"/>
       <c r="F417" s="17"/>
       <c r="G417" s="17"/>
@@ -15880,8 +15886,8 @@
     <row r="418" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A418" s="6"/>
       <c r="B418" s="6"/>
-      <c r="C418" s="28"/>
-      <c r="D418" s="28"/>
+      <c r="C418" s="24"/>
+      <c r="D418" s="24"/>
       <c r="E418" s="6"/>
       <c r="F418" s="17"/>
       <c r="G418" s="17"/>
@@ -15907,8 +15913,8 @@
     <row r="419" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A419" s="6"/>
       <c r="B419" s="6"/>
-      <c r="C419" s="28"/>
-      <c r="D419" s="28"/>
+      <c r="C419" s="24"/>
+      <c r="D419" s="24"/>
       <c r="E419" s="6"/>
       <c r="F419" s="17"/>
       <c r="G419" s="17"/>
@@ -15934,8 +15940,8 @@
     <row r="420" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A420" s="6"/>
       <c r="B420" s="6"/>
-      <c r="C420" s="28"/>
-      <c r="D420" s="28"/>
+      <c r="C420" s="24"/>
+      <c r="D420" s="24"/>
       <c r="E420" s="6"/>
       <c r="F420" s="17"/>
       <c r="G420" s="17"/>
@@ -15961,8 +15967,8 @@
     <row r="421" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A421" s="6"/>
       <c r="B421" s="6"/>
-      <c r="C421" s="28"/>
-      <c r="D421" s="28"/>
+      <c r="C421" s="24"/>
+      <c r="D421" s="24"/>
       <c r="E421" s="6"/>
       <c r="F421" s="17"/>
       <c r="G421" s="17"/>
@@ -15988,8 +15994,8 @@
     <row r="422" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A422" s="6"/>
       <c r="B422" s="6"/>
-      <c r="C422" s="28"/>
-      <c r="D422" s="28"/>
+      <c r="C422" s="24"/>
+      <c r="D422" s="24"/>
       <c r="E422" s="6"/>
       <c r="F422" s="17"/>
       <c r="G422" s="17"/>
@@ -16015,8 +16021,8 @@
     <row r="423" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A423" s="6"/>
       <c r="B423" s="6"/>
-      <c r="C423" s="28"/>
-      <c r="D423" s="28"/>
+      <c r="C423" s="24"/>
+      <c r="D423" s="24"/>
       <c r="E423" s="6"/>
       <c r="F423" s="17"/>
       <c r="G423" s="17"/>
@@ -16042,8 +16048,8 @@
     <row r="424" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A424" s="6"/>
       <c r="B424" s="6"/>
-      <c r="C424" s="28"/>
-      <c r="D424" s="28"/>
+      <c r="C424" s="24"/>
+      <c r="D424" s="24"/>
       <c r="E424" s="6"/>
       <c r="F424" s="17"/>
       <c r="G424" s="17"/>
@@ -16069,8 +16075,8 @@
     <row r="425" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A425" s="6"/>
       <c r="B425" s="6"/>
-      <c r="C425" s="28"/>
-      <c r="D425" s="28"/>
+      <c r="C425" s="24"/>
+      <c r="D425" s="24"/>
       <c r="E425" s="6"/>
       <c r="F425" s="17"/>
       <c r="G425" s="17"/>
@@ -16096,8 +16102,8 @@
     <row r="426" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A426" s="6"/>
       <c r="B426" s="6"/>
-      <c r="C426" s="28"/>
-      <c r="D426" s="28"/>
+      <c r="C426" s="24"/>
+      <c r="D426" s="24"/>
       <c r="E426" s="6"/>
       <c r="F426" s="17"/>
       <c r="G426" s="17"/>
@@ -16123,8 +16129,8 @@
     <row r="427" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A427" s="6"/>
       <c r="B427" s="6"/>
-      <c r="C427" s="28"/>
-      <c r="D427" s="28"/>
+      <c r="C427" s="24"/>
+      <c r="D427" s="24"/>
       <c r="E427" s="6"/>
       <c r="F427" s="17"/>
       <c r="G427" s="17"/>
@@ -16150,8 +16156,8 @@
     <row r="428" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A428" s="6"/>
       <c r="B428" s="6"/>
-      <c r="C428" s="28"/>
-      <c r="D428" s="28"/>
+      <c r="C428" s="24"/>
+      <c r="D428" s="24"/>
       <c r="E428" s="6"/>
       <c r="F428" s="17"/>
       <c r="G428" s="17"/>
@@ -16177,8 +16183,8 @@
     <row r="429" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A429" s="6"/>
       <c r="B429" s="6"/>
-      <c r="C429" s="28"/>
-      <c r="D429" s="28"/>
+      <c r="C429" s="24"/>
+      <c r="D429" s="24"/>
       <c r="E429" s="6"/>
       <c r="F429" s="17"/>
       <c r="G429" s="17"/>
@@ -16204,8 +16210,8 @@
     <row r="430" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A430" s="6"/>
       <c r="B430" s="6"/>
-      <c r="C430" s="28"/>
-      <c r="D430" s="28"/>
+      <c r="C430" s="24"/>
+      <c r="D430" s="24"/>
       <c r="E430" s="6"/>
       <c r="F430" s="17"/>
       <c r="G430" s="17"/>
@@ -16231,8 +16237,8 @@
     <row r="431" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A431" s="6"/>
       <c r="B431" s="6"/>
-      <c r="C431" s="28"/>
-      <c r="D431" s="28"/>
+      <c r="C431" s="24"/>
+      <c r="D431" s="24"/>
       <c r="E431" s="6"/>
       <c r="F431" s="17"/>
       <c r="G431" s="17"/>
@@ -16258,8 +16264,8 @@
     <row r="432" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A432" s="6"/>
       <c r="B432" s="6"/>
-      <c r="C432" s="28"/>
-      <c r="D432" s="28"/>
+      <c r="C432" s="24"/>
+      <c r="D432" s="24"/>
       <c r="E432" s="6"/>
       <c r="F432" s="17"/>
       <c r="G432" s="17"/>
@@ -16285,8 +16291,8 @@
     <row r="433" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A433" s="6"/>
       <c r="B433" s="6"/>
-      <c r="C433" s="28"/>
-      <c r="D433" s="28"/>
+      <c r="C433" s="24"/>
+      <c r="D433" s="24"/>
       <c r="E433" s="6"/>
       <c r="F433" s="17"/>
       <c r="G433" s="17"/>
@@ -16312,8 +16318,8 @@
     <row r="434" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A434" s="6"/>
       <c r="B434" s="6"/>
-      <c r="C434" s="28"/>
-      <c r="D434" s="28"/>
+      <c r="C434" s="24"/>
+      <c r="D434" s="24"/>
       <c r="E434" s="6"/>
       <c r="F434" s="17"/>
       <c r="G434" s="17"/>
@@ -16339,8 +16345,8 @@
     <row r="435" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A435" s="6"/>
       <c r="B435" s="6"/>
-      <c r="C435" s="28"/>
-      <c r="D435" s="28"/>
+      <c r="C435" s="24"/>
+      <c r="D435" s="24"/>
       <c r="E435" s="6"/>
       <c r="F435" s="17"/>
       <c r="G435" s="17"/>
@@ -16366,8 +16372,8 @@
     <row r="436" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A436" s="6"/>
       <c r="B436" s="6"/>
-      <c r="C436" s="28"/>
-      <c r="D436" s="28"/>
+      <c r="C436" s="24"/>
+      <c r="D436" s="24"/>
       <c r="E436" s="6"/>
       <c r="F436" s="17"/>
       <c r="G436" s="17"/>
@@ -16393,8 +16399,8 @@
     <row r="437" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A437" s="6"/>
       <c r="B437" s="6"/>
-      <c r="C437" s="28"/>
-      <c r="D437" s="28"/>
+      <c r="C437" s="24"/>
+      <c r="D437" s="24"/>
       <c r="E437" s="6"/>
       <c r="F437" s="17"/>
       <c r="G437" s="17"/>
@@ -16420,8 +16426,8 @@
     <row r="438" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A438" s="6"/>
       <c r="B438" s="6"/>
-      <c r="C438" s="28"/>
-      <c r="D438" s="28"/>
+      <c r="C438" s="24"/>
+      <c r="D438" s="24"/>
       <c r="E438" s="6"/>
       <c r="F438" s="17"/>
       <c r="G438" s="17"/>
@@ -16447,8 +16453,8 @@
     <row r="439" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A439" s="6"/>
       <c r="B439" s="6"/>
-      <c r="C439" s="28"/>
-      <c r="D439" s="28"/>
+      <c r="C439" s="24"/>
+      <c r="D439" s="24"/>
       <c r="E439" s="6"/>
       <c r="F439" s="17"/>
       <c r="G439" s="17"/>
@@ -16474,8 +16480,8 @@
     <row r="440" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A440" s="6"/>
       <c r="B440" s="6"/>
-      <c r="C440" s="28"/>
-      <c r="D440" s="28"/>
+      <c r="C440" s="24"/>
+      <c r="D440" s="24"/>
       <c r="E440" s="6"/>
       <c r="F440" s="17"/>
       <c r="G440" s="17"/>
@@ -16501,8 +16507,8 @@
     <row r="441" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A441" s="6"/>
       <c r="B441" s="6"/>
-      <c r="C441" s="28"/>
-      <c r="D441" s="28"/>
+      <c r="C441" s="24"/>
+      <c r="D441" s="24"/>
       <c r="E441" s="6"/>
       <c r="F441" s="17"/>
       <c r="G441" s="17"/>
@@ -16528,8 +16534,8 @@
     <row r="442" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A442" s="6"/>
       <c r="B442" s="6"/>
-      <c r="C442" s="28"/>
-      <c r="D442" s="28"/>
+      <c r="C442" s="24"/>
+      <c r="D442" s="24"/>
       <c r="E442" s="6"/>
       <c r="F442" s="17"/>
       <c r="G442" s="17"/>
@@ -16555,8 +16561,8 @@
     <row r="443" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A443" s="6"/>
       <c r="B443" s="6"/>
-      <c r="C443" s="28"/>
-      <c r="D443" s="28"/>
+      <c r="C443" s="24"/>
+      <c r="D443" s="24"/>
       <c r="E443" s="6"/>
       <c r="F443" s="17"/>
       <c r="G443" s="17"/>
@@ -16582,8 +16588,8 @@
     <row r="444" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A444" s="6"/>
       <c r="B444" s="6"/>
-      <c r="C444" s="28"/>
-      <c r="D444" s="28"/>
+      <c r="C444" s="24"/>
+      <c r="D444" s="24"/>
       <c r="E444" s="6"/>
       <c r="F444" s="17"/>
       <c r="G444" s="17"/>
@@ -16609,8 +16615,8 @@
     <row r="445" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A445" s="6"/>
       <c r="B445" s="6"/>
-      <c r="C445" s="28"/>
-      <c r="D445" s="28"/>
+      <c r="C445" s="24"/>
+      <c r="D445" s="24"/>
       <c r="E445" s="6"/>
       <c r="F445" s="17"/>
       <c r="G445" s="17"/>
@@ -16636,8 +16642,8 @@
     <row r="446" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A446" s="6"/>
       <c r="B446" s="6"/>
-      <c r="C446" s="28"/>
-      <c r="D446" s="28"/>
+      <c r="C446" s="24"/>
+      <c r="D446" s="24"/>
       <c r="E446" s="6"/>
       <c r="F446" s="17"/>
       <c r="G446" s="17"/>
@@ -16663,8 +16669,8 @@
     <row r="447" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A447" s="6"/>
       <c r="B447" s="6"/>
-      <c r="C447" s="28"/>
-      <c r="D447" s="28"/>
+      <c r="C447" s="24"/>
+      <c r="D447" s="24"/>
       <c r="E447" s="6"/>
       <c r="F447" s="17"/>
       <c r="G447" s="17"/>
@@ -16690,8 +16696,8 @@
     <row r="448" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A448" s="6"/>
       <c r="B448" s="6"/>
-      <c r="C448" s="28"/>
-      <c r="D448" s="28"/>
+      <c r="C448" s="24"/>
+      <c r="D448" s="24"/>
       <c r="E448" s="6"/>
       <c r="F448" s="17"/>
       <c r="G448" s="17"/>
@@ -16717,8 +16723,8 @@
     <row r="449" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A449" s="6"/>
       <c r="B449" s="6"/>
-      <c r="C449" s="28"/>
-      <c r="D449" s="28"/>
+      <c r="C449" s="24"/>
+      <c r="D449" s="24"/>
       <c r="E449" s="6"/>
       <c r="F449" s="17"/>
       <c r="G449" s="17"/>
@@ -16744,8 +16750,8 @@
     <row r="450" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A450" s="6"/>
       <c r="B450" s="6"/>
-      <c r="C450" s="28"/>
-      <c r="D450" s="28"/>
+      <c r="C450" s="24"/>
+      <c r="D450" s="24"/>
       <c r="E450" s="6"/>
       <c r="F450" s="17"/>
       <c r="G450" s="17"/>
@@ -16771,8 +16777,8 @@
     <row r="451" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A451" s="6"/>
       <c r="B451" s="6"/>
-      <c r="C451" s="28"/>
-      <c r="D451" s="28"/>
+      <c r="C451" s="24"/>
+      <c r="D451" s="24"/>
       <c r="E451" s="6"/>
       <c r="F451" s="17"/>
       <c r="G451" s="17"/>
@@ -16798,8 +16804,8 @@
     <row r="452" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A452" s="6"/>
       <c r="B452" s="6"/>
-      <c r="C452" s="28"/>
-      <c r="D452" s="28"/>
+      <c r="C452" s="24"/>
+      <c r="D452" s="24"/>
       <c r="E452" s="6"/>
       <c r="F452" s="17"/>
       <c r="G452" s="17"/>
@@ -16825,8 +16831,8 @@
     <row r="453" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A453" s="6"/>
       <c r="B453" s="6"/>
-      <c r="C453" s="28"/>
-      <c r="D453" s="28"/>
+      <c r="C453" s="24"/>
+      <c r="D453" s="24"/>
       <c r="E453" s="6"/>
       <c r="F453" s="17"/>
       <c r="G453" s="17"/>
@@ -16852,8 +16858,8 @@
     <row r="454" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A454" s="6"/>
       <c r="B454" s="6"/>
-      <c r="C454" s="28"/>
-      <c r="D454" s="28"/>
+      <c r="C454" s="24"/>
+      <c r="D454" s="24"/>
       <c r="E454" s="6"/>
       <c r="F454" s="17"/>
       <c r="G454" s="17"/>
@@ -16879,8 +16885,8 @@
     <row r="455" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A455" s="6"/>
       <c r="B455" s="6"/>
-      <c r="C455" s="28"/>
-      <c r="D455" s="28"/>
+      <c r="C455" s="24"/>
+      <c r="D455" s="24"/>
       <c r="E455" s="6"/>
       <c r="F455" s="17"/>
       <c r="G455" s="17"/>
@@ -16906,8 +16912,8 @@
     <row r="456" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A456" s="6"/>
       <c r="B456" s="6"/>
-      <c r="C456" s="28"/>
-      <c r="D456" s="28"/>
+      <c r="C456" s="24"/>
+      <c r="D456" s="24"/>
       <c r="E456" s="6"/>
       <c r="F456" s="17"/>
       <c r="G456" s="17"/>
@@ -16933,8 +16939,8 @@
     <row r="457" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A457" s="6"/>
       <c r="B457" s="6"/>
-      <c r="C457" s="28"/>
-      <c r="D457" s="28"/>
+      <c r="C457" s="24"/>
+      <c r="D457" s="24"/>
       <c r="E457" s="6"/>
       <c r="F457" s="17"/>
       <c r="G457" s="17"/>
@@ -16960,8 +16966,8 @@
     <row r="458" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A458" s="6"/>
       <c r="B458" s="6"/>
-      <c r="C458" s="28"/>
-      <c r="D458" s="28"/>
+      <c r="C458" s="24"/>
+      <c r="D458" s="24"/>
       <c r="E458" s="6"/>
       <c r="F458" s="17"/>
       <c r="G458" s="17"/>
@@ -16987,8 +16993,8 @@
     <row r="459" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A459" s="6"/>
       <c r="B459" s="6"/>
-      <c r="C459" s="28"/>
-      <c r="D459" s="28"/>
+      <c r="C459" s="24"/>
+      <c r="D459" s="24"/>
       <c r="E459" s="6"/>
       <c r="F459" s="17"/>
       <c r="G459" s="17"/>
@@ -17014,8 +17020,8 @@
     <row r="460" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A460" s="6"/>
       <c r="B460" s="6"/>
-      <c r="C460" s="28"/>
-      <c r="D460" s="28"/>
+      <c r="C460" s="24"/>
+      <c r="D460" s="24"/>
       <c r="E460" s="6"/>
       <c r="F460" s="17"/>
       <c r="G460" s="17"/>
@@ -17041,8 +17047,8 @@
     <row r="461" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A461" s="6"/>
       <c r="B461" s="6"/>
-      <c r="C461" s="28"/>
-      <c r="D461" s="28"/>
+      <c r="C461" s="24"/>
+      <c r="D461" s="24"/>
       <c r="E461" s="6"/>
       <c r="F461" s="17"/>
       <c r="G461" s="17"/>
@@ -17068,8 +17074,8 @@
     <row r="462" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A462" s="6"/>
       <c r="B462" s="6"/>
-      <c r="C462" s="28"/>
-      <c r="D462" s="28"/>
+      <c r="C462" s="24"/>
+      <c r="D462" s="24"/>
       <c r="E462" s="6"/>
       <c r="F462" s="17"/>
       <c r="G462" s="17"/>
@@ -17095,8 +17101,8 @@
     <row r="463" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A463" s="6"/>
       <c r="B463" s="6"/>
-      <c r="C463" s="28"/>
-      <c r="D463" s="28"/>
+      <c r="C463" s="24"/>
+      <c r="D463" s="24"/>
       <c r="E463" s="6"/>
       <c r="F463" s="17"/>
       <c r="G463" s="17"/>
@@ -17122,8 +17128,8 @@
     <row r="464" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A464" s="6"/>
       <c r="B464" s="6"/>
-      <c r="C464" s="28"/>
-      <c r="D464" s="28"/>
+      <c r="C464" s="24"/>
+      <c r="D464" s="24"/>
       <c r="E464" s="6"/>
       <c r="F464" s="17"/>
       <c r="G464" s="17"/>
@@ -17149,8 +17155,8 @@
     <row r="465" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A465" s="6"/>
       <c r="B465" s="6"/>
-      <c r="C465" s="28"/>
-      <c r="D465" s="28"/>
+      <c r="C465" s="24"/>
+      <c r="D465" s="24"/>
       <c r="E465" s="6"/>
       <c r="F465" s="17"/>
       <c r="G465" s="17"/>
@@ -17176,8 +17182,8 @@
     <row r="466" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A466" s="6"/>
       <c r="B466" s="6"/>
-      <c r="C466" s="28"/>
-      <c r="D466" s="28"/>
+      <c r="C466" s="24"/>
+      <c r="D466" s="24"/>
       <c r="E466" s="6"/>
       <c r="F466" s="17"/>
       <c r="G466" s="17"/>
@@ -17203,8 +17209,8 @@
     <row r="467" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A467" s="6"/>
       <c r="B467" s="6"/>
-      <c r="C467" s="28"/>
-      <c r="D467" s="28"/>
+      <c r="C467" s="24"/>
+      <c r="D467" s="24"/>
       <c r="E467" s="6"/>
       <c r="F467" s="17"/>
       <c r="G467" s="17"/>
@@ -17230,8 +17236,8 @@
     <row r="468" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A468" s="6"/>
       <c r="B468" s="6"/>
-      <c r="C468" s="28"/>
-      <c r="D468" s="28"/>
+      <c r="C468" s="24"/>
+      <c r="D468" s="24"/>
       <c r="E468" s="6"/>
       <c r="F468" s="17"/>
       <c r="G468" s="17"/>
@@ -17257,8 +17263,8 @@
     <row r="469" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A469" s="6"/>
       <c r="B469" s="6"/>
-      <c r="C469" s="28"/>
-      <c r="D469" s="28"/>
+      <c r="C469" s="24"/>
+      <c r="D469" s="24"/>
       <c r="E469" s="6"/>
       <c r="F469" s="17"/>
       <c r="G469" s="17"/>
@@ -17284,8 +17290,8 @@
     <row r="470" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A470" s="6"/>
       <c r="B470" s="6"/>
-      <c r="C470" s="28"/>
-      <c r="D470" s="28"/>
+      <c r="C470" s="24"/>
+      <c r="D470" s="24"/>
       <c r="E470" s="6"/>
       <c r="F470" s="17"/>
       <c r="G470" s="17"/>
@@ -17311,8 +17317,8 @@
     <row r="471" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A471" s="6"/>
       <c r="B471" s="6"/>
-      <c r="C471" s="28"/>
-      <c r="D471" s="28"/>
+      <c r="C471" s="24"/>
+      <c r="D471" s="24"/>
       <c r="E471" s="6"/>
       <c r="F471" s="17"/>
       <c r="G471" s="17"/>
@@ -17338,8 +17344,8 @@
     <row r="472" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A472" s="6"/>
       <c r="B472" s="6"/>
-      <c r="C472" s="28"/>
-      <c r="D472" s="28"/>
+      <c r="C472" s="24"/>
+      <c r="D472" s="24"/>
       <c r="E472" s="6"/>
       <c r="F472" s="17"/>
       <c r="G472" s="17"/>
@@ -17365,8 +17371,8 @@
     <row r="473" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A473" s="6"/>
       <c r="B473" s="6"/>
-      <c r="C473" s="28"/>
-      <c r="D473" s="28"/>
+      <c r="C473" s="24"/>
+      <c r="D473" s="24"/>
       <c r="E473" s="6"/>
       <c r="F473" s="17"/>
       <c r="G473" s="17"/>
@@ -17392,8 +17398,8 @@
     <row r="474" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A474" s="6"/>
       <c r="B474" s="6"/>
-      <c r="C474" s="28"/>
-      <c r="D474" s="28"/>
+      <c r="C474" s="24"/>
+      <c r="D474" s="24"/>
       <c r="E474" s="6"/>
       <c r="F474" s="17"/>
       <c r="G474" s="17"/>
@@ -17419,8 +17425,8 @@
     <row r="475" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A475" s="6"/>
       <c r="B475" s="6"/>
-      <c r="C475" s="28"/>
-      <c r="D475" s="28"/>
+      <c r="C475" s="24"/>
+      <c r="D475" s="24"/>
       <c r="E475" s="6"/>
       <c r="F475" s="17"/>
       <c r="G475" s="17"/>
@@ -17446,8 +17452,8 @@
     <row r="476" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A476" s="6"/>
       <c r="B476" s="6"/>
-      <c r="C476" s="28"/>
-      <c r="D476" s="28"/>
+      <c r="C476" s="24"/>
+      <c r="D476" s="24"/>
       <c r="E476" s="6"/>
       <c r="F476" s="17"/>
       <c r="G476" s="17"/>
@@ -17473,8 +17479,8 @@
     <row r="477" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A477" s="6"/>
       <c r="B477" s="6"/>
-      <c r="C477" s="28"/>
-      <c r="D477" s="28"/>
+      <c r="C477" s="24"/>
+      <c r="D477" s="24"/>
       <c r="E477" s="6"/>
       <c r="F477" s="17"/>
       <c r="G477" s="17"/>
@@ -17500,8 +17506,8 @@
     <row r="478" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A478" s="6"/>
       <c r="B478" s="6"/>
-      <c r="C478" s="28"/>
-      <c r="D478" s="28"/>
+      <c r="C478" s="24"/>
+      <c r="D478" s="24"/>
       <c r="E478" s="6"/>
       <c r="F478" s="17"/>
       <c r="G478" s="17"/>
@@ -17527,8 +17533,8 @@
     <row r="479" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A479" s="6"/>
       <c r="B479" s="6"/>
-      <c r="C479" s="28"/>
-      <c r="D479" s="28"/>
+      <c r="C479" s="24"/>
+      <c r="D479" s="24"/>
       <c r="E479" s="6"/>
       <c r="F479" s="17"/>
       <c r="G479" s="17"/>
@@ -17554,8 +17560,8 @@
     <row r="480" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A480" s="6"/>
       <c r="B480" s="6"/>
-      <c r="C480" s="28"/>
-      <c r="D480" s="28"/>
+      <c r="C480" s="24"/>
+      <c r="D480" s="24"/>
       <c r="E480" s="6"/>
       <c r="F480" s="17"/>
       <c r="G480" s="17"/>
@@ -17581,8 +17587,8 @@
     <row r="481" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A481" s="6"/>
       <c r="B481" s="6"/>
-      <c r="C481" s="28"/>
-      <c r="D481" s="28"/>
+      <c r="C481" s="24"/>
+      <c r="D481" s="24"/>
       <c r="E481" s="6"/>
       <c r="F481" s="17"/>
       <c r="G481" s="17"/>
@@ -17608,8 +17614,8 @@
     <row r="482" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A482" s="6"/>
       <c r="B482" s="6"/>
-      <c r="C482" s="28"/>
-      <c r="D482" s="28"/>
+      <c r="C482" s="24"/>
+      <c r="D482" s="24"/>
       <c r="E482" s="6"/>
       <c r="F482" s="17"/>
       <c r="G482" s="17"/>
@@ -17635,8 +17641,8 @@
     <row r="483" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A483" s="6"/>
       <c r="B483" s="6"/>
-      <c r="C483" s="28"/>
-      <c r="D483" s="28"/>
+      <c r="C483" s="24"/>
+      <c r="D483" s="24"/>
       <c r="E483" s="6"/>
       <c r="F483" s="17"/>
       <c r="G483" s="17"/>
@@ -17662,8 +17668,8 @@
     <row r="484" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A484" s="6"/>
       <c r="B484" s="6"/>
-      <c r="C484" s="28"/>
-      <c r="D484" s="28"/>
+      <c r="C484" s="24"/>
+      <c r="D484" s="24"/>
       <c r="E484" s="6"/>
       <c r="F484" s="17"/>
       <c r="G484" s="17"/>
@@ -17689,8 +17695,8 @@
     <row r="485" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A485" s="6"/>
       <c r="B485" s="6"/>
-      <c r="C485" s="28"/>
-      <c r="D485" s="28"/>
+      <c r="C485" s="24"/>
+      <c r="D485" s="24"/>
       <c r="E485" s="6"/>
       <c r="F485" s="17"/>
       <c r="G485" s="17"/>
@@ -17716,8 +17722,8 @@
     <row r="486" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A486" s="6"/>
       <c r="B486" s="6"/>
-      <c r="C486" s="28"/>
-      <c r="D486" s="28"/>
+      <c r="C486" s="24"/>
+      <c r="D486" s="24"/>
       <c r="E486" s="6"/>
       <c r="F486" s="17"/>
       <c r="G486" s="17"/>
@@ -17743,8 +17749,8 @@
     <row r="487" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A487" s="6"/>
       <c r="B487" s="6"/>
-      <c r="C487" s="28"/>
-      <c r="D487" s="28"/>
+      <c r="C487" s="24"/>
+      <c r="D487" s="24"/>
       <c r="E487" s="6"/>
       <c r="F487" s="17"/>
       <c r="G487" s="17"/>
@@ -17770,8 +17776,8 @@
     <row r="488" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A488" s="6"/>
       <c r="B488" s="6"/>
-      <c r="C488" s="28"/>
-      <c r="D488" s="28"/>
+      <c r="C488" s="24"/>
+      <c r="D488" s="24"/>
       <c r="E488" s="6"/>
       <c r="F488" s="17"/>
       <c r="G488" s="17"/>
@@ -17797,8 +17803,8 @@
     <row r="489" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A489" s="6"/>
       <c r="B489" s="6"/>
-      <c r="C489" s="28"/>
-      <c r="D489" s="28"/>
+      <c r="C489" s="24"/>
+      <c r="D489" s="24"/>
       <c r="E489" s="6"/>
       <c r="F489" s="17"/>
       <c r="G489" s="17"/>
@@ -17824,8 +17830,8 @@
     <row r="490" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A490" s="6"/>
       <c r="B490" s="6"/>
-      <c r="C490" s="28"/>
-      <c r="D490" s="28"/>
+      <c r="C490" s="24"/>
+      <c r="D490" s="24"/>
       <c r="E490" s="6"/>
       <c r="F490" s="17"/>
       <c r="G490" s="17"/>
@@ -17851,8 +17857,8 @@
     <row r="491" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A491" s="6"/>
       <c r="B491" s="6"/>
-      <c r="C491" s="28"/>
-      <c r="D491" s="28"/>
+      <c r="C491" s="24"/>
+      <c r="D491" s="24"/>
       <c r="E491" s="6"/>
       <c r="F491" s="17"/>
       <c r="G491" s="17"/>
@@ -17878,8 +17884,8 @@
     <row r="492" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A492" s="6"/>
       <c r="B492" s="6"/>
-      <c r="C492" s="28"/>
-      <c r="D492" s="28"/>
+      <c r="C492" s="24"/>
+      <c r="D492" s="24"/>
       <c r="E492" s="6"/>
       <c r="F492" s="17"/>
       <c r="G492" s="17"/>
@@ -17905,8 +17911,8 @@
     <row r="493" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A493" s="6"/>
       <c r="B493" s="6"/>
-      <c r="C493" s="28"/>
-      <c r="D493" s="28"/>
+      <c r="C493" s="24"/>
+      <c r="D493" s="24"/>
       <c r="E493" s="6"/>
       <c r="F493" s="17"/>
       <c r="G493" s="17"/>
@@ -17932,8 +17938,8 @@
     <row r="494" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A494" s="6"/>
       <c r="B494" s="6"/>
-      <c r="C494" s="28"/>
-      <c r="D494" s="28"/>
+      <c r="C494" s="24"/>
+      <c r="D494" s="24"/>
       <c r="E494" s="6"/>
       <c r="F494" s="17"/>
       <c r="G494" s="17"/>
@@ -17959,8 +17965,8 @@
     <row r="495" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A495" s="6"/>
       <c r="B495" s="6"/>
-      <c r="C495" s="28"/>
-      <c r="D495" s="28"/>
+      <c r="C495" s="24"/>
+      <c r="D495" s="24"/>
       <c r="E495" s="6"/>
       <c r="F495" s="17"/>
       <c r="G495" s="17"/>
@@ -17986,8 +17992,8 @@
     <row r="496" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A496" s="6"/>
       <c r="B496" s="6"/>
-      <c r="C496" s="28"/>
-      <c r="D496" s="28"/>
+      <c r="C496" s="24"/>
+      <c r="D496" s="24"/>
       <c r="E496" s="6"/>
       <c r="F496" s="17"/>
       <c r="G496" s="17"/>
@@ -18013,8 +18019,8 @@
     <row r="497" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A497" s="6"/>
       <c r="B497" s="6"/>
-      <c r="C497" s="28"/>
-      <c r="D497" s="28"/>
+      <c r="C497" s="24"/>
+      <c r="D497" s="24"/>
       <c r="E497" s="6"/>
       <c r="F497" s="17"/>
       <c r="G497" s="17"/>
@@ -18040,8 +18046,8 @@
     <row r="498" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A498" s="6"/>
       <c r="B498" s="6"/>
-      <c r="C498" s="28"/>
-      <c r="D498" s="28"/>
+      <c r="C498" s="24"/>
+      <c r="D498" s="24"/>
       <c r="E498" s="6"/>
       <c r="F498" s="17"/>
       <c r="G498" s="17"/>
@@ -18067,8 +18073,8 @@
     <row r="499" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A499" s="6"/>
       <c r="B499" s="6"/>
-      <c r="C499" s="28"/>
-      <c r="D499" s="28"/>
+      <c r="C499" s="24"/>
+      <c r="D499" s="24"/>
       <c r="E499" s="6"/>
       <c r="F499" s="17"/>
       <c r="G499" s="17"/>

--- a/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
+++ b/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="9495" yWindow="1065" windowWidth="18615" windowHeight="10380"/>
+    <workbookView xWindow="1290" yWindow="1020" windowWidth="18615" windowHeight="10380" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="照明サンプル_斉藤主査_20120216" sheetId="1" r:id="rId1"/>
+    <sheet name="簡易" sheetId="2" r:id="rId1"/>
+    <sheet name="詳細" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="744" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="72">
   <si>
     <t>室の仕様</t>
   </si>
@@ -191,112 +192,19 @@
     <phoneticPr fontId="18"/>
   </si>
   <si>
-    <t>B1F</t>
-  </si>
-  <si>
-    <t>受水槽室</t>
-  </si>
-  <si>
-    <t>電気・機械室（標準）</t>
-  </si>
-  <si>
-    <t>機械室</t>
-  </si>
-  <si>
-    <t>発電機室</t>
-  </si>
-  <si>
-    <t>電気室</t>
-  </si>
-  <si>
-    <t>電気・機械室（高発熱）</t>
-  </si>
-  <si>
-    <t>MDF室</t>
-  </si>
-  <si>
     <t>更衣室等</t>
-  </si>
-  <si>
-    <t>書庫</t>
-  </si>
-  <si>
-    <t>倉庫1</t>
-  </si>
-  <si>
-    <t>倉庫2</t>
-  </si>
-  <si>
-    <t>便所</t>
   </si>
   <si>
     <t>トイレ</t>
   </si>
   <si>
-    <t>湯沸ｺｰﾅｰ</t>
-  </si>
-  <si>
     <t>湯沸室等</t>
-  </si>
-  <si>
-    <t>ｼｬﾜｰ室</t>
-  </si>
-  <si>
-    <t>更衣室</t>
-  </si>
-  <si>
-    <t>消火ﾎﾟﾝﾌﾟ室</t>
-  </si>
-  <si>
-    <t>倉庫3</t>
   </si>
   <si>
     <t>1F</t>
   </si>
   <si>
-    <t>有</t>
-  </si>
-  <si>
-    <t>男子便所</t>
-  </si>
-  <si>
-    <t>女子便所</t>
-  </si>
-  <si>
-    <t>多目的便所</t>
-  </si>
-  <si>
     <t>2F</t>
-  </si>
-  <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>4F</t>
-  </si>
-  <si>
-    <t>5F</t>
-  </si>
-  <si>
-    <t>6F</t>
-  </si>
-  <si>
-    <t>7F</t>
-  </si>
-  <si>
-    <t>8F</t>
-  </si>
-  <si>
-    <t>9F</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>PHF</t>
-  </si>
-  <si>
-    <t>EV機械室</t>
   </si>
   <si>
     <t xml:space="preserve"> </t>
@@ -379,9 +287,6 @@
     <t>送風機</t>
   </si>
   <si>
-    <t>冷房</t>
-  </si>
-  <si>
     <t>冷凍能力</t>
     <rPh sb="0" eb="2">
       <t>レイトウ</t>
@@ -416,118 +321,7 @@
     <t>Office</t>
   </si>
   <si>
-    <t>FS-ER-BF</t>
-  </si>
-  <si>
-    <t>Supply</t>
-  </si>
-  <si>
-    <t>FS-GE-BF</t>
-  </si>
-  <si>
-    <t>FS-MR-BF</t>
-  </si>
-  <si>
-    <t>FS-MDF-BF</t>
-  </si>
-  <si>
-    <t>FS-FP-BF</t>
-  </si>
-  <si>
-    <t>非常用EV機械室</t>
-  </si>
-  <si>
-    <t>FS-EV2-RF</t>
-  </si>
-  <si>
-    <t>FS-EV1-RF</t>
-  </si>
-  <si>
-    <t>OAC-RS-9F</t>
-  </si>
-  <si>
-    <t>FE-WC1-1･･8F</t>
-  </si>
-  <si>
     <t>Exist</t>
-  </si>
-  <si>
-    <t>FE-WC2-1･･8F</t>
-  </si>
-  <si>
-    <t>FE-HW-1･･8F</t>
-  </si>
-  <si>
-    <t>FE-ST-1･･8F</t>
-  </si>
-  <si>
-    <t>FE-WC1-9F</t>
-  </si>
-  <si>
-    <t>FE-WC2-9F</t>
-  </si>
-  <si>
-    <t>FE-HW-9F</t>
-  </si>
-  <si>
-    <t>FE-ST-9F</t>
-  </si>
-  <si>
-    <t>FE-ST1-BF</t>
-  </si>
-  <si>
-    <t>FE-ST2-BF</t>
-  </si>
-  <si>
-    <t>FE-ST3-BF</t>
-  </si>
-  <si>
-    <t>FE-WC-BF</t>
-  </si>
-  <si>
-    <t>FE-SW-BF</t>
-  </si>
-  <si>
-    <t>FE-LC-BF</t>
-  </si>
-  <si>
-    <t>温度制御</t>
-  </si>
-  <si>
-    <t>FE-ER-BF</t>
-  </si>
-  <si>
-    <t>ACP-ER-BF-1</t>
-  </si>
-  <si>
-    <t>ACP-ER-BF-2</t>
-  </si>
-  <si>
-    <t>FE-GE-BF</t>
-  </si>
-  <si>
-    <t>FE-MR-BF</t>
-  </si>
-  <si>
-    <t>FE-MDF-BF</t>
-  </si>
-  <si>
-    <t>ACP-MDF-BF</t>
-  </si>
-  <si>
-    <t>FE-FP-BF</t>
-  </si>
-  <si>
-    <t>FE-EV2-RF</t>
-  </si>
-  <si>
-    <t>FE-EV1-RF</t>
-  </si>
-  <si>
-    <t>ACP-KT-9F</t>
-  </si>
-  <si>
-    <t>FE-RT-9F</t>
   </si>
   <si>
     <t>[kW]</t>
@@ -592,6 +386,59 @@
     <rPh sb="4" eb="6">
       <t>セイギョ</t>
     </rPh>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>トイレ(男）</t>
+  </si>
+  <si>
+    <t>FE-4</t>
+  </si>
+  <si>
+    <t>トイレ(女）</t>
+  </si>
+  <si>
+    <t>湯沸</t>
+  </si>
+  <si>
+    <t>FE-5</t>
+  </si>
+  <si>
+    <t>FE-6</t>
+  </si>
+  <si>
+    <t>更衣･休憩(男）</t>
+  </si>
+  <si>
+    <t>FE-7</t>
+  </si>
+  <si>
+    <t>更衣･休憩(女）</t>
+  </si>
+  <si>
+    <t>FE-8</t>
+  </si>
+  <si>
+    <t>評価値</t>
+  </si>
+  <si>
+    <t>基準値</t>
+  </si>
+  <si>
+    <t>[MWh/m2/年]</t>
+  </si>
+  <si>
+    <t>[MJ/年]</t>
+  </si>
+  <si>
+    <t>[MJ/m2/年]</t>
+  </si>
+  <si>
+    <t>[MWh/年]</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>BEI</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1343,7 +1190,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1433,6 +1280,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1776,13 +1629,109 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
+    <col min="2" max="5" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" s="11" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B5" s="31">
+        <v>3.45746666666667</v>
+      </c>
+      <c r="C5" s="31">
+        <v>5.8235921621469899E-2</v>
+      </c>
+      <c r="D5" s="31">
+        <v>33744.874666666699</v>
+      </c>
+      <c r="E5" s="31">
+        <v>568.38259502554604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="31">
+        <v>0.750862305555556</v>
+      </c>
+      <c r="C6" s="31">
+        <v>1.26471670128947E-2</v>
+      </c>
+      <c r="D6" s="31">
+        <v>7328.4161022222197</v>
+      </c>
+      <c r="E6" s="31">
+        <v>123.436350045852</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="31">
+        <f>E5/E6</f>
+        <v>4.6046613887595766</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q15:Q16"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1801,7 +1750,7 @@
   <sheetData>
     <row r="1" spans="1:25" s="11" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C1" s="20"/>
       <c r="D1" s="20"/>
@@ -1816,7 +1765,7 @@
       <c r="D2" s="26"/>
       <c r="E2" s="26"/>
       <c r="F2" s="27" t="s">
-        <v>117</v>
+        <v>48</v>
       </c>
       <c r="G2" s="28"/>
       <c r="H2" s="28"/>
@@ -1860,7 +1809,7 @@
         <v>19</v>
       </c>
       <c r="F3" s="22" t="s">
-        <v>118</v>
+        <v>49</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>7</v>
@@ -1925,7 +1874,7 @@
         <v>2</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>116</v>
+        <v>47</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
@@ -1934,31 +1883,31 @@
         <v>4</v>
       </c>
       <c r="F4" s="22" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="L4" s="3" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>75</v>
+        <v>43</v>
       </c>
       <c r="O4" s="4" t="s">
         <v>23</v>
@@ -1967,19 +1916,19 @@
         <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="R4" s="3" t="s">
-        <v>67</v>
+        <v>36</v>
       </c>
       <c r="S4" s="3" t="s">
-        <v>123</v>
+        <v>54</v>
       </c>
       <c r="T4" s="4" t="s">
         <v>16</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>68</v>
+        <v>37</v>
       </c>
       <c r="V4" s="4" t="s">
         <v>8</v>
@@ -2003,22 +1952,22 @@
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
       <c r="I5" s="8" t="s">
-        <v>121</v>
+        <v>52</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>115</v>
+        <v>46</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="L5" s="9" t="s">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="M5" s="9" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>119</v>
+        <v>50</v>
       </c>
       <c r="O5" s="10" t="s">
         <v>22</v>
@@ -2047,503 +1996,565 @@
     </row>
     <row r="6" spans="1:25" ht="27.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>30</v>
+        <v>55</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D6" s="24" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E6" s="6">
-        <v>79.8</v>
+        <v>5.17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G6" s="17" t="s">
-        <v>77</v>
+        <v>56</v>
       </c>
       <c r="H6" s="17" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I6" s="6">
-        <v>2190</v>
+        <v>340</v>
       </c>
       <c r="J6" s="6">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
       <c r="M6" s="6"/>
       <c r="N6" s="6"/>
       <c r="O6" s="7">
-        <v>9.3985000000000003</v>
+        <v>29.013500000000001</v>
       </c>
       <c r="P6" s="7">
-        <v>11.1111</v>
+        <v>5.5556000000000001</v>
       </c>
       <c r="Q6" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="T6" s="18">
         <v>1</v>
       </c>
       <c r="U6" s="6">
-        <v>8760</v>
+        <v>3133</v>
       </c>
       <c r="V6" s="15">
-        <v>85497.600000000006</v>
+        <v>6115.616</v>
       </c>
       <c r="W6" s="15">
-        <v>75807.872000000003</v>
+        <v>878.2704</v>
       </c>
       <c r="X6" s="16">
-        <v>26.829799999999999</v>
+        <v>6.9631999999999996</v>
       </c>
       <c r="Y6" s="19"/>
     </row>
     <row r="7" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="6"/>
+      <c r="A7" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6.5</v>
+      </c>
       <c r="F7" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G7" s="17" t="s">
-        <v>103</v>
+        <v>56</v>
       </c>
       <c r="H7" s="17" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I7" s="6">
-        <v>2190</v>
+        <v>340</v>
       </c>
       <c r="J7" s="6">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
       <c r="N7" s="6"/>
       <c r="O7" s="7">
-        <v>9.3985000000000003</v>
-      </c>
-      <c r="P7" s="7"/>
+        <v>23.076899999999998</v>
+      </c>
+      <c r="P7" s="7">
+        <v>5.5556000000000001</v>
+      </c>
       <c r="Q7" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R7" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S7" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="T7" s="18">
         <v>1</v>
       </c>
-      <c r="U7" s="6"/>
+      <c r="U7" s="6">
+        <v>3133</v>
+      </c>
       <c r="V7" s="15">
-        <v>85497.600000000006</v>
-      </c>
-      <c r="W7" s="15"/>
-      <c r="X7" s="16"/>
+        <v>6115.616</v>
+      </c>
+      <c r="W7" s="15">
+        <v>1104.2084</v>
+      </c>
+      <c r="X7" s="16">
+        <v>5.5385</v>
+      </c>
       <c r="Y7" s="19"/>
     </row>
     <row r="8" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="6"/>
-      <c r="B8" s="6"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="6"/>
+      <c r="A8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.73</v>
+      </c>
       <c r="F8" s="17" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G8" s="17" t="s">
-        <v>104</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6">
-        <v>20</v>
-      </c>
-      <c r="L8" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I8" s="6">
+        <v>200</v>
+      </c>
+      <c r="J8" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="7">
-        <v>136.5231</v>
-      </c>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="17"/>
-      <c r="R8" s="17"/>
-      <c r="S8" s="17"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="6"/>
+        <v>36.630000000000003</v>
+      </c>
+      <c r="P8" s="7">
+        <v>2.7778</v>
+      </c>
+      <c r="Q8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" s="18">
+        <v>1</v>
+      </c>
+      <c r="U8" s="6">
+        <v>2000</v>
+      </c>
       <c r="V8" s="15">
-        <v>931457.48950000003</v>
-      </c>
-      <c r="W8" s="15"/>
-      <c r="X8" s="16"/>
+        <v>2602.6667000000002</v>
+      </c>
+      <c r="W8" s="15">
+        <v>148.02670000000001</v>
+      </c>
+      <c r="X8" s="16">
+        <v>17.5824</v>
+      </c>
       <c r="Y8" s="19"/>
     </row>
     <row r="9" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="6"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="6"/>
+      <c r="A9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="6">
+        <v>8.4600000000000009</v>
+      </c>
       <c r="F9" s="17" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
       <c r="G9" s="17" t="s">
-        <v>105</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6">
-        <v>20</v>
-      </c>
-      <c r="L9" s="6">
-        <v>3.3</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0.78</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" s="6">
+        <v>560</v>
+      </c>
+      <c r="J9" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
       <c r="O9" s="7">
-        <v>136.5231</v>
-      </c>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="17"/>
-      <c r="R9" s="17"/>
-      <c r="S9" s="17"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="6"/>
+        <v>17.730499999999999</v>
+      </c>
+      <c r="P9" s="7">
+        <v>5.5556000000000001</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S9" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T9" s="18">
+        <v>1</v>
+      </c>
+      <c r="U9" s="6">
+        <v>3133</v>
+      </c>
       <c r="V9" s="15">
-        <v>931457.48950000003</v>
-      </c>
-      <c r="W9" s="15"/>
-      <c r="X9" s="16"/>
+        <v>6115.616</v>
+      </c>
+      <c r="W9" s="15">
+        <v>1437.1697999999999</v>
+      </c>
+      <c r="X9" s="16">
+        <v>4.2553000000000001</v>
+      </c>
       <c r="Y9" s="19"/>
     </row>
     <row r="10" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>29</v>
+        <v>57</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>76</v>
+        <v>44</v>
       </c>
       <c r="D10" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="6">
-        <v>70.2</v>
+        <v>8.8000000000000007</v>
       </c>
       <c r="F10" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G10" s="17" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="H10" s="17" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I10" s="6">
-        <v>1650</v>
+        <v>560</v>
       </c>
       <c r="J10" s="6">
-        <v>0.75</v>
+        <v>0.15</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="7">
-        <v>10.6838</v>
+        <v>17.045500000000001</v>
       </c>
       <c r="P10" s="7">
         <v>5.5556000000000001</v>
       </c>
       <c r="Q10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="R10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="S10" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10" s="18">
+        <v>1</v>
+      </c>
+      <c r="U10" s="6">
+        <v>3133</v>
+      </c>
+      <c r="V10" s="15">
+        <v>6115.616</v>
+      </c>
+      <c r="W10" s="15">
+        <v>1494.9284</v>
+      </c>
+      <c r="X10" s="16">
+        <v>4.0909000000000004</v>
+      </c>
+      <c r="Y10" s="19"/>
+    </row>
+    <row r="11" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="R10" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S10" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T10" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U10" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V10" s="15">
-        <v>59848.32</v>
-      </c>
-      <c r="W10" s="15">
-        <v>33344.063999999998</v>
-      </c>
-      <c r="X10" s="16">
-        <v>2.7521</v>
-      </c>
-      <c r="Y10" s="19"/>
-    </row>
-    <row r="11" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="6"/>
+      <c r="C11" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>11.85</v>
+      </c>
       <c r="F11" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G11" s="17" t="s">
-        <v>106</v>
+        <v>62</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I11" s="6">
-        <v>1650</v>
+        <v>100</v>
       </c>
       <c r="J11" s="6">
-        <v>0.4</v>
+        <v>0.05</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7">
-        <v>5.6980000000000004</v>
-      </c>
-      <c r="P11" s="7"/>
+        <v>4.2194000000000003</v>
+      </c>
+      <c r="P11" s="7">
+        <v>2.7778</v>
+      </c>
       <c r="Q11" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R11" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S11" s="17" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="T11" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U11" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="6">
+        <v>3133</v>
+      </c>
       <c r="V11" s="15">
-        <v>31919.103999999999</v>
-      </c>
-      <c r="W11" s="15"/>
-      <c r="X11" s="16"/>
+        <v>2038.5387000000001</v>
+      </c>
+      <c r="W11" s="15">
+        <v>1006.5285</v>
+      </c>
+      <c r="X11" s="16">
+        <v>2.0253000000000001</v>
+      </c>
       <c r="Y11" s="19"/>
     </row>
     <row r="12" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>27</v>
-      </c>
       <c r="E12" s="6">
-        <v>238.5</v>
+        <v>13</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G12" s="17" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>78</v>
+        <v>45</v>
       </c>
       <c r="I12" s="6">
-        <v>3110</v>
+        <v>100</v>
       </c>
       <c r="J12" s="6">
-        <v>1.5</v>
+        <v>0.05</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7">
-        <v>6.2892999999999999</v>
+        <v>3.8462000000000001</v>
       </c>
       <c r="P12" s="7">
-        <v>5.5556000000000001</v>
+        <v>2.7778</v>
       </c>
       <c r="Q12" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R12" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S12" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="T12" s="18">
         <v>1</v>
       </c>
       <c r="U12" s="6">
-        <v>8760</v>
+        <v>3133</v>
       </c>
       <c r="V12" s="15">
-        <v>170995.20000000001</v>
+        <v>2038.5387000000001</v>
       </c>
       <c r="W12" s="15">
-        <v>113284.32</v>
+        <v>1104.2084</v>
       </c>
       <c r="X12" s="16">
-        <v>2.2642000000000002</v>
+        <v>1.8462000000000001</v>
       </c>
       <c r="Y12" s="19"/>
     </row>
     <row r="13" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="6"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="6"/>
+      <c r="A13" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="6">
+        <v>2.86</v>
+      </c>
       <c r="F13" s="17" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G13" s="17" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>88</v>
+        <v>45</v>
       </c>
       <c r="I13" s="6">
-        <v>3110</v>
+        <v>200</v>
       </c>
       <c r="J13" s="6">
-        <v>0.75</v>
+        <v>0.1</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
       <c r="N13" s="6"/>
       <c r="O13" s="7">
-        <v>3.1446999999999998</v>
-      </c>
-      <c r="P13" s="7"/>
+        <v>34.965000000000003</v>
+      </c>
+      <c r="P13" s="7">
+        <v>2.7778</v>
+      </c>
       <c r="Q13" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="R13" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="S13" s="17" t="s">
-        <v>61</v>
+        <v>30</v>
       </c>
       <c r="T13" s="18">
         <v>1</v>
       </c>
-      <c r="U13" s="6"/>
+      <c r="U13" s="6">
+        <v>2000</v>
+      </c>
       <c r="V13" s="15">
-        <v>85497.600000000006</v>
-      </c>
-      <c r="W13" s="15"/>
-      <c r="X13" s="16"/>
+        <v>2602.6667000000002</v>
+      </c>
+      <c r="W13" s="15">
+        <v>155.07560000000001</v>
+      </c>
+      <c r="X13" s="16">
+        <v>16.783200000000001</v>
+      </c>
       <c r="Y13" s="19"/>
     </row>
     <row r="14" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="6">
-        <v>91.2</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="17" t="s">
-        <v>80</v>
-      </c>
-      <c r="H14" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I14" s="6">
-        <v>3110</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="A14" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="17"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
       <c r="N14" s="6"/>
-      <c r="O14" s="7">
-        <v>16.447399999999998</v>
-      </c>
-      <c r="P14" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S14" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T14" s="18">
-        <v>1</v>
-      </c>
-      <c r="U14" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V14" s="15">
-        <v>170995.20000000001</v>
-      </c>
-      <c r="W14" s="15">
-        <v>43318.784</v>
-      </c>
-      <c r="X14" s="16">
-        <v>5.9211</v>
-      </c>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="17"/>
+      <c r="R14" s="17"/>
+      <c r="S14" s="17"/>
+      <c r="T14" s="18"/>
+      <c r="U14" s="6"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="15"/>
+      <c r="X14" s="16"/>
       <c r="Y14" s="19"/>
     </row>
     <row r="15" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2552,114 +2563,52 @@
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="6"/>
-      <c r="F15" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G15" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="H15" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I15" s="6">
-        <v>3110</v>
-      </c>
-      <c r="J15" s="6">
-        <v>0.75</v>
-      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
-      <c r="O15" s="7">
-        <v>8.2236999999999991</v>
-      </c>
+      <c r="O15" s="7"/>
       <c r="P15" s="7"/>
-      <c r="Q15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S15" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T15" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q15" s="17"/>
+      <c r="R15" s="17"/>
+      <c r="S15" s="17"/>
+      <c r="T15" s="18"/>
       <c r="U15" s="6"/>
-      <c r="V15" s="15">
-        <v>85497.600000000006</v>
-      </c>
+      <c r="V15" s="15"/>
       <c r="W15" s="15"/>
       <c r="X15" s="16"/>
       <c r="Y15" s="19"/>
     </row>
     <row r="16" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" s="6">
-        <v>21.8</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="6">
-        <v>650</v>
-      </c>
-      <c r="J16" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="A16" s="6"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="17"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
-      <c r="O16" s="7">
-        <v>18.348600000000001</v>
-      </c>
-      <c r="P16" s="7">
-        <v>11.1111</v>
-      </c>
-      <c r="Q16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S16" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T16" s="18">
-        <v>1</v>
-      </c>
-      <c r="U16" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V16" s="15">
-        <v>45598.720000000001</v>
-      </c>
-      <c r="W16" s="15">
-        <v>20709.418699999998</v>
-      </c>
-      <c r="X16" s="16">
-        <v>14.680400000000001</v>
-      </c>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="17"/>
+      <c r="R16" s="17"/>
+      <c r="S16" s="17"/>
+      <c r="T16" s="18"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="15"/>
+      <c r="W16" s="15"/>
+      <c r="X16" s="16"/>
       <c r="Y16" s="19"/>
     </row>
     <row r="17" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2668,45 +2617,23 @@
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="6"/>
-      <c r="F17" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>108</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I17" s="6">
-        <v>650</v>
-      </c>
-      <c r="J17" s="6">
-        <v>0.15</v>
-      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="17"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
       <c r="K17" s="6"/>
       <c r="L17" s="6"/>
       <c r="M17" s="6"/>
       <c r="N17" s="6"/>
-      <c r="O17" s="7">
-        <v>6.8807</v>
-      </c>
+      <c r="O17" s="7"/>
       <c r="P17" s="7"/>
-      <c r="Q17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S17" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T17" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="18"/>
       <c r="U17" s="6"/>
-      <c r="V17" s="15">
-        <v>17099.52</v>
-      </c>
+      <c r="V17" s="15"/>
       <c r="W17" s="15"/>
       <c r="X17" s="16"/>
       <c r="Y17" s="19"/>
@@ -2717,108 +2644,52 @@
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="6"/>
-      <c r="F18" s="17" t="s">
-        <v>71</v>
-      </c>
-      <c r="G18" s="17" t="s">
-        <v>109</v>
-      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
       <c r="H18" s="17"/>
       <c r="I18" s="6"/>
       <c r="J18" s="6"/>
-      <c r="K18" s="6">
-        <v>5</v>
-      </c>
-      <c r="L18" s="6">
-        <v>3.1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0.15</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="7">
-        <v>129.47620000000001</v>
-      </c>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="7"/>
       <c r="P18" s="7"/>
       <c r="Q18" s="17"/>
       <c r="R18" s="17"/>
       <c r="S18" s="17"/>
       <c r="T18" s="18"/>
       <c r="U18" s="6"/>
-      <c r="V18" s="15">
-        <v>241323.87100000001</v>
-      </c>
+      <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="16"/>
       <c r="Y18" s="19"/>
     </row>
     <row r="19" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="C19" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="6">
-        <v>15</v>
-      </c>
-      <c r="F19" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G19" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="H19" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I19" s="6">
-        <v>430</v>
-      </c>
-      <c r="J19" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A19" s="6"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
+      <c r="H19" s="17"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
       <c r="L19" s="6"/>
       <c r="M19" s="6"/>
       <c r="N19" s="6"/>
-      <c r="O19" s="7">
-        <v>6.6666999999999996</v>
-      </c>
-      <c r="P19" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S19" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T19" s="18">
-        <v>1</v>
-      </c>
-      <c r="U19" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V19" s="15">
-        <v>11399.68</v>
-      </c>
-      <c r="W19" s="15">
-        <v>7124.8</v>
-      </c>
-      <c r="X19" s="16">
-        <v>3.2</v>
-      </c>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="17"/>
+      <c r="R19" s="17"/>
+      <c r="S19" s="17"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="6"/>
+      <c r="V19" s="15"/>
+      <c r="W19" s="15"/>
+      <c r="X19" s="16"/>
       <c r="Y19" s="19"/>
     </row>
     <row r="20" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2827,114 +2698,52 @@
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="6"/>
-      <c r="F20" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G20" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="H20" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I20" s="6">
-        <v>430</v>
-      </c>
-      <c r="J20" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
       <c r="N20" s="6"/>
-      <c r="O20" s="7">
-        <v>6.6666999999999996</v>
-      </c>
+      <c r="O20" s="7"/>
       <c r="P20" s="7"/>
-      <c r="Q20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S20" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T20" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q20" s="17"/>
+      <c r="R20" s="17"/>
+      <c r="S20" s="17"/>
+      <c r="T20" s="18"/>
       <c r="U20" s="6"/>
-      <c r="V20" s="15">
-        <v>11399.68</v>
-      </c>
+      <c r="V20" s="15"/>
       <c r="W20" s="15"/>
       <c r="X20" s="16"/>
       <c r="Y20" s="19"/>
     </row>
     <row r="21" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="6">
-        <v>28.8</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H21" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I21" s="6">
-        <v>2100</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="A21" s="6"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
       <c r="N21" s="6"/>
-      <c r="O21" s="7">
-        <v>52.083300000000001</v>
-      </c>
-      <c r="P21" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S21" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T21" s="18">
-        <v>1</v>
-      </c>
-      <c r="U21" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V21" s="15">
-        <v>170995.20000000001</v>
-      </c>
-      <c r="W21" s="15">
-        <v>13679.616</v>
-      </c>
-      <c r="X21" s="16">
-        <v>15.833299999999999</v>
-      </c>
+      <c r="O21" s="7"/>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="17"/>
+      <c r="R21" s="17"/>
+      <c r="S21" s="17"/>
+      <c r="T21" s="18"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="15"/>
+      <c r="W21" s="15"/>
+      <c r="X21" s="16"/>
       <c r="Y21" s="19"/>
     </row>
     <row r="22" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2943,114 +2752,52 @@
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="6"/>
-      <c r="F22" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G22" s="17" t="s">
-        <v>111</v>
-      </c>
-      <c r="H22" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I22" s="6">
-        <v>2100</v>
-      </c>
-      <c r="J22" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
       <c r="L22" s="6"/>
       <c r="M22" s="6"/>
       <c r="N22" s="6"/>
-      <c r="O22" s="7">
-        <v>13.8889</v>
-      </c>
+      <c r="O22" s="7"/>
       <c r="P22" s="7"/>
-      <c r="Q22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S22" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T22" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q22" s="17"/>
+      <c r="R22" s="17"/>
+      <c r="S22" s="17"/>
+      <c r="T22" s="18"/>
       <c r="U22" s="6"/>
-      <c r="V22" s="15">
-        <v>45598.720000000001</v>
-      </c>
+      <c r="V22" s="15"/>
       <c r="W22" s="15"/>
       <c r="X22" s="16"/>
       <c r="Y22" s="19"/>
     </row>
     <row r="23" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C23" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="6">
-        <v>48</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G23" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="H23" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I23" s="6">
-        <v>6200</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1.5</v>
-      </c>
+      <c r="A23" s="6"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
       <c r="N23" s="6"/>
-      <c r="O23" s="7">
-        <v>31.25</v>
-      </c>
-      <c r="P23" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R23" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S23" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T23" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U23" s="6">
-        <v>8760</v>
-      </c>
-      <c r="V23" s="15">
-        <v>119696.64</v>
-      </c>
-      <c r="W23" s="15">
-        <v>22799.360000000001</v>
-      </c>
-      <c r="X23" s="16">
-        <v>6.65</v>
-      </c>
+      <c r="O23" s="7"/>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="17"/>
+      <c r="R23" s="17"/>
+      <c r="S23" s="17"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="15"/>
+      <c r="W23" s="15"/>
+      <c r="X23" s="16"/>
       <c r="Y23" s="19"/>
     </row>
     <row r="24" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3059,114 +2806,52 @@
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="6"/>
-      <c r="F24" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G24" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="H24" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I24" s="6">
-        <v>6200</v>
-      </c>
-      <c r="J24" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
       <c r="N24" s="6"/>
-      <c r="O24" s="7">
-        <v>8.3332999999999995</v>
-      </c>
+      <c r="O24" s="7"/>
       <c r="P24" s="7"/>
-      <c r="Q24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R24" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S24" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T24" s="18">
-        <v>0.7</v>
-      </c>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="17"/>
+      <c r="T24" s="18"/>
       <c r="U24" s="6"/>
-      <c r="V24" s="15">
-        <v>31919.103999999999</v>
-      </c>
+      <c r="V24" s="15"/>
       <c r="W24" s="15"/>
       <c r="X24" s="16"/>
       <c r="Y24" s="19"/>
     </row>
     <row r="25" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="C25" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="E25" s="6">
-        <v>102.6</v>
-      </c>
-      <c r="F25" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G25" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="H25" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I25" s="6">
-        <v>11400</v>
-      </c>
-      <c r="J25" s="6">
-        <v>11</v>
-      </c>
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
       <c r="K25" s="6"/>
       <c r="L25" s="6"/>
       <c r="M25" s="6"/>
       <c r="N25" s="6"/>
-      <c r="O25" s="7">
-        <v>107.21250000000001</v>
-      </c>
-      <c r="P25" s="7">
-        <v>138.88890000000001</v>
-      </c>
-      <c r="Q25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R25" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S25" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T25" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U25" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V25" s="15">
-        <v>200405.3333</v>
-      </c>
-      <c r="W25" s="15">
-        <v>278160</v>
-      </c>
-      <c r="X25" s="16">
-        <v>1.0809</v>
-      </c>
+      <c r="O25" s="7"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="17"/>
+      <c r="R25" s="17"/>
+      <c r="S25" s="17"/>
+      <c r="T25" s="18"/>
+      <c r="U25" s="6"/>
+      <c r="V25" s="15"/>
+      <c r="W25" s="15"/>
+      <c r="X25" s="16"/>
       <c r="Y25" s="19"/>
     </row>
     <row r="26" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -3175,45 +2860,23 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="6"/>
-      <c r="F26" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G26" s="17" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="17" t="s">
-        <v>78</v>
-      </c>
-      <c r="I26" s="6">
-        <v>1920</v>
-      </c>
-      <c r="J26" s="6">
-        <v>0.16</v>
-      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
       <c r="K26" s="6"/>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
-      <c r="O26" s="7">
-        <v>1.5595000000000001</v>
-      </c>
+      <c r="O26" s="7"/>
       <c r="P26" s="7"/>
-      <c r="Q26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R26" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="S26" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T26" s="18">
-        <v>0.95</v>
-      </c>
+      <c r="Q26" s="17"/>
+      <c r="R26" s="17"/>
+      <c r="S26" s="17"/>
+      <c r="T26" s="18"/>
       <c r="U26" s="6"/>
-      <c r="V26" s="15">
-        <v>3956.0533</v>
-      </c>
+      <c r="V26" s="15"/>
       <c r="W26" s="15"/>
       <c r="X26" s="16"/>
       <c r="Y26" s="19"/>
@@ -3224,3531 +2887,1429 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="6"/>
-      <c r="F27" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I27" s="6">
-        <v>11400</v>
-      </c>
-      <c r="J27" s="6">
-        <v>3.7</v>
-      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
       <c r="K27" s="6"/>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="7">
-        <v>36.062399999999997</v>
-      </c>
+      <c r="O27" s="7"/>
       <c r="P27" s="7"/>
-      <c r="Q27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S27" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T27" s="18">
-        <v>1</v>
-      </c>
+      <c r="Q27" s="17"/>
+      <c r="R27" s="17"/>
+      <c r="S27" s="17"/>
+      <c r="T27" s="18"/>
       <c r="U27" s="6"/>
-      <c r="V27" s="15">
-        <v>96298.666700000002</v>
-      </c>
+      <c r="V27" s="15"/>
       <c r="W27" s="15"/>
       <c r="X27" s="16"/>
       <c r="Y27" s="19"/>
     </row>
     <row r="28" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I28" s="6">
-        <v>580</v>
-      </c>
-      <c r="J28" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A28" s="6"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P28" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R28" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S28" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T28" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U28" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V28" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W28" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X28" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O28" s="7"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="6"/>
+      <c r="V28" s="15"/>
+      <c r="W28" s="15"/>
+      <c r="X28" s="16"/>
       <c r="Y28" s="19"/>
     </row>
     <row r="29" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F29" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G29" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I29" s="6">
-        <v>580</v>
-      </c>
-      <c r="J29" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17"/>
+      <c r="H29" s="17"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
       <c r="K29" s="6"/>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P29" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R29" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S29" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T29" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U29" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V29" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W29" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X29" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O29" s="7"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="6"/>
+      <c r="V29" s="15"/>
+      <c r="W29" s="15"/>
+      <c r="X29" s="16"/>
       <c r="Y29" s="19"/>
     </row>
     <row r="30" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G30" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I30" s="6">
-        <v>580</v>
-      </c>
-      <c r="J30" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="17"/>
+      <c r="H30" s="17"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
       <c r="K30" s="6"/>
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P30" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R30" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S30" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T30" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U30" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V30" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W30" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X30" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="17"/>
+      <c r="R30" s="17"/>
+      <c r="S30" s="17"/>
+      <c r="T30" s="18"/>
+      <c r="U30" s="6"/>
+      <c r="V30" s="15"/>
+      <c r="W30" s="15"/>
+      <c r="X30" s="16"/>
       <c r="Y30" s="19"/>
     </row>
     <row r="31" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G31" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I31" s="6">
-        <v>580</v>
-      </c>
-      <c r="J31" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
       <c r="K31" s="6"/>
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P31" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R31" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S31" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T31" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U31" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V31" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W31" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X31" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="18"/>
+      <c r="U31" s="6"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+      <c r="X31" s="16"/>
       <c r="Y31" s="19"/>
     </row>
     <row r="32" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C32" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E32" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G32" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I32" s="6">
-        <v>580</v>
-      </c>
-      <c r="J32" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
       <c r="K32" s="6"/>
       <c r="L32" s="6"/>
       <c r="M32" s="6"/>
       <c r="N32" s="6"/>
-      <c r="O32" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P32" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R32" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S32" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T32" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U32" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V32" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W32" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X32" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="6"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+      <c r="X32" s="16"/>
       <c r="Y32" s="19"/>
     </row>
     <row r="33" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C33" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G33" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H33" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I33" s="6">
-        <v>580</v>
-      </c>
-      <c r="J33" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A33" s="6"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="6"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
       <c r="K33" s="6"/>
       <c r="L33" s="6"/>
       <c r="M33" s="6"/>
       <c r="N33" s="6"/>
-      <c r="O33" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P33" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R33" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S33" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T33" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U33" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V33" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W33" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X33" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="18"/>
+      <c r="U33" s="6"/>
+      <c r="V33" s="15"/>
+      <c r="W33" s="15"/>
+      <c r="X33" s="16"/>
       <c r="Y33" s="19"/>
     </row>
     <row r="34" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C34" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E34" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I34" s="6">
-        <v>580</v>
-      </c>
-      <c r="J34" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
       <c r="K34" s="6"/>
       <c r="L34" s="6"/>
       <c r="M34" s="6"/>
       <c r="N34" s="6"/>
-      <c r="O34" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P34" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q34" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R34" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S34" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T34" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U34" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V34" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W34" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X34" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="18"/>
+      <c r="U34" s="6"/>
+      <c r="V34" s="15"/>
+      <c r="W34" s="15"/>
+      <c r="X34" s="16"/>
       <c r="Y34" s="19"/>
     </row>
     <row r="35" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C35" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I35" s="6">
-        <v>580</v>
-      </c>
-      <c r="J35" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
       <c r="K35" s="6"/>
       <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P35" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R35" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T35" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U35" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V35" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W35" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X35" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="17"/>
+      <c r="R35" s="17"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="18"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="15"/>
+      <c r="W35" s="15"/>
+      <c r="X35" s="16"/>
       <c r="Y35" s="19"/>
     </row>
     <row r="36" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C36" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E36" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F36" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G36" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I36" s="6">
-        <v>680</v>
-      </c>
-      <c r="J36" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
       <c r="K36" s="6"/>
       <c r="L36" s="6"/>
       <c r="M36" s="6"/>
       <c r="N36" s="6"/>
-      <c r="O36" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P36" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R36" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S36" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T36" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U36" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V36" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W36" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X36" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="18"/>
+      <c r="U36" s="6"/>
+      <c r="V36" s="15"/>
+      <c r="W36" s="15"/>
+      <c r="X36" s="16"/>
       <c r="Y36" s="19"/>
     </row>
     <row r="37" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E37" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F37" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I37" s="6">
-        <v>680</v>
-      </c>
-      <c r="J37" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A37" s="6"/>
+      <c r="B37" s="6"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
       <c r="K37" s="6"/>
       <c r="L37" s="6"/>
       <c r="M37" s="6"/>
       <c r="N37" s="6"/>
-      <c r="O37" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P37" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R37" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S37" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T37" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U37" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V37" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W37" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X37" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="17"/>
+      <c r="R37" s="17"/>
+      <c r="S37" s="17"/>
+      <c r="T37" s="18"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="15"/>
+      <c r="W37" s="15"/>
+      <c r="X37" s="16"/>
       <c r="Y37" s="19"/>
     </row>
     <row r="38" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C38" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E38" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F38" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G38" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H38" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I38" s="6">
-        <v>680</v>
-      </c>
-      <c r="J38" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
       <c r="K38" s="6"/>
       <c r="L38" s="6"/>
       <c r="M38" s="6"/>
       <c r="N38" s="6"/>
-      <c r="O38" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P38" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q38" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R38" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S38" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T38" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U38" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V38" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W38" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X38" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="17"/>
+      <c r="R38" s="17"/>
+      <c r="S38" s="17"/>
+      <c r="T38" s="18"/>
+      <c r="U38" s="6"/>
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="16"/>
       <c r="Y38" s="19"/>
     </row>
     <row r="39" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E39" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I39" s="6">
-        <v>680</v>
-      </c>
-      <c r="J39" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
       <c r="K39" s="6"/>
       <c r="L39" s="6"/>
       <c r="M39" s="6"/>
       <c r="N39" s="6"/>
-      <c r="O39" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P39" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q39" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R39" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S39" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T39" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U39" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V39" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W39" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X39" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="17"/>
+      <c r="R39" s="17"/>
+      <c r="S39" s="17"/>
+      <c r="T39" s="18"/>
+      <c r="U39" s="6"/>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="16"/>
       <c r="Y39" s="19"/>
     </row>
     <row r="40" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E40" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F40" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G40" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H40" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I40" s="6">
-        <v>680</v>
-      </c>
-      <c r="J40" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A40" s="6"/>
+      <c r="B40" s="6"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
       <c r="K40" s="6"/>
       <c r="L40" s="6"/>
       <c r="M40" s="6"/>
       <c r="N40" s="6"/>
-      <c r="O40" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P40" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R40" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S40" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T40" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U40" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V40" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W40" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X40" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="17"/>
+      <c r="R40" s="17"/>
+      <c r="S40" s="17"/>
+      <c r="T40" s="18"/>
+      <c r="U40" s="6"/>
+      <c r="V40" s="15"/>
+      <c r="W40" s="15"/>
+      <c r="X40" s="16"/>
       <c r="Y40" s="19"/>
     </row>
     <row r="41" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C41" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F41" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G41" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H41" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I41" s="6">
-        <v>680</v>
-      </c>
-      <c r="J41" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
       <c r="K41" s="6"/>
       <c r="L41" s="6"/>
       <c r="M41" s="6"/>
       <c r="N41" s="6"/>
-      <c r="O41" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P41" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R41" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S41" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T41" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U41" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V41" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W41" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X41" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="17"/>
+      <c r="R41" s="17"/>
+      <c r="S41" s="17"/>
+      <c r="T41" s="18"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="15"/>
+      <c r="W41" s="15"/>
+      <c r="X41" s="16"/>
       <c r="Y41" s="19"/>
     </row>
     <row r="42" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E42" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F42" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H42" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I42" s="6">
-        <v>680</v>
-      </c>
-      <c r="J42" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
       <c r="K42" s="6"/>
       <c r="L42" s="6"/>
       <c r="M42" s="6"/>
       <c r="N42" s="6"/>
-      <c r="O42" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P42" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q42" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R42" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S42" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T42" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U42" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V42" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W42" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X42" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="17"/>
+      <c r="R42" s="17"/>
+      <c r="S42" s="17"/>
+      <c r="T42" s="18"/>
+      <c r="U42" s="6"/>
+      <c r="V42" s="15"/>
+      <c r="W42" s="15"/>
+      <c r="X42" s="16"/>
       <c r="Y42" s="19"/>
     </row>
     <row r="43" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C43" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E43" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F43" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H43" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I43" s="6">
-        <v>680</v>
-      </c>
-      <c r="J43" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
       <c r="K43" s="6"/>
       <c r="L43" s="6"/>
       <c r="M43" s="6"/>
       <c r="N43" s="6"/>
-      <c r="O43" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P43" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q43" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R43" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S43" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T43" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U43" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V43" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W43" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X43" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="6"/>
+      <c r="V43" s="15"/>
+      <c r="W43" s="15"/>
+      <c r="X43" s="16"/>
       <c r="Y43" s="19"/>
     </row>
     <row r="44" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C44" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E44" s="6">
-        <v>4</v>
-      </c>
-      <c r="F44" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G44" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H44" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I44" s="6">
-        <v>680</v>
-      </c>
-      <c r="J44" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
       <c r="K44" s="6"/>
       <c r="L44" s="6"/>
       <c r="M44" s="6"/>
       <c r="N44" s="6"/>
-      <c r="O44" s="7">
-        <v>25</v>
-      </c>
-      <c r="P44" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R44" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S44" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T44" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U44" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V44" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W44" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X44" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="17"/>
+      <c r="R44" s="17"/>
+      <c r="S44" s="17"/>
+      <c r="T44" s="18"/>
+      <c r="U44" s="6"/>
+      <c r="V44" s="15"/>
+      <c r="W44" s="15"/>
+      <c r="X44" s="16"/>
       <c r="Y44" s="19"/>
     </row>
     <row r="45" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E45" s="6">
-        <v>4</v>
-      </c>
-      <c r="F45" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G45" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H45" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I45" s="6">
-        <v>680</v>
-      </c>
-      <c r="J45" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
       <c r="K45" s="6"/>
       <c r="L45" s="6"/>
       <c r="M45" s="6"/>
       <c r="N45" s="6"/>
-      <c r="O45" s="7">
-        <v>25</v>
-      </c>
-      <c r="P45" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q45" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R45" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S45" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T45" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U45" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V45" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W45" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X45" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="17"/>
+      <c r="R45" s="17"/>
+      <c r="S45" s="17"/>
+      <c r="T45" s="18"/>
+      <c r="U45" s="6"/>
+      <c r="V45" s="15"/>
+      <c r="W45" s="15"/>
+      <c r="X45" s="16"/>
       <c r="Y45" s="19"/>
     </row>
     <row r="46" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C46" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E46" s="6">
-        <v>4</v>
-      </c>
-      <c r="F46" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G46" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H46" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I46" s="6">
-        <v>680</v>
-      </c>
-      <c r="J46" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
       <c r="K46" s="6"/>
       <c r="L46" s="6"/>
       <c r="M46" s="6"/>
       <c r="N46" s="6"/>
-      <c r="O46" s="7">
-        <v>25</v>
-      </c>
-      <c r="P46" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R46" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S46" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T46" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U46" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V46" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W46" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X46" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="17"/>
+      <c r="R46" s="17"/>
+      <c r="S46" s="17"/>
+      <c r="T46" s="18"/>
+      <c r="U46" s="6"/>
+      <c r="V46" s="15"/>
+      <c r="W46" s="15"/>
+      <c r="X46" s="16"/>
       <c r="Y46" s="19"/>
     </row>
     <row r="47" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E47" s="6">
-        <v>4</v>
-      </c>
-      <c r="F47" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G47" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H47" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I47" s="6">
-        <v>680</v>
-      </c>
-      <c r="J47" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
       <c r="K47" s="6"/>
       <c r="L47" s="6"/>
       <c r="M47" s="6"/>
       <c r="N47" s="6"/>
-      <c r="O47" s="7">
-        <v>25</v>
-      </c>
-      <c r="P47" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q47" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R47" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S47" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T47" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U47" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V47" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W47" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X47" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="17"/>
+      <c r="S47" s="17"/>
+      <c r="T47" s="18"/>
+      <c r="U47" s="6"/>
+      <c r="V47" s="15"/>
+      <c r="W47" s="15"/>
+      <c r="X47" s="16"/>
       <c r="Y47" s="19"/>
     </row>
     <row r="48" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C48" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" s="6">
-        <v>4</v>
-      </c>
-      <c r="F48" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G48" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H48" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I48" s="6">
-        <v>680</v>
-      </c>
-      <c r="J48" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A48" s="6"/>
+      <c r="B48" s="6"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="6"/>
+      <c r="J48" s="6"/>
       <c r="K48" s="6"/>
       <c r="L48" s="6"/>
       <c r="M48" s="6"/>
       <c r="N48" s="6"/>
-      <c r="O48" s="7">
-        <v>25</v>
-      </c>
-      <c r="P48" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q48" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R48" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S48" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T48" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U48" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V48" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W48" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X48" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="17"/>
+      <c r="S48" s="17"/>
+      <c r="T48" s="18"/>
+      <c r="U48" s="6"/>
+      <c r="V48" s="15"/>
+      <c r="W48" s="15"/>
+      <c r="X48" s="16"/>
       <c r="Y48" s="19"/>
     </row>
     <row r="49" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E49" s="6">
-        <v>4</v>
-      </c>
-      <c r="F49" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H49" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I49" s="6">
-        <v>680</v>
-      </c>
-      <c r="J49" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A49" s="6"/>
+      <c r="B49" s="6"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="6"/>
+      <c r="J49" s="6"/>
       <c r="K49" s="6"/>
       <c r="L49" s="6"/>
       <c r="M49" s="6"/>
       <c r="N49" s="6"/>
-      <c r="O49" s="7">
-        <v>25</v>
-      </c>
-      <c r="P49" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q49" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R49" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S49" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T49" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U49" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V49" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W49" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X49" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="18"/>
+      <c r="U49" s="6"/>
+      <c r="V49" s="15"/>
+      <c r="W49" s="15"/>
+      <c r="X49" s="16"/>
       <c r="Y49" s="19"/>
     </row>
     <row r="50" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C50" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E50" s="6">
-        <v>4</v>
-      </c>
-      <c r="F50" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H50" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I50" s="6">
-        <v>680</v>
-      </c>
-      <c r="J50" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A50" s="6"/>
+      <c r="B50" s="6"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
       <c r="K50" s="6"/>
       <c r="L50" s="6"/>
       <c r="M50" s="6"/>
       <c r="N50" s="6"/>
-      <c r="O50" s="7">
-        <v>25</v>
-      </c>
-      <c r="P50" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R50" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S50" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T50" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U50" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V50" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W50" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X50" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="18"/>
+      <c r="U50" s="6"/>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
+      <c r="X50" s="16"/>
       <c r="Y50" s="19"/>
     </row>
     <row r="51" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C51" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E51" s="6">
-        <v>4</v>
-      </c>
-      <c r="F51" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G51" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="H51" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I51" s="6">
-        <v>680</v>
-      </c>
-      <c r="J51" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A51" s="6"/>
+      <c r="B51" s="6"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="6"/>
+      <c r="J51" s="6"/>
       <c r="K51" s="6"/>
       <c r="L51" s="6"/>
       <c r="M51" s="6"/>
       <c r="N51" s="6"/>
-      <c r="O51" s="7">
-        <v>25</v>
-      </c>
-      <c r="P51" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R51" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S51" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T51" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U51" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V51" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W51" s="15">
-        <v>679.51289999999995</v>
-      </c>
-      <c r="X51" s="16">
-        <v>4.2</v>
-      </c>
+      <c r="O51" s="7"/>
+      <c r="P51" s="7"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17"/>
+      <c r="T51" s="18"/>
+      <c r="U51" s="6"/>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="16"/>
       <c r="Y51" s="19"/>
     </row>
     <row r="52" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C52" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E52" s="6">
-        <v>7</v>
-      </c>
-      <c r="F52" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G52" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H52" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I52" s="6">
-        <v>60</v>
-      </c>
-      <c r="J52" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A52" s="6"/>
+      <c r="B52" s="6"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="17"/>
+      <c r="H52" s="17"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
       <c r="K52" s="6"/>
       <c r="L52" s="6"/>
       <c r="M52" s="6"/>
       <c r="N52" s="6"/>
-      <c r="O52" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P52" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R52" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S52" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T52" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U52" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V52" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W52" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X52" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O52" s="7"/>
+      <c r="P52" s="7"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="17"/>
+      <c r="S52" s="17"/>
+      <c r="T52" s="18"/>
+      <c r="U52" s="6"/>
+      <c r="V52" s="15"/>
+      <c r="W52" s="15"/>
+      <c r="X52" s="16"/>
       <c r="Y52" s="19"/>
     </row>
     <row r="53" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C53" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E53" s="6">
-        <v>7</v>
-      </c>
-      <c r="F53" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G53" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H53" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I53" s="6">
-        <v>60</v>
-      </c>
-      <c r="J53" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A53" s="6"/>
+      <c r="B53" s="6"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="17"/>
+      <c r="G53" s="17"/>
+      <c r="H53" s="17"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="6"/>
       <c r="K53" s="6"/>
       <c r="L53" s="6"/>
       <c r="M53" s="6"/>
       <c r="N53" s="6"/>
-      <c r="O53" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P53" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q53" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R53" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S53" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T53" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U53" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V53" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W53" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X53" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O53" s="7"/>
+      <c r="P53" s="7"/>
+      <c r="Q53" s="17"/>
+      <c r="R53" s="17"/>
+      <c r="S53" s="17"/>
+      <c r="T53" s="18"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="15"/>
+      <c r="W53" s="15"/>
+      <c r="X53" s="16"/>
       <c r="Y53" s="19"/>
     </row>
     <row r="54" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E54" s="6">
-        <v>7</v>
-      </c>
-      <c r="F54" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G54" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H54" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I54" s="6">
-        <v>60</v>
-      </c>
-      <c r="J54" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="17"/>
+      <c r="H54" s="17"/>
+      <c r="I54" s="6"/>
+      <c r="J54" s="6"/>
       <c r="K54" s="6"/>
       <c r="L54" s="6"/>
       <c r="M54" s="6"/>
       <c r="N54" s="6"/>
-      <c r="O54" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P54" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q54" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R54" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S54" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T54" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U54" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V54" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W54" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X54" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O54" s="7"/>
+      <c r="P54" s="7"/>
+      <c r="Q54" s="17"/>
+      <c r="R54" s="17"/>
+      <c r="S54" s="17"/>
+      <c r="T54" s="18"/>
+      <c r="U54" s="6"/>
+      <c r="V54" s="15"/>
+      <c r="W54" s="15"/>
+      <c r="X54" s="16"/>
       <c r="Y54" s="19"/>
     </row>
     <row r="55" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C55" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E55" s="6">
-        <v>7</v>
-      </c>
-      <c r="F55" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G55" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H55" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I55" s="6">
-        <v>60</v>
-      </c>
-      <c r="J55" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A55" s="6"/>
+      <c r="B55" s="6"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
       <c r="K55" s="6"/>
       <c r="L55" s="6"/>
       <c r="M55" s="6"/>
       <c r="N55" s="6"/>
-      <c r="O55" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P55" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q55" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R55" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S55" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T55" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U55" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V55" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W55" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X55" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O55" s="7"/>
+      <c r="P55" s="7"/>
+      <c r="Q55" s="17"/>
+      <c r="R55" s="17"/>
+      <c r="S55" s="17"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="6"/>
+      <c r="V55" s="15"/>
+      <c r="W55" s="15"/>
+      <c r="X55" s="16"/>
       <c r="Y55" s="19"/>
     </row>
     <row r="56" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C56" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E56" s="6">
-        <v>7</v>
-      </c>
-      <c r="F56" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H56" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I56" s="6">
-        <v>60</v>
-      </c>
-      <c r="J56" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A56" s="6"/>
+      <c r="B56" s="6"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="6"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="17"/>
+      <c r="H56" s="17"/>
+      <c r="I56" s="6"/>
+      <c r="J56" s="6"/>
       <c r="K56" s="6"/>
       <c r="L56" s="6"/>
       <c r="M56" s="6"/>
       <c r="N56" s="6"/>
-      <c r="O56" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P56" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q56" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R56" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S56" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T56" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U56" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V56" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W56" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X56" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O56" s="7"/>
+      <c r="P56" s="7"/>
+      <c r="Q56" s="17"/>
+      <c r="R56" s="17"/>
+      <c r="S56" s="17"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="6"/>
+      <c r="V56" s="15"/>
+      <c r="W56" s="15"/>
+      <c r="X56" s="16"/>
       <c r="Y56" s="19"/>
     </row>
     <row r="57" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C57" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E57" s="6">
-        <v>7</v>
-      </c>
-      <c r="F57" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G57" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H57" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I57" s="6">
-        <v>60</v>
-      </c>
-      <c r="J57" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A57" s="6"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="6"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="6"/>
+      <c r="J57" s="6"/>
       <c r="K57" s="6"/>
       <c r="L57" s="6"/>
       <c r="M57" s="6"/>
       <c r="N57" s="6"/>
-      <c r="O57" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P57" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q57" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R57" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S57" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T57" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U57" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V57" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W57" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X57" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="17"/>
+      <c r="R57" s="17"/>
+      <c r="S57" s="17"/>
+      <c r="T57" s="18"/>
+      <c r="U57" s="6"/>
+      <c r="V57" s="15"/>
+      <c r="W57" s="15"/>
+      <c r="X57" s="16"/>
       <c r="Y57" s="19"/>
     </row>
     <row r="58" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C58" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E58" s="6">
-        <v>7</v>
-      </c>
-      <c r="F58" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G58" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H58" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I58" s="6">
-        <v>60</v>
-      </c>
-      <c r="J58" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A58" s="6"/>
+      <c r="B58" s="6"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="6"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="6"/>
+      <c r="J58" s="6"/>
       <c r="K58" s="6"/>
       <c r="L58" s="6"/>
       <c r="M58" s="6"/>
       <c r="N58" s="6"/>
-      <c r="O58" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P58" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q58" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R58" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S58" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T58" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U58" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V58" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W58" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X58" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O58" s="7"/>
+      <c r="P58" s="7"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="18"/>
+      <c r="U58" s="6"/>
+      <c r="V58" s="15"/>
+      <c r="W58" s="15"/>
+      <c r="X58" s="16"/>
       <c r="Y58" s="19"/>
     </row>
     <row r="59" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E59" s="6">
-        <v>7</v>
-      </c>
-      <c r="F59" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G59" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="H59" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I59" s="6">
-        <v>60</v>
-      </c>
-      <c r="J59" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A59" s="6"/>
+      <c r="B59" s="6"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
       <c r="K59" s="6"/>
       <c r="L59" s="6"/>
       <c r="M59" s="6"/>
       <c r="N59" s="6"/>
-      <c r="O59" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P59" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q59" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R59" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S59" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T59" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U59" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V59" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W59" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X59" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O59" s="7"/>
+      <c r="P59" s="7"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="18"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="15"/>
+      <c r="W59" s="15"/>
+      <c r="X59" s="16"/>
       <c r="Y59" s="19"/>
     </row>
     <row r="60" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C60" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E60" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F60" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G60" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H60" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I60" s="6">
-        <v>60</v>
-      </c>
-      <c r="J60" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A60" s="6"/>
+      <c r="B60" s="6"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="6"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="17"/>
+      <c r="H60" s="17"/>
+      <c r="I60" s="6"/>
+      <c r="J60" s="6"/>
       <c r="K60" s="6"/>
       <c r="L60" s="6"/>
       <c r="M60" s="6"/>
       <c r="N60" s="6"/>
-      <c r="O60" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P60" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q60" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R60" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S60" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T60" s="18">
-        <v>1</v>
-      </c>
-      <c r="U60" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V60" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W60" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X60" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O60" s="7"/>
+      <c r="P60" s="7"/>
+      <c r="Q60" s="17"/>
+      <c r="R60" s="17"/>
+      <c r="S60" s="17"/>
+      <c r="T60" s="18"/>
+      <c r="U60" s="6"/>
+      <c r="V60" s="15"/>
+      <c r="W60" s="15"/>
+      <c r="X60" s="16"/>
       <c r="Y60" s="19"/>
     </row>
     <row r="61" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C61" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E61" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F61" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G61" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H61" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I61" s="6">
-        <v>60</v>
-      </c>
-      <c r="J61" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A61" s="6"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="17"/>
+      <c r="H61" s="17"/>
+      <c r="I61" s="6"/>
+      <c r="J61" s="6"/>
       <c r="K61" s="6"/>
       <c r="L61" s="6"/>
       <c r="M61" s="6"/>
       <c r="N61" s="6"/>
-      <c r="O61" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P61" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S61" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T61" s="18">
-        <v>1</v>
-      </c>
-      <c r="U61" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V61" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W61" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X61" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O61" s="7"/>
+      <c r="P61" s="7"/>
+      <c r="Q61" s="17"/>
+      <c r="R61" s="17"/>
+      <c r="S61" s="17"/>
+      <c r="T61" s="18"/>
+      <c r="U61" s="6"/>
+      <c r="V61" s="15"/>
+      <c r="W61" s="15"/>
+      <c r="X61" s="16"/>
       <c r="Y61" s="19"/>
     </row>
     <row r="62" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C62" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E62" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F62" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G62" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H62" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I62" s="6">
-        <v>60</v>
-      </c>
-      <c r="J62" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A62" s="6"/>
+      <c r="B62" s="6"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="17"/>
+      <c r="H62" s="17"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
       <c r="K62" s="6"/>
       <c r="L62" s="6"/>
       <c r="M62" s="6"/>
       <c r="N62" s="6"/>
-      <c r="O62" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P62" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q62" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R62" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S62" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T62" s="18">
-        <v>1</v>
-      </c>
-      <c r="U62" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V62" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W62" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X62" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O62" s="7"/>
+      <c r="P62" s="7"/>
+      <c r="Q62" s="17"/>
+      <c r="R62" s="17"/>
+      <c r="S62" s="17"/>
+      <c r="T62" s="18"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="15"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="16"/>
       <c r="Y62" s="19"/>
     </row>
     <row r="63" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C63" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E63" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F63" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G63" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H63" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I63" s="6">
-        <v>60</v>
-      </c>
-      <c r="J63" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A63" s="6"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
+      <c r="H63" s="17"/>
+      <c r="I63" s="6"/>
+      <c r="J63" s="6"/>
       <c r="K63" s="6"/>
       <c r="L63" s="6"/>
       <c r="M63" s="6"/>
       <c r="N63" s="6"/>
-      <c r="O63" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P63" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S63" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T63" s="18">
-        <v>1</v>
-      </c>
-      <c r="U63" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V63" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W63" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X63" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O63" s="7"/>
+      <c r="P63" s="7"/>
+      <c r="Q63" s="17"/>
+      <c r="R63" s="17"/>
+      <c r="S63" s="17"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="6"/>
+      <c r="V63" s="15"/>
+      <c r="W63" s="15"/>
+      <c r="X63" s="16"/>
       <c r="Y63" s="19"/>
     </row>
     <row r="64" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E64" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F64" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G64" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H64" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I64" s="6">
-        <v>60</v>
-      </c>
-      <c r="J64" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A64" s="6"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="17"/>
+      <c r="G64" s="17"/>
+      <c r="H64" s="17"/>
+      <c r="I64" s="6"/>
+      <c r="J64" s="6"/>
       <c r="K64" s="6"/>
       <c r="L64" s="6"/>
       <c r="M64" s="6"/>
       <c r="N64" s="6"/>
-      <c r="O64" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P64" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q64" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R64" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S64" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T64" s="18">
-        <v>1</v>
-      </c>
-      <c r="U64" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V64" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W64" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X64" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O64" s="7"/>
+      <c r="P64" s="7"/>
+      <c r="Q64" s="17"/>
+      <c r="R64" s="17"/>
+      <c r="S64" s="17"/>
+      <c r="T64" s="18"/>
+      <c r="U64" s="6"/>
+      <c r="V64" s="15"/>
+      <c r="W64" s="15"/>
+      <c r="X64" s="16"/>
       <c r="Y64" s="19"/>
     </row>
     <row r="65" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C65" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E65" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F65" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G65" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I65" s="6">
-        <v>60</v>
-      </c>
-      <c r="J65" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A65" s="6"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="6"/>
+      <c r="J65" s="6"/>
       <c r="K65" s="6"/>
       <c r="L65" s="6"/>
       <c r="M65" s="6"/>
       <c r="N65" s="6"/>
-      <c r="O65" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P65" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q65" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R65" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S65" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T65" s="18">
-        <v>1</v>
-      </c>
-      <c r="U65" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V65" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W65" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X65" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O65" s="7"/>
+      <c r="P65" s="7"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="18"/>
+      <c r="U65" s="6"/>
+      <c r="V65" s="15"/>
+      <c r="W65" s="15"/>
+      <c r="X65" s="16"/>
       <c r="Y65" s="19"/>
     </row>
     <row r="66" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E66" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F66" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G66" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H66" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I66" s="6">
-        <v>60</v>
-      </c>
-      <c r="J66" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A66" s="6"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="6"/>
+      <c r="J66" s="6"/>
       <c r="K66" s="6"/>
       <c r="L66" s="6"/>
       <c r="M66" s="6"/>
       <c r="N66" s="6"/>
-      <c r="O66" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P66" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q66" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R66" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S66" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T66" s="18">
-        <v>1</v>
-      </c>
-      <c r="U66" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V66" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W66" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X66" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O66" s="7"/>
+      <c r="P66" s="7"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="18"/>
+      <c r="U66" s="6"/>
+      <c r="V66" s="15"/>
+      <c r="W66" s="15"/>
+      <c r="X66" s="16"/>
       <c r="Y66" s="19"/>
     </row>
     <row r="67" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C67" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E67" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F67" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G67" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="H67" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I67" s="6">
-        <v>60</v>
-      </c>
-      <c r="J67" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A67" s="6"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
+      <c r="H67" s="17"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
       <c r="K67" s="6"/>
       <c r="L67" s="6"/>
       <c r="M67" s="6"/>
       <c r="N67" s="6"/>
-      <c r="O67" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P67" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S67" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T67" s="18">
-        <v>1</v>
-      </c>
-      <c r="U67" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V67" s="15">
-        <v>2038.5387000000001</v>
-      </c>
-      <c r="W67" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X67" s="16">
-        <v>3.6364000000000001</v>
-      </c>
+      <c r="O67" s="7"/>
+      <c r="P67" s="7"/>
+      <c r="Q67" s="17"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
+      <c r="T67" s="18"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="15"/>
+      <c r="W67" s="15"/>
+      <c r="X67" s="16"/>
       <c r="Y67" s="19"/>
     </row>
     <row r="68" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C68" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E68" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F68" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G68" s="17" t="s">
-        <v>92</v>
-      </c>
-      <c r="H68" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I68" s="6">
-        <v>580</v>
-      </c>
-      <c r="J68" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A68" s="6"/>
+      <c r="B68" s="6"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="17"/>
+      <c r="H68" s="17"/>
+      <c r="I68" s="6"/>
+      <c r="J68" s="6"/>
       <c r="K68" s="6"/>
       <c r="L68" s="6"/>
       <c r="M68" s="6"/>
       <c r="N68" s="6"/>
-      <c r="O68" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P68" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q68" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R68" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S68" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T68" s="18">
-        <v>1</v>
-      </c>
-      <c r="U68" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V68" s="15">
-        <v>4077.0772999999999</v>
-      </c>
-      <c r="W68" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X68" s="16">
-        <v>1.4815</v>
-      </c>
+      <c r="O68" s="7"/>
+      <c r="P68" s="7"/>
+      <c r="Q68" s="17"/>
+      <c r="R68" s="17"/>
+      <c r="S68" s="17"/>
+      <c r="T68" s="18"/>
+      <c r="U68" s="6"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="16"/>
       <c r="Y68" s="19"/>
     </row>
     <row r="69" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E69" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F69" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G69" s="17" t="s">
-        <v>93</v>
-      </c>
-      <c r="H69" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I69" s="6">
-        <v>680</v>
-      </c>
-      <c r="J69" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A69" s="6"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+      <c r="I69" s="6"/>
+      <c r="J69" s="6"/>
       <c r="K69" s="6"/>
       <c r="L69" s="6"/>
       <c r="M69" s="6"/>
       <c r="N69" s="6"/>
-      <c r="O69" s="7">
-        <v>6.1727999999999996</v>
-      </c>
-      <c r="P69" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q69" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R69" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S69" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T69" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U69" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V69" s="15">
-        <v>2853.9540999999999</v>
-      </c>
-      <c r="W69" s="15">
-        <v>2752.0272</v>
-      </c>
-      <c r="X69" s="16">
-        <v>1.0369999999999999</v>
-      </c>
+      <c r="O69" s="7"/>
+      <c r="P69" s="7"/>
+      <c r="Q69" s="17"/>
+      <c r="R69" s="17"/>
+      <c r="S69" s="17"/>
+      <c r="T69" s="18"/>
+      <c r="U69" s="6"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="15"/>
+      <c r="X69" s="16"/>
       <c r="Y69" s="19"/>
     </row>
     <row r="70" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E70" s="6">
-        <v>7</v>
-      </c>
-      <c r="F70" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G70" s="17" t="s">
-        <v>94</v>
-      </c>
-      <c r="H70" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I70" s="6">
-        <v>60</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A70" s="6"/>
+      <c r="B70" s="6"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="6"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="17"/>
+      <c r="H70" s="17"/>
+      <c r="I70" s="6"/>
+      <c r="J70" s="6"/>
       <c r="K70" s="6"/>
       <c r="L70" s="6"/>
       <c r="M70" s="6"/>
       <c r="N70" s="6"/>
-      <c r="O70" s="7">
-        <v>7.1429</v>
-      </c>
-      <c r="P70" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q70" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R70" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S70" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T70" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U70" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V70" s="15">
-        <v>910.93330000000003</v>
-      </c>
-      <c r="W70" s="15">
-        <v>379.55560000000003</v>
-      </c>
-      <c r="X70" s="16">
-        <v>2.4</v>
-      </c>
+      <c r="O70" s="7"/>
+      <c r="P70" s="7"/>
+      <c r="Q70" s="17"/>
+      <c r="R70" s="17"/>
+      <c r="S70" s="17"/>
+      <c r="T70" s="18"/>
+      <c r="U70" s="6"/>
+      <c r="V70" s="15"/>
+      <c r="W70" s="15"/>
+      <c r="X70" s="16"/>
       <c r="Y70" s="19"/>
     </row>
     <row r="71" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C71" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E71" s="6">
-        <v>6.6</v>
-      </c>
-      <c r="F71" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="H71" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I71" s="6">
-        <v>60</v>
-      </c>
-      <c r="J71" s="6">
-        <v>0.05</v>
-      </c>
+      <c r="A71" s="6"/>
+      <c r="B71" s="6"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="6"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
+      <c r="H71" s="17"/>
+      <c r="I71" s="6"/>
+      <c r="J71" s="6"/>
       <c r="K71" s="6"/>
       <c r="L71" s="6"/>
       <c r="M71" s="6"/>
       <c r="N71" s="6"/>
-      <c r="O71" s="7">
-        <v>7.5758000000000001</v>
-      </c>
-      <c r="P71" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q71" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R71" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S71" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="T71" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="U71" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V71" s="15">
-        <v>1426.9771000000001</v>
-      </c>
-      <c r="W71" s="15">
-        <v>560.59810000000004</v>
-      </c>
-      <c r="X71" s="16">
-        <v>2.5455000000000001</v>
-      </c>
+      <c r="O71" s="7"/>
+      <c r="P71" s="7"/>
+      <c r="Q71" s="17"/>
+      <c r="R71" s="17"/>
+      <c r="S71" s="17"/>
+      <c r="T71" s="18"/>
+      <c r="U71" s="6"/>
+      <c r="V71" s="15"/>
+      <c r="W71" s="15"/>
+      <c r="X71" s="16"/>
       <c r="Y71" s="19"/>
     </row>
     <row r="72" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C72" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E72" s="6">
-        <v>16.2</v>
-      </c>
-      <c r="F72" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G72" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H72" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I72" s="6">
-        <v>1680</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="A72" s="6"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="17"/>
+      <c r="H72" s="17"/>
+      <c r="I72" s="6"/>
+      <c r="J72" s="6"/>
       <c r="K72" s="6"/>
       <c r="L72" s="6"/>
       <c r="M72" s="6"/>
       <c r="N72" s="6"/>
-      <c r="O72" s="7">
-        <v>24.691400000000002</v>
-      </c>
-      <c r="P72" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q72" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R72" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S72" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T72" s="18">
-        <v>1</v>
-      </c>
-      <c r="U72" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V72" s="15">
-        <v>16308.309300000001</v>
-      </c>
-      <c r="W72" s="15">
-        <v>1376.0136</v>
-      </c>
-      <c r="X72" s="16">
-        <v>11.851900000000001</v>
-      </c>
+      <c r="O72" s="7"/>
+      <c r="P72" s="7"/>
+      <c r="Q72" s="17"/>
+      <c r="R72" s="17"/>
+      <c r="S72" s="17"/>
+      <c r="T72" s="18"/>
+      <c r="U72" s="6"/>
+      <c r="V72" s="15"/>
+      <c r="W72" s="15"/>
+      <c r="X72" s="16"/>
       <c r="Y72" s="19"/>
     </row>
     <row r="73" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C73" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E73" s="6">
-        <v>45.2</v>
-      </c>
-      <c r="F73" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G73" s="17" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I73" s="6">
-        <v>1680</v>
-      </c>
-      <c r="J73" s="6">
-        <v>0.4</v>
-      </c>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="6"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
+      <c r="H73" s="17"/>
+      <c r="I73" s="6"/>
+      <c r="J73" s="6"/>
       <c r="K73" s="6"/>
       <c r="L73" s="6"/>
       <c r="M73" s="6"/>
       <c r="N73" s="6"/>
-      <c r="O73" s="7">
-        <v>8.8496000000000006</v>
-      </c>
-      <c r="P73" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q73" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R73" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S73" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T73" s="18">
-        <v>1</v>
-      </c>
-      <c r="U73" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V73" s="15">
-        <v>16308.309300000001</v>
-      </c>
-      <c r="W73" s="15">
-        <v>3839.2478000000001</v>
-      </c>
-      <c r="X73" s="16">
-        <v>4.2477999999999998</v>
-      </c>
+      <c r="O73" s="7"/>
+      <c r="P73" s="7"/>
+      <c r="Q73" s="17"/>
+      <c r="R73" s="17"/>
+      <c r="S73" s="17"/>
+      <c r="T73" s="18"/>
+      <c r="U73" s="6"/>
+      <c r="V73" s="15"/>
+      <c r="W73" s="15"/>
+      <c r="X73" s="16"/>
       <c r="Y73" s="19"/>
     </row>
     <row r="74" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="C74" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D74" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E74" s="6">
-        <v>22.1</v>
-      </c>
-      <c r="F74" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G74" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I74" s="6">
-        <v>210</v>
-      </c>
-      <c r="J74" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="6"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="6"/>
+      <c r="J74" s="6"/>
       <c r="K74" s="6"/>
       <c r="L74" s="6"/>
       <c r="M74" s="6"/>
       <c r="N74" s="6"/>
-      <c r="O74" s="7">
-        <v>4.5248999999999997</v>
-      </c>
-      <c r="P74" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q74" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R74" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S74" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T74" s="18">
-        <v>1</v>
-      </c>
-      <c r="U74" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V74" s="15">
-        <v>4077.0772999999999</v>
-      </c>
-      <c r="W74" s="15">
-        <v>1877.1543999999999</v>
-      </c>
-      <c r="X74" s="16">
-        <v>2.1718999999999999</v>
-      </c>
+      <c r="O74" s="7"/>
+      <c r="P74" s="7"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="18"/>
+      <c r="U74" s="6"/>
+      <c r="V74" s="15"/>
+      <c r="W74" s="15"/>
+      <c r="X74" s="16"/>
       <c r="Y74" s="19"/>
     </row>
     <row r="75" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E75" s="6">
-        <v>9.4</v>
-      </c>
-      <c r="F75" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G75" s="17" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I75" s="6">
-        <v>390</v>
-      </c>
-      <c r="J75" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="6"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="6"/>
+      <c r="J75" s="6"/>
       <c r="K75" s="6"/>
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="7">
-        <v>10.638299999999999</v>
-      </c>
-      <c r="P75" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S75" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T75" s="18">
-        <v>1</v>
-      </c>
-      <c r="U75" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V75" s="15">
-        <v>4077.0772999999999</v>
-      </c>
-      <c r="W75" s="15">
-        <v>798.42759999999998</v>
-      </c>
-      <c r="X75" s="16">
-        <v>5.1063999999999998</v>
-      </c>
+      <c r="O75" s="7"/>
+      <c r="P75" s="7"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="18"/>
+      <c r="U75" s="6"/>
+      <c r="V75" s="15"/>
+      <c r="W75" s="15"/>
+      <c r="X75" s="16"/>
       <c r="Y75" s="19"/>
     </row>
     <row r="76" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C76" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E76" s="6">
-        <v>7.8</v>
-      </c>
-      <c r="F76" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G76" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="H76" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I76" s="6">
-        <v>170</v>
-      </c>
-      <c r="J76" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="6"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
+      <c r="I76" s="6"/>
+      <c r="J76" s="6"/>
       <c r="K76" s="6"/>
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="7">
-        <v>12.820499999999999</v>
-      </c>
-      <c r="P76" s="7">
-        <v>5.5556000000000001</v>
-      </c>
-      <c r="Q76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S76" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T76" s="18">
-        <v>1</v>
-      </c>
-      <c r="U76" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V76" s="15">
-        <v>4077.0772999999999</v>
-      </c>
-      <c r="W76" s="15">
-        <v>1325.0500999999999</v>
-      </c>
-      <c r="X76" s="16">
-        <v>3.0769000000000002</v>
-      </c>
+      <c r="O76" s="7"/>
+      <c r="P76" s="7"/>
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17"/>
+      <c r="T76" s="18"/>
+      <c r="U76" s="6"/>
+      <c r="V76" s="15"/>
+      <c r="W76" s="15"/>
+      <c r="X76" s="16"/>
       <c r="Y76" s="19"/>
     </row>
     <row r="77" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C77" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E77" s="6">
-        <v>8.4</v>
-      </c>
-      <c r="F77" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G77" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H77" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I77" s="6">
-        <v>100</v>
-      </c>
-      <c r="J77" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="6"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
+      <c r="I77" s="6"/>
+      <c r="J77" s="6"/>
       <c r="K77" s="6"/>
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="7">
-        <v>11.9048</v>
-      </c>
-      <c r="P77" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S77" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T77" s="18">
-        <v>1</v>
-      </c>
-      <c r="U77" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V77" s="15">
-        <v>2602.6667000000002</v>
-      </c>
-      <c r="W77" s="15">
-        <v>455.4667</v>
-      </c>
-      <c r="X77" s="16">
-        <v>5.7142999999999997</v>
-      </c>
+      <c r="O77" s="7"/>
+      <c r="P77" s="7"/>
+      <c r="Q77" s="17"/>
+      <c r="R77" s="17"/>
+      <c r="S77" s="17"/>
+      <c r="T77" s="18"/>
+      <c r="U77" s="6"/>
+      <c r="V77" s="15"/>
+      <c r="W77" s="15"/>
+      <c r="X77" s="16"/>
       <c r="Y77" s="19"/>
     </row>
     <row r="78" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C78" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="E78" s="6">
-        <v>7.7</v>
-      </c>
-      <c r="F78" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="17" t="s">
-        <v>100</v>
-      </c>
-      <c r="H78" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" s="6">
-        <v>100</v>
-      </c>
-      <c r="J78" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="6"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
+      <c r="I78" s="6"/>
+      <c r="J78" s="6"/>
       <c r="K78" s="6"/>
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="7">
-        <v>12.987</v>
-      </c>
-      <c r="P78" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q78" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R78" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S78" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T78" s="18">
-        <v>1</v>
-      </c>
-      <c r="U78" s="6">
-        <v>2000</v>
-      </c>
-      <c r="V78" s="15">
-        <v>2602.6667000000002</v>
-      </c>
-      <c r="W78" s="15">
-        <v>417.5111</v>
-      </c>
-      <c r="X78" s="16">
-        <v>6.2337999999999996</v>
-      </c>
+      <c r="O78" s="7"/>
+      <c r="P78" s="7"/>
+      <c r="Q78" s="17"/>
+      <c r="R78" s="17"/>
+      <c r="S78" s="17"/>
+      <c r="T78" s="18"/>
+      <c r="U78" s="6"/>
+      <c r="V78" s="15"/>
+      <c r="W78" s="15"/>
+      <c r="X78" s="16"/>
       <c r="Y78" s="19"/>
     </row>
     <row r="79" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C79" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="6">
-        <v>12</v>
-      </c>
-      <c r="F79" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="G79" s="17" t="s">
-        <v>101</v>
-      </c>
-      <c r="H79" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="I79" s="6">
-        <v>130</v>
-      </c>
-      <c r="J79" s="6">
-        <v>0.1</v>
-      </c>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="6"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
+      <c r="H79" s="17"/>
+      <c r="I79" s="6"/>
+      <c r="J79" s="6"/>
       <c r="K79" s="6"/>
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="7">
-        <v>8.3332999999999995</v>
-      </c>
-      <c r="P79" s="7">
-        <v>2.7778</v>
-      </c>
-      <c r="Q79" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="R79" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="S79" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="T79" s="18">
-        <v>1</v>
-      </c>
-      <c r="U79" s="6">
-        <v>3133</v>
-      </c>
-      <c r="V79" s="15">
-        <v>4077.0772999999999</v>
-      </c>
-      <c r="W79" s="15">
-        <v>1019.2693</v>
-      </c>
-      <c r="X79" s="16">
-        <v>4</v>
-      </c>
+      <c r="O79" s="7"/>
+      <c r="P79" s="7"/>
+      <c r="Q79" s="17"/>
+      <c r="R79" s="17"/>
+      <c r="S79" s="17"/>
+      <c r="T79" s="18"/>
+      <c r="U79" s="6"/>
+      <c r="V79" s="15"/>
+      <c r="W79" s="15"/>
+      <c r="X79" s="16"/>
       <c r="Y79" s="19"/>
     </row>
     <row r="80" spans="1:25" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">

--- a/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
+++ b/★結果ビューア/計算結果Viewer_換気_v1.0.xlsx
@@ -1269,6 +1269,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,12 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1655,62 +1655,62 @@
       <c r="F2" s="20"/>
     </row>
     <row r="4" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="26"/>
+      <c r="B4" s="26" t="s">
         <v>70</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="26" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="26" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="27">
         <v>3.45746666666667</v>
       </c>
-      <c r="C5" s="31">
+      <c r="C5" s="27">
         <v>5.8235921621469899E-2</v>
       </c>
-      <c r="D5" s="31">
+      <c r="D5" s="27">
         <v>33744.874666666699</v>
       </c>
-      <c r="E5" s="31">
+      <c r="E5" s="27">
         <v>568.38259502554604</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="27">
         <v>0.750862305555556</v>
       </c>
-      <c r="C6" s="31">
+      <c r="C6" s="27">
         <v>1.26471670128947E-2</v>
       </c>
-      <c r="D6" s="31">
+      <c r="D6" s="27">
         <v>7328.4161022222197</v>
       </c>
-      <c r="E6" s="31">
+      <c r="E6" s="27">
         <v>123.436350045852</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31">
+      <c r="B7" s="26"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27">
         <f>E5/E6</f>
         <v>4.6046613887595766</v>
       </c>
@@ -1731,7 +1731,7 @@
   <dimension ref="A1:Y499"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="A6" sqref="A6:X13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1757,40 +1757,40 @@
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:25" s="1" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="26"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="27" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="27" t="s">
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="31"/>
       <c r="U2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="V2" s="26" t="s">
+      <c r="V2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="W2" s="26"/>
-      <c r="X2" s="26"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
     </row>
     <row r="3" spans="1:25" s="2" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
@@ -2334,7 +2334,7 @@
         <v>29</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C11" s="24" t="s">
         <v>44</v>
@@ -2343,7 +2343,7 @@
         <v>25</v>
       </c>
       <c r="E11" s="6">
-        <v>11.85</v>
+        <v>13</v>
       </c>
       <c r="F11" s="17" t="s">
         <v>39</v>
@@ -2365,7 +2365,7 @@
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="7">
-        <v>4.2194000000000003</v>
+        <v>3.8462000000000001</v>
       </c>
       <c r="P11" s="7">
         <v>2.7778</v>
@@ -2389,10 +2389,10 @@
         <v>2038.5387000000001</v>
       </c>
       <c r="W11" s="15">
-        <v>1006.5285</v>
+        <v>1104.2084</v>
       </c>
       <c r="X11" s="16">
-        <v>2.0253000000000001</v>
+        <v>1.8462000000000001</v>
       </c>
       <c r="Y11" s="19"/>
     </row>
@@ -2401,7 +2401,7 @@
         <v>29</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="24" t="s">
         <v>44</v>
@@ -2410,7 +2410,7 @@
         <v>25</v>
       </c>
       <c r="E12" s="6">
-        <v>13</v>
+        <v>11.85</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>39</v>
@@ -2432,7 +2432,7 @@
       <c r="M12" s="6"/>
       <c r="N12" s="6"/>
       <c r="O12" s="7">
-        <v>3.8462000000000001</v>
+        <v>4.2194000000000003</v>
       </c>
       <c r="P12" s="7">
         <v>2.7778</v>
@@ -2456,10 +2456,10 @@
         <v>2038.5387000000001</v>
       </c>
       <c r="W12" s="15">
-        <v>1104.2084</v>
+        <v>1006.5285</v>
       </c>
       <c r="X12" s="16">
-        <v>1.8462000000000001</v>
+        <v>2.0253000000000001</v>
       </c>
       <c r="Y12" s="19"/>
     </row>
